--- a/BOM/CR_10_SW_BOM.xlsx
+++ b/BOM/CR_10_SW_BOM.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miHx8iZlKYX9bqJlSzI6c1TvHShrw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjyrD8e53rO9buIHGLW/w8NQfDD2w=="/>
     </ext>
   </extLst>
 </workbook>
@@ -30,7 +30,7 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>Notes</t>
+    <t>Link</t>
   </si>
   <si>
     <t>Frame</t>
@@ -132,13 +132,13 @@
     <t>MGN12H Linear Rail - 500mm</t>
   </si>
   <si>
-    <t>GT2 20T Pulley (5mm B</t>
+    <t xml:space="preserve">GT2 20T Pulley 6mm </t>
   </si>
   <si>
-    <t>6mm W)</t>
+    <t>3</t>
   </si>
   <si>
-    <t>GT2 Belt (6mm W) - 10m</t>
+    <t>GT2 Belt - 10m</t>
   </si>
   <si>
     <t>F695 Bearing</t>
@@ -356,12 +356,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
@@ -369,14 +369,14 @@
     <xf borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
@@ -385,22 +385,19 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,13 +619,14 @@
     <col customWidth="1" min="2" max="2" width="32.71"/>
     <col customWidth="1" min="3" max="3" width="7.71"/>
     <col customWidth="1" min="4" max="4" width="6.14"/>
-    <col customWidth="1" min="5" max="26" width="8.29"/>
+    <col customWidth="1" min="5" max="25" width="8.29"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -649,7 +647,6 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -661,10 +658,10 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -685,7 +682,6 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -698,7 +694,7 @@
         <v>2.0</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -719,7 +715,6 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="8"/>
@@ -730,7 +725,7 @@
         <v>2.0</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -751,18 +746,17 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>1.0</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -783,18 +777,17 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>8.0</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -815,20 +808,19 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10">
         <v>8.0</v>
       </c>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -849,18 +841,17 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="10">
         <v>50.0</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -881,18 +872,17 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="10">
         <v>12.0</v>
       </c>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -913,18 +903,17 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>100.0</v>
       </c>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -945,18 +934,17 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>50.0</v>
       </c>
       <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -977,18 +965,17 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="10">
         <v>28.0</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1009,18 +996,17 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="10">
         <v>12.0</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1041,18 +1027,17 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="10">
         <v>7.0</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1073,18 +1058,17 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="10">
         <v>54.0</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1105,18 +1089,17 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="10">
         <v>12.0</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1137,18 +1120,17 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>20.0</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1169,18 +1151,17 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="10">
         <v>12.0</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1201,18 +1182,17 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="8"/>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="10">
         <v>8.0</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1233,18 +1213,17 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="10">
         <v>9.0</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1265,18 +1244,17 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
       <c r="A21" s="8"/>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="10">
         <v>5.0</v>
       </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1297,18 +1275,17 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="8"/>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="10">
         <v>19.0</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1329,18 +1306,17 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="8"/>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="10">
         <v>6.0</v>
       </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1361,18 +1337,17 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
     </row>
     <row r="24" ht="19.5" customHeight="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>10.0</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1393,18 +1368,17 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="8"/>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="10">
         <v>3.0</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1425,18 +1399,17 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
     </row>
     <row r="26" ht="19.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>20.0</v>
       </c>
       <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1457,18 +1430,17 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
     </row>
     <row r="27" ht="19.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>10.0</v>
       </c>
       <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1489,20 +1461,19 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
     </row>
     <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="10">
         <v>4.0</v>
       </c>
       <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1523,20 +1494,19 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
     </row>
     <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>1.0</v>
       </c>
       <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1557,18 +1527,17 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
     </row>
     <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="12"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>2.0</v>
       </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1589,18 +1558,17 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
     </row>
     <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="12"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>2.0</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1621,20 +1589,17 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
     </row>
     <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="8"/>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="E32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1655,18 +1620,17 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
     </row>
     <row r="33" ht="19.5" customHeight="1">
       <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>1.0</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1687,18 +1651,17 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
     </row>
     <row r="34" ht="19.5" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="10">
         <v>20.0</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1719,18 +1682,17 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
     </row>
     <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="8"/>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="10">
         <v>1.0</v>
       </c>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1751,20 +1713,19 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
     </row>
     <row r="36" ht="19.5" customHeight="1">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="10">
         <v>3.0</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1785,18 +1746,17 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
     </row>
     <row r="37" ht="19.5" customHeight="1">
       <c r="A37" s="8"/>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="10">
         <v>2.0</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1817,18 +1777,17 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
     </row>
     <row r="38" ht="19.5" customHeight="1">
       <c r="A38" s="8"/>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="10">
         <v>1.0</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1849,7 +1808,6 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
     </row>
     <row r="39" ht="19.5" customHeight="1">
       <c r="A39" s="8"/>
@@ -1860,7 +1818,7 @@
         <v>1.0</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1881,7 +1839,6 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
     </row>
     <row r="40" ht="19.5" customHeight="1">
       <c r="A40" s="8"/>
@@ -1892,7 +1849,7 @@
         <v>1.0</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1913,7 +1870,6 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
     </row>
     <row r="41" ht="19.5" customHeight="1">
       <c r="A41" s="8"/>
@@ -1924,7 +1880,7 @@
         <v>1.0</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1945,7 +1901,6 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
     </row>
     <row r="42" ht="19.5" customHeight="1">
       <c r="A42" s="8"/>
@@ -1956,7 +1911,7 @@
         <v>1.0</v>
       </c>
       <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1977,7 +1932,6 @@
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
     </row>
     <row r="43" ht="19.5" customHeight="1">
       <c r="A43" s="8"/>
@@ -1988,7 +1942,7 @@
         <v>1.0</v>
       </c>
       <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2009,18 +1963,17 @@
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
     </row>
     <row r="44" ht="19.5" customHeight="1">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>2.0</v>
       </c>
       <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2041,18 +1994,17 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
     </row>
     <row r="45" ht="19.5" customHeight="1">
       <c r="A45" s="8"/>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="10">
         <v>2.0</v>
       </c>
       <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2073,18 +2025,17 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
     </row>
     <row r="46" ht="19.5" customHeight="1">
       <c r="A46" s="8"/>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="10">
         <v>1.0</v>
       </c>
       <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2105,18 +2056,17 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
     </row>
     <row r="47" ht="19.5" customHeight="1">
       <c r="A47" s="8"/>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="10">
         <v>1.0</v>
       </c>
       <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2137,18 +2087,17 @@
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
     </row>
     <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="8"/>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C48" s="10">
         <v>1.0</v>
       </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2169,10 +2118,9 @@
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
     </row>
     <row r="49" ht="19.5" customHeight="1">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -2182,7 +2130,7 @@
         <v>1.0</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2203,18 +2151,17 @@
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
     </row>
     <row r="50" ht="19.5" customHeight="1">
       <c r="A50" s="8"/>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="10">
         <v>1.0</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2235,20 +2182,19 @@
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
     </row>
     <row r="51" ht="19.5" customHeight="1">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C51" s="10">
         <v>3.0</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2269,7 +2215,6 @@
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
     </row>
     <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="2"/>
@@ -2297,7 +2242,6 @@
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
     </row>
     <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="2"/>
@@ -2325,7 +2269,6 @@
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
     </row>
     <row r="54" ht="19.5" customHeight="1">
       <c r="A54" s="2"/>
@@ -2353,7 +2296,6 @@
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
     </row>
     <row r="55" ht="19.5" customHeight="1">
       <c r="A55" s="2"/>
@@ -2381,7 +2323,6 @@
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
     </row>
     <row r="56" ht="19.5" customHeight="1">
       <c r="A56" s="2"/>
@@ -2409,7 +2350,6 @@
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
     </row>
     <row r="57" ht="19.5" customHeight="1">
       <c r="A57" s="2"/>
@@ -2437,7 +2377,6 @@
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
     </row>
     <row r="58" ht="19.5" customHeight="1">
       <c r="A58" s="2"/>
@@ -2465,7 +2404,6 @@
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
     </row>
     <row r="59" ht="19.5" customHeight="1">
       <c r="A59" s="2"/>
@@ -2493,7 +2431,6 @@
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
     </row>
     <row r="60" ht="19.5" customHeight="1">
       <c r="A60" s="2"/>
@@ -2521,7 +2458,6 @@
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
     </row>
     <row r="61" ht="19.5" customHeight="1">
       <c r="A61" s="2"/>
@@ -2549,7 +2485,6 @@
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
     </row>
     <row r="62" ht="19.5" customHeight="1">
       <c r="A62" s="2"/>
@@ -2577,7 +2512,6 @@
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
     </row>
     <row r="63" ht="19.5" customHeight="1">
       <c r="A63" s="2"/>
@@ -2605,7 +2539,6 @@
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
     </row>
     <row r="64" ht="19.5" customHeight="1">
       <c r="A64" s="2"/>
@@ -2633,7 +2566,6 @@
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
     </row>
     <row r="65" ht="19.5" customHeight="1">
       <c r="A65" s="2"/>
@@ -2661,7 +2593,6 @@
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
     </row>
     <row r="66" ht="19.5" customHeight="1">
       <c r="A66" s="2"/>
@@ -2689,7 +2620,6 @@
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
     </row>
     <row r="67" ht="19.5" customHeight="1">
       <c r="A67" s="2"/>
@@ -2717,7 +2647,6 @@
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
     </row>
     <row r="68" ht="19.5" customHeight="1">
       <c r="A68" s="2"/>
@@ -2745,7 +2674,6 @@
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
     </row>
     <row r="69" ht="19.5" customHeight="1">
       <c r="A69" s="2"/>
@@ -2773,7 +2701,6 @@
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
     </row>
     <row r="70" ht="19.5" customHeight="1">
       <c r="A70" s="2"/>
@@ -2801,7 +2728,6 @@
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
     </row>
     <row r="71" ht="19.5" customHeight="1">
       <c r="A71" s="2"/>
@@ -2829,7 +2755,6 @@
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
     </row>
     <row r="72" ht="19.5" customHeight="1">
       <c r="A72" s="2"/>
@@ -2857,7 +2782,6 @@
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
     </row>
     <row r="73" ht="19.5" customHeight="1">
       <c r="A73" s="2"/>
@@ -2885,7 +2809,6 @@
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
     </row>
     <row r="74" ht="19.5" customHeight="1">
       <c r="A74" s="2"/>
@@ -2913,7 +2836,6 @@
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
     </row>
     <row r="75" ht="19.5" customHeight="1">
       <c r="A75" s="2"/>
@@ -2941,7 +2863,6 @@
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
     </row>
     <row r="76" ht="19.5" customHeight="1">
       <c r="A76" s="2"/>
@@ -2969,7 +2890,6 @@
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
     </row>
     <row r="77" ht="19.5" customHeight="1">
       <c r="A77" s="2"/>
@@ -2997,7 +2917,6 @@
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
     </row>
     <row r="78" ht="19.5" customHeight="1">
       <c r="A78" s="2"/>
@@ -3025,7 +2944,6 @@
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
     </row>
     <row r="79" ht="19.5" customHeight="1">
       <c r="A79" s="2"/>
@@ -3053,7 +2971,6 @@
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
     </row>
     <row r="80" ht="19.5" customHeight="1">
       <c r="A80" s="2"/>
@@ -3081,7 +2998,6 @@
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
     </row>
     <row r="81" ht="19.5" customHeight="1">
       <c r="A81" s="2"/>
@@ -3109,7 +3025,6 @@
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
     </row>
     <row r="82" ht="19.5" customHeight="1">
       <c r="A82" s="2"/>
@@ -3137,7 +3052,6 @@
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
     </row>
     <row r="83" ht="19.5" customHeight="1">
       <c r="A83" s="2"/>
@@ -3165,7 +3079,6 @@
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
     </row>
     <row r="84" ht="19.5" customHeight="1">
       <c r="A84" s="2"/>
@@ -3193,7 +3106,6 @@
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
     </row>
     <row r="85" ht="19.5" customHeight="1">
       <c r="A85" s="2"/>
@@ -3221,7 +3133,6 @@
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="2"/>
     </row>
     <row r="86" ht="19.5" customHeight="1">
       <c r="A86" s="2"/>
@@ -3249,7 +3160,6 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
     </row>
     <row r="87" ht="19.5" customHeight="1">
       <c r="A87" s="2"/>
@@ -3277,7 +3187,6 @@
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
     </row>
     <row r="88" ht="19.5" customHeight="1">
       <c r="A88" s="2"/>
@@ -3305,7 +3214,6 @@
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
-      <c r="Z88" s="2"/>
     </row>
     <row r="89" ht="19.5" customHeight="1">
       <c r="A89" s="2"/>
@@ -3333,7 +3241,6 @@
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
     </row>
     <row r="90" ht="19.5" customHeight="1">
       <c r="A90" s="2"/>
@@ -3361,7 +3268,6 @@
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
     </row>
     <row r="91" ht="19.5" customHeight="1">
       <c r="A91" s="2"/>
@@ -3389,7 +3295,6 @@
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
-      <c r="Z91" s="2"/>
     </row>
     <row r="92" ht="19.5" customHeight="1">
       <c r="A92" s="2"/>
@@ -3417,7 +3322,6 @@
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
     </row>
     <row r="93" ht="19.5" customHeight="1">
       <c r="A93" s="2"/>
@@ -3445,7 +3349,6 @@
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
-      <c r="Z93" s="2"/>
     </row>
     <row r="94" ht="19.5" customHeight="1">
       <c r="A94" s="2"/>
@@ -3473,7 +3376,6 @@
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
     </row>
     <row r="95" ht="19.5" customHeight="1">
       <c r="A95" s="2"/>
@@ -3501,7 +3403,6 @@
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
     </row>
     <row r="96" ht="19.5" customHeight="1">
       <c r="A96" s="2"/>
@@ -3529,7 +3430,6 @@
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
     </row>
     <row r="97" ht="19.5" customHeight="1">
       <c r="A97" s="2"/>
@@ -3557,7 +3457,6 @@
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
     </row>
     <row r="98" ht="19.5" customHeight="1">
       <c r="A98" s="2"/>
@@ -3585,7 +3484,6 @@
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
-      <c r="Z98" s="2"/>
     </row>
     <row r="99" ht="19.5" customHeight="1">
       <c r="A99" s="2"/>
@@ -3613,7 +3511,6 @@
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
     </row>
     <row r="100" ht="19.5" customHeight="1">
       <c r="A100" s="2"/>
@@ -3641,7 +3538,6 @@
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
     </row>
     <row r="101" ht="19.5" customHeight="1">
       <c r="A101" s="2"/>
@@ -3669,7 +3565,6 @@
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
-      <c r="Z101" s="2"/>
     </row>
     <row r="102" ht="19.5" customHeight="1">
       <c r="A102" s="2"/>
@@ -3697,7 +3592,6 @@
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
-      <c r="Z102" s="2"/>
     </row>
     <row r="103" ht="19.5" customHeight="1">
       <c r="A103" s="2"/>
@@ -3725,7 +3619,6 @@
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
-      <c r="Z103" s="2"/>
     </row>
     <row r="104" ht="19.5" customHeight="1">
       <c r="A104" s="2"/>
@@ -3753,7 +3646,6 @@
       <c r="W104" s="2"/>
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
     </row>
     <row r="105" ht="19.5" customHeight="1">
       <c r="A105" s="2"/>
@@ -3781,7 +3673,6 @@
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
-      <c r="Z105" s="2"/>
     </row>
     <row r="106" ht="19.5" customHeight="1">
       <c r="A106" s="2"/>
@@ -3809,7 +3700,6 @@
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
-      <c r="Z106" s="2"/>
     </row>
     <row r="107" ht="19.5" customHeight="1">
       <c r="A107" s="2"/>
@@ -3837,7 +3727,6 @@
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
-      <c r="Z107" s="2"/>
     </row>
     <row r="108" ht="19.5" customHeight="1">
       <c r="A108" s="2"/>
@@ -3865,7 +3754,6 @@
       <c r="W108" s="2"/>
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
     </row>
     <row r="109" ht="19.5" customHeight="1">
       <c r="A109" s="2"/>
@@ -3893,7 +3781,6 @@
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
-      <c r="Z109" s="2"/>
     </row>
     <row r="110" ht="19.5" customHeight="1">
       <c r="A110" s="2"/>
@@ -3921,7 +3808,6 @@
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
-      <c r="Z110" s="2"/>
     </row>
     <row r="111" ht="19.5" customHeight="1">
       <c r="A111" s="2"/>
@@ -3949,7 +3835,6 @@
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
-      <c r="Z111" s="2"/>
     </row>
     <row r="112" ht="19.5" customHeight="1">
       <c r="A112" s="2"/>
@@ -3977,7 +3862,6 @@
       <c r="W112" s="2"/>
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
     </row>
     <row r="113" ht="19.5" customHeight="1">
       <c r="A113" s="2"/>
@@ -4005,7 +3889,6 @@
       <c r="W113" s="2"/>
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
-      <c r="Z113" s="2"/>
     </row>
     <row r="114" ht="19.5" customHeight="1">
       <c r="A114" s="2"/>
@@ -4033,7 +3916,6 @@
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
-      <c r="Z114" s="2"/>
     </row>
     <row r="115" ht="19.5" customHeight="1">
       <c r="A115" s="2"/>
@@ -4061,7 +3943,6 @@
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
-      <c r="Z115" s="2"/>
     </row>
     <row r="116" ht="19.5" customHeight="1">
       <c r="A116" s="2"/>
@@ -4089,7 +3970,6 @@
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
-      <c r="Z116" s="2"/>
     </row>
     <row r="117" ht="19.5" customHeight="1">
       <c r="A117" s="2"/>
@@ -4117,7 +3997,6 @@
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
-      <c r="Z117" s="2"/>
     </row>
     <row r="118" ht="19.5" customHeight="1">
       <c r="A118" s="2"/>
@@ -4145,7 +4024,6 @@
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
-      <c r="Z118" s="2"/>
     </row>
     <row r="119" ht="19.5" customHeight="1">
       <c r="A119" s="2"/>
@@ -4173,7 +4051,6 @@
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
-      <c r="Z119" s="2"/>
     </row>
     <row r="120" ht="19.5" customHeight="1">
       <c r="A120" s="2"/>
@@ -4201,7 +4078,6 @@
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
-      <c r="Z120" s="2"/>
     </row>
     <row r="121" ht="19.5" customHeight="1">
       <c r="A121" s="2"/>
@@ -4229,7 +4105,6 @@
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
-      <c r="Z121" s="2"/>
     </row>
     <row r="122" ht="19.5" customHeight="1">
       <c r="A122" s="2"/>
@@ -4257,7 +4132,6 @@
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
-      <c r="Z122" s="2"/>
     </row>
     <row r="123" ht="19.5" customHeight="1">
       <c r="A123" s="2"/>
@@ -4285,7 +4159,6 @@
       <c r="W123" s="2"/>
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
-      <c r="Z123" s="2"/>
     </row>
     <row r="124" ht="19.5" customHeight="1">
       <c r="A124" s="2"/>
@@ -4313,7 +4186,6 @@
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
-      <c r="Z124" s="2"/>
     </row>
     <row r="125" ht="19.5" customHeight="1">
       <c r="A125" s="2"/>
@@ -4341,7 +4213,6 @@
       <c r="W125" s="2"/>
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
-      <c r="Z125" s="2"/>
     </row>
     <row r="126" ht="19.5" customHeight="1">
       <c r="A126" s="2"/>
@@ -4369,7 +4240,6 @@
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
-      <c r="Z126" s="2"/>
     </row>
     <row r="127" ht="19.5" customHeight="1">
       <c r="A127" s="2"/>
@@ -4397,7 +4267,6 @@
       <c r="W127" s="2"/>
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
-      <c r="Z127" s="2"/>
     </row>
     <row r="128" ht="19.5" customHeight="1">
       <c r="A128" s="2"/>
@@ -4425,7 +4294,6 @@
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
-      <c r="Z128" s="2"/>
     </row>
     <row r="129" ht="19.5" customHeight="1">
       <c r="A129" s="2"/>
@@ -4453,7 +4321,6 @@
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
-      <c r="Z129" s="2"/>
     </row>
     <row r="130" ht="19.5" customHeight="1">
       <c r="A130" s="2"/>
@@ -4481,7 +4348,6 @@
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
-      <c r="Z130" s="2"/>
     </row>
     <row r="131" ht="19.5" customHeight="1">
       <c r="A131" s="2"/>
@@ -4509,7 +4375,6 @@
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
-      <c r="Z131" s="2"/>
     </row>
     <row r="132" ht="19.5" customHeight="1">
       <c r="A132" s="2"/>
@@ -4537,7 +4402,6 @@
       <c r="W132" s="2"/>
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
-      <c r="Z132" s="2"/>
     </row>
     <row r="133" ht="19.5" customHeight="1">
       <c r="A133" s="2"/>
@@ -4565,7 +4429,6 @@
       <c r="W133" s="2"/>
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
-      <c r="Z133" s="2"/>
     </row>
     <row r="134" ht="19.5" customHeight="1">
       <c r="A134" s="2"/>
@@ -4593,7 +4456,6 @@
       <c r="W134" s="2"/>
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
-      <c r="Z134" s="2"/>
     </row>
     <row r="135" ht="19.5" customHeight="1">
       <c r="A135" s="2"/>
@@ -4621,7 +4483,6 @@
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
-      <c r="Z135" s="2"/>
     </row>
     <row r="136" ht="19.5" customHeight="1">
       <c r="A136" s="2"/>
@@ -4649,7 +4510,6 @@
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
-      <c r="Z136" s="2"/>
     </row>
     <row r="137" ht="19.5" customHeight="1">
       <c r="A137" s="2"/>
@@ -4677,7 +4537,6 @@
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
-      <c r="Z137" s="2"/>
     </row>
     <row r="138" ht="19.5" customHeight="1">
       <c r="A138" s="2"/>
@@ -4705,7 +4564,6 @@
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
-      <c r="Z138" s="2"/>
     </row>
     <row r="139" ht="19.5" customHeight="1">
       <c r="A139" s="2"/>
@@ -4733,7 +4591,6 @@
       <c r="W139" s="2"/>
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
-      <c r="Z139" s="2"/>
     </row>
     <row r="140" ht="19.5" customHeight="1">
       <c r="A140" s="2"/>
@@ -4761,7 +4618,6 @@
       <c r="W140" s="2"/>
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
-      <c r="Z140" s="2"/>
     </row>
     <row r="141" ht="19.5" customHeight="1">
       <c r="A141" s="2"/>
@@ -4789,7 +4645,6 @@
       <c r="W141" s="2"/>
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
-      <c r="Z141" s="2"/>
     </row>
     <row r="142" ht="19.5" customHeight="1">
       <c r="A142" s="2"/>
@@ -4817,7 +4672,6 @@
       <c r="W142" s="2"/>
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
-      <c r="Z142" s="2"/>
     </row>
     <row r="143" ht="19.5" customHeight="1">
       <c r="A143" s="2"/>
@@ -4845,7 +4699,6 @@
       <c r="W143" s="2"/>
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
-      <c r="Z143" s="2"/>
     </row>
     <row r="144" ht="19.5" customHeight="1">
       <c r="A144" s="2"/>
@@ -4873,7 +4726,6 @@
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
-      <c r="Z144" s="2"/>
     </row>
     <row r="145" ht="19.5" customHeight="1">
       <c r="A145" s="2"/>
@@ -4901,7 +4753,6 @@
       <c r="W145" s="2"/>
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
-      <c r="Z145" s="2"/>
     </row>
     <row r="146" ht="19.5" customHeight="1">
       <c r="A146" s="2"/>
@@ -4929,7 +4780,6 @@
       <c r="W146" s="2"/>
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
-      <c r="Z146" s="2"/>
     </row>
     <row r="147" ht="19.5" customHeight="1">
       <c r="A147" s="2"/>
@@ -4957,7 +4807,6 @@
       <c r="W147" s="2"/>
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
-      <c r="Z147" s="2"/>
     </row>
     <row r="148" ht="19.5" customHeight="1">
       <c r="A148" s="2"/>
@@ -4985,7 +4834,6 @@
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
-      <c r="Z148" s="2"/>
     </row>
     <row r="149" ht="19.5" customHeight="1">
       <c r="A149" s="2"/>
@@ -5013,7 +4861,6 @@
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
-      <c r="Z149" s="2"/>
     </row>
     <row r="150" ht="19.5" customHeight="1">
       <c r="A150" s="2"/>
@@ -5041,7 +4888,6 @@
       <c r="W150" s="2"/>
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
-      <c r="Z150" s="2"/>
     </row>
     <row r="151" ht="19.5" customHeight="1">
       <c r="A151" s="2"/>
@@ -5069,7 +4915,6 @@
       <c r="W151" s="2"/>
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
-      <c r="Z151" s="2"/>
     </row>
     <row r="152" ht="19.5" customHeight="1">
       <c r="A152" s="2"/>
@@ -5097,7 +4942,6 @@
       <c r="W152" s="2"/>
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
-      <c r="Z152" s="2"/>
     </row>
     <row r="153" ht="19.5" customHeight="1">
       <c r="A153" s="2"/>
@@ -5125,7 +4969,6 @@
       <c r="W153" s="2"/>
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
-      <c r="Z153" s="2"/>
     </row>
     <row r="154" ht="19.5" customHeight="1">
       <c r="A154" s="2"/>
@@ -5153,7 +4996,6 @@
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
-      <c r="Z154" s="2"/>
     </row>
     <row r="155" ht="19.5" customHeight="1">
       <c r="A155" s="2"/>
@@ -5181,7 +5023,6 @@
       <c r="W155" s="2"/>
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
-      <c r="Z155" s="2"/>
     </row>
     <row r="156" ht="19.5" customHeight="1">
       <c r="A156" s="2"/>
@@ -5209,7 +5050,6 @@
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
-      <c r="Z156" s="2"/>
     </row>
     <row r="157" ht="19.5" customHeight="1">
       <c r="A157" s="2"/>
@@ -5237,7 +5077,6 @@
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
-      <c r="Z157" s="2"/>
     </row>
     <row r="158" ht="19.5" customHeight="1">
       <c r="A158" s="2"/>
@@ -5265,7 +5104,6 @@
       <c r="W158" s="2"/>
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
-      <c r="Z158" s="2"/>
     </row>
     <row r="159" ht="19.5" customHeight="1">
       <c r="A159" s="2"/>
@@ -5293,7 +5131,6 @@
       <c r="W159" s="2"/>
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
-      <c r="Z159" s="2"/>
     </row>
     <row r="160" ht="19.5" customHeight="1">
       <c r="A160" s="2"/>
@@ -5321,7 +5158,6 @@
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
-      <c r="Z160" s="2"/>
     </row>
     <row r="161" ht="19.5" customHeight="1">
       <c r="A161" s="2"/>
@@ -5349,7 +5185,6 @@
       <c r="W161" s="2"/>
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
-      <c r="Z161" s="2"/>
     </row>
     <row r="162" ht="19.5" customHeight="1">
       <c r="A162" s="2"/>
@@ -5377,7 +5212,6 @@
       <c r="W162" s="2"/>
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
-      <c r="Z162" s="2"/>
     </row>
     <row r="163" ht="19.5" customHeight="1">
       <c r="A163" s="2"/>
@@ -5405,7 +5239,6 @@
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
-      <c r="Z163" s="2"/>
     </row>
     <row r="164" ht="19.5" customHeight="1">
       <c r="A164" s="2"/>
@@ -5433,7 +5266,6 @@
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
-      <c r="Z164" s="2"/>
     </row>
     <row r="165" ht="19.5" customHeight="1">
       <c r="A165" s="2"/>
@@ -5461,7 +5293,6 @@
       <c r="W165" s="2"/>
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
-      <c r="Z165" s="2"/>
     </row>
     <row r="166" ht="19.5" customHeight="1">
       <c r="A166" s="2"/>
@@ -5489,7 +5320,6 @@
       <c r="W166" s="2"/>
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
-      <c r="Z166" s="2"/>
     </row>
     <row r="167" ht="19.5" customHeight="1">
       <c r="A167" s="2"/>
@@ -5517,7 +5347,6 @@
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
-      <c r="Z167" s="2"/>
     </row>
     <row r="168" ht="19.5" customHeight="1">
       <c r="A168" s="2"/>
@@ -5545,7 +5374,6 @@
       <c r="W168" s="2"/>
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
-      <c r="Z168" s="2"/>
     </row>
     <row r="169" ht="19.5" customHeight="1">
       <c r="A169" s="2"/>
@@ -5573,7 +5401,6 @@
       <c r="W169" s="2"/>
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
-      <c r="Z169" s="2"/>
     </row>
     <row r="170" ht="19.5" customHeight="1">
       <c r="A170" s="2"/>
@@ -5601,7 +5428,6 @@
       <c r="W170" s="2"/>
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
-      <c r="Z170" s="2"/>
     </row>
     <row r="171" ht="19.5" customHeight="1">
       <c r="A171" s="2"/>
@@ -5629,7 +5455,6 @@
       <c r="W171" s="2"/>
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
     </row>
     <row r="172" ht="19.5" customHeight="1">
       <c r="A172" s="2"/>
@@ -5657,7 +5482,6 @@
       <c r="W172" s="2"/>
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
     </row>
     <row r="173" ht="19.5" customHeight="1">
       <c r="A173" s="2"/>
@@ -5685,7 +5509,6 @@
       <c r="W173" s="2"/>
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
-      <c r="Z173" s="2"/>
     </row>
     <row r="174" ht="19.5" customHeight="1">
       <c r="A174" s="2"/>
@@ -5713,7 +5536,6 @@
       <c r="W174" s="2"/>
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
-      <c r="Z174" s="2"/>
     </row>
     <row r="175" ht="19.5" customHeight="1">
       <c r="A175" s="2"/>
@@ -5741,7 +5563,6 @@
       <c r="W175" s="2"/>
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
-      <c r="Z175" s="2"/>
     </row>
     <row r="176" ht="19.5" customHeight="1">
       <c r="A176" s="2"/>
@@ -5769,7 +5590,6 @@
       <c r="W176" s="2"/>
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
-      <c r="Z176" s="2"/>
     </row>
     <row r="177" ht="19.5" customHeight="1">
       <c r="A177" s="2"/>
@@ -5797,7 +5617,6 @@
       <c r="W177" s="2"/>
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
-      <c r="Z177" s="2"/>
     </row>
     <row r="178" ht="19.5" customHeight="1">
       <c r="A178" s="2"/>
@@ -5825,7 +5644,6 @@
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
-      <c r="Z178" s="2"/>
     </row>
     <row r="179" ht="19.5" customHeight="1">
       <c r="A179" s="2"/>
@@ -5853,7 +5671,6 @@
       <c r="W179" s="2"/>
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
-      <c r="Z179" s="2"/>
     </row>
     <row r="180" ht="19.5" customHeight="1">
       <c r="A180" s="2"/>
@@ -5881,7 +5698,6 @@
       <c r="W180" s="2"/>
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
-      <c r="Z180" s="2"/>
     </row>
     <row r="181" ht="19.5" customHeight="1">
       <c r="A181" s="2"/>
@@ -5909,7 +5725,6 @@
       <c r="W181" s="2"/>
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
-      <c r="Z181" s="2"/>
     </row>
     <row r="182" ht="19.5" customHeight="1">
       <c r="A182" s="2"/>
@@ -5937,7 +5752,6 @@
       <c r="W182" s="2"/>
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
-      <c r="Z182" s="2"/>
     </row>
     <row r="183" ht="19.5" customHeight="1">
       <c r="A183" s="2"/>
@@ -5965,7 +5779,6 @@
       <c r="W183" s="2"/>
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
-      <c r="Z183" s="2"/>
     </row>
     <row r="184" ht="19.5" customHeight="1">
       <c r="A184" s="2"/>
@@ -5993,7 +5806,6 @@
       <c r="W184" s="2"/>
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
-      <c r="Z184" s="2"/>
     </row>
     <row r="185" ht="19.5" customHeight="1">
       <c r="A185" s="2"/>
@@ -6021,7 +5833,6 @@
       <c r="W185" s="2"/>
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
-      <c r="Z185" s="2"/>
     </row>
     <row r="186" ht="19.5" customHeight="1">
       <c r="A186" s="2"/>
@@ -6049,7 +5860,6 @@
       <c r="W186" s="2"/>
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
-      <c r="Z186" s="2"/>
     </row>
     <row r="187" ht="19.5" customHeight="1">
       <c r="A187" s="2"/>
@@ -6077,7 +5887,6 @@
       <c r="W187" s="2"/>
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
-      <c r="Z187" s="2"/>
     </row>
     <row r="188" ht="19.5" customHeight="1">
       <c r="A188" s="2"/>
@@ -6105,7 +5914,6 @@
       <c r="W188" s="2"/>
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
-      <c r="Z188" s="2"/>
     </row>
     <row r="189" ht="19.5" customHeight="1">
       <c r="A189" s="2"/>
@@ -6133,7 +5941,6 @@
       <c r="W189" s="2"/>
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
-      <c r="Z189" s="2"/>
     </row>
     <row r="190" ht="19.5" customHeight="1">
       <c r="A190" s="2"/>
@@ -6161,7 +5968,6 @@
       <c r="W190" s="2"/>
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
-      <c r="Z190" s="2"/>
     </row>
     <row r="191" ht="19.5" customHeight="1">
       <c r="A191" s="2"/>
@@ -6189,7 +5995,6 @@
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
-      <c r="Z191" s="2"/>
     </row>
     <row r="192" ht="19.5" customHeight="1">
       <c r="A192" s="2"/>
@@ -6217,7 +6022,6 @@
       <c r="W192" s="2"/>
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
-      <c r="Z192" s="2"/>
     </row>
     <row r="193" ht="19.5" customHeight="1">
       <c r="A193" s="2"/>
@@ -6245,7 +6049,6 @@
       <c r="W193" s="2"/>
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
-      <c r="Z193" s="2"/>
     </row>
     <row r="194" ht="19.5" customHeight="1">
       <c r="A194" s="2"/>
@@ -6273,7 +6076,6 @@
       <c r="W194" s="2"/>
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
-      <c r="Z194" s="2"/>
     </row>
     <row r="195" ht="19.5" customHeight="1">
       <c r="A195" s="2"/>
@@ -6301,7 +6103,6 @@
       <c r="W195" s="2"/>
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
-      <c r="Z195" s="2"/>
     </row>
     <row r="196" ht="19.5" customHeight="1">
       <c r="A196" s="2"/>
@@ -6329,7 +6130,6 @@
       <c r="W196" s="2"/>
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
-      <c r="Z196" s="2"/>
     </row>
     <row r="197" ht="19.5" customHeight="1">
       <c r="A197" s="2"/>
@@ -6357,7 +6157,6 @@
       <c r="W197" s="2"/>
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
-      <c r="Z197" s="2"/>
     </row>
     <row r="198" ht="19.5" customHeight="1">
       <c r="A198" s="2"/>
@@ -6385,7 +6184,6 @@
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
-      <c r="Z198" s="2"/>
     </row>
     <row r="199" ht="19.5" customHeight="1">
       <c r="A199" s="2"/>
@@ -6413,7 +6211,6 @@
       <c r="W199" s="2"/>
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
-      <c r="Z199" s="2"/>
     </row>
     <row r="200" ht="19.5" customHeight="1">
       <c r="A200" s="2"/>
@@ -6441,7 +6238,6 @@
       <c r="W200" s="2"/>
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
-      <c r="Z200" s="2"/>
     </row>
     <row r="201" ht="19.5" customHeight="1">
       <c r="A201" s="2"/>
@@ -6469,7 +6265,6 @@
       <c r="W201" s="2"/>
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
-      <c r="Z201" s="2"/>
     </row>
     <row r="202" ht="19.5" customHeight="1">
       <c r="A202" s="2"/>
@@ -6497,7 +6292,6 @@
       <c r="W202" s="2"/>
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
-      <c r="Z202" s="2"/>
     </row>
     <row r="203" ht="19.5" customHeight="1">
       <c r="A203" s="2"/>
@@ -6525,7 +6319,6 @@
       <c r="W203" s="2"/>
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
-      <c r="Z203" s="2"/>
     </row>
     <row r="204" ht="19.5" customHeight="1">
       <c r="A204" s="2"/>
@@ -6553,7 +6346,6 @@
       <c r="W204" s="2"/>
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
-      <c r="Z204" s="2"/>
     </row>
     <row r="205" ht="19.5" customHeight="1">
       <c r="A205" s="2"/>
@@ -6581,7 +6373,6 @@
       <c r="W205" s="2"/>
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
-      <c r="Z205" s="2"/>
     </row>
     <row r="206" ht="19.5" customHeight="1">
       <c r="A206" s="2"/>
@@ -6609,7 +6400,6 @@
       <c r="W206" s="2"/>
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
-      <c r="Z206" s="2"/>
     </row>
     <row r="207" ht="19.5" customHeight="1">
       <c r="A207" s="2"/>
@@ -6637,7 +6427,6 @@
       <c r="W207" s="2"/>
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
-      <c r="Z207" s="2"/>
     </row>
     <row r="208" ht="19.5" customHeight="1">
       <c r="A208" s="2"/>
@@ -6665,7 +6454,6 @@
       <c r="W208" s="2"/>
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
-      <c r="Z208" s="2"/>
     </row>
     <row r="209" ht="19.5" customHeight="1">
       <c r="A209" s="2"/>
@@ -6693,7 +6481,6 @@
       <c r="W209" s="2"/>
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
-      <c r="Z209" s="2"/>
     </row>
     <row r="210" ht="19.5" customHeight="1">
       <c r="A210" s="2"/>
@@ -6721,7 +6508,6 @@
       <c r="W210" s="2"/>
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
-      <c r="Z210" s="2"/>
     </row>
     <row r="211" ht="19.5" customHeight="1">
       <c r="A211" s="2"/>
@@ -6749,7 +6535,6 @@
       <c r="W211" s="2"/>
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
-      <c r="Z211" s="2"/>
     </row>
     <row r="212" ht="19.5" customHeight="1">
       <c r="A212" s="2"/>
@@ -6777,7 +6562,6 @@
       <c r="W212" s="2"/>
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
-      <c r="Z212" s="2"/>
     </row>
     <row r="213" ht="19.5" customHeight="1">
       <c r="A213" s="2"/>
@@ -6805,7 +6589,6 @@
       <c r="W213" s="2"/>
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
-      <c r="Z213" s="2"/>
     </row>
     <row r="214" ht="19.5" customHeight="1">
       <c r="A214" s="2"/>
@@ -6833,7 +6616,6 @@
       <c r="W214" s="2"/>
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
-      <c r="Z214" s="2"/>
     </row>
     <row r="215" ht="19.5" customHeight="1">
       <c r="A215" s="2"/>
@@ -6861,7 +6643,6 @@
       <c r="W215" s="2"/>
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
-      <c r="Z215" s="2"/>
     </row>
     <row r="216" ht="19.5" customHeight="1">
       <c r="A216" s="2"/>
@@ -6889,7 +6670,6 @@
       <c r="W216" s="2"/>
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
-      <c r="Z216" s="2"/>
     </row>
     <row r="217" ht="19.5" customHeight="1">
       <c r="A217" s="2"/>
@@ -6917,7 +6697,6 @@
       <c r="W217" s="2"/>
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
-      <c r="Z217" s="2"/>
     </row>
     <row r="218" ht="19.5" customHeight="1">
       <c r="A218" s="2"/>
@@ -6945,7 +6724,6 @@
       <c r="W218" s="2"/>
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
-      <c r="Z218" s="2"/>
     </row>
     <row r="219" ht="19.5" customHeight="1">
       <c r="A219" s="2"/>
@@ -6973,7 +6751,6 @@
       <c r="W219" s="2"/>
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
-      <c r="Z219" s="2"/>
     </row>
     <row r="220" ht="19.5" customHeight="1">
       <c r="A220" s="2"/>
@@ -7001,7 +6778,6 @@
       <c r="W220" s="2"/>
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
-      <c r="Z220" s="2"/>
     </row>
     <row r="221" ht="19.5" customHeight="1">
       <c r="A221" s="2"/>
@@ -7029,7 +6805,6 @@
       <c r="W221" s="2"/>
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
-      <c r="Z221" s="2"/>
     </row>
     <row r="222" ht="19.5" customHeight="1">
       <c r="A222" s="2"/>
@@ -7057,7 +6832,6 @@
       <c r="W222" s="2"/>
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
-      <c r="Z222" s="2"/>
     </row>
     <row r="223" ht="19.5" customHeight="1">
       <c r="A223" s="2"/>
@@ -7085,7 +6859,6 @@
       <c r="W223" s="2"/>
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
-      <c r="Z223" s="2"/>
     </row>
     <row r="224" ht="19.5" customHeight="1">
       <c r="A224" s="2"/>
@@ -7113,7 +6886,6 @@
       <c r="W224" s="2"/>
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
-      <c r="Z224" s="2"/>
     </row>
     <row r="225" ht="19.5" customHeight="1">
       <c r="A225" s="2"/>
@@ -7141,7 +6913,6 @@
       <c r="W225" s="2"/>
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
-      <c r="Z225" s="2"/>
     </row>
     <row r="226" ht="19.5" customHeight="1">
       <c r="A226" s="2"/>
@@ -7169,7 +6940,6 @@
       <c r="W226" s="2"/>
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
-      <c r="Z226" s="2"/>
     </row>
     <row r="227" ht="19.5" customHeight="1">
       <c r="A227" s="2"/>
@@ -7197,7 +6967,6 @@
       <c r="W227" s="2"/>
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
-      <c r="Z227" s="2"/>
     </row>
     <row r="228" ht="19.5" customHeight="1">
       <c r="A228" s="2"/>
@@ -7225,7 +6994,6 @@
       <c r="W228" s="2"/>
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
-      <c r="Z228" s="2"/>
     </row>
     <row r="229" ht="19.5" customHeight="1">
       <c r="A229" s="2"/>
@@ -7253,7 +7021,6 @@
       <c r="W229" s="2"/>
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
-      <c r="Z229" s="2"/>
     </row>
     <row r="230" ht="19.5" customHeight="1">
       <c r="A230" s="2"/>
@@ -7281,7 +7048,6 @@
       <c r="W230" s="2"/>
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
-      <c r="Z230" s="2"/>
     </row>
     <row r="231" ht="19.5" customHeight="1">
       <c r="A231" s="2"/>
@@ -7309,7 +7075,6 @@
       <c r="W231" s="2"/>
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
-      <c r="Z231" s="2"/>
     </row>
     <row r="232" ht="19.5" customHeight="1">
       <c r="A232" s="2"/>
@@ -7337,7 +7102,6 @@
       <c r="W232" s="2"/>
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
-      <c r="Z232" s="2"/>
     </row>
     <row r="233" ht="19.5" customHeight="1">
       <c r="A233" s="2"/>
@@ -7365,7 +7129,6 @@
       <c r="W233" s="2"/>
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
-      <c r="Z233" s="2"/>
     </row>
     <row r="234" ht="19.5" customHeight="1">
       <c r="A234" s="2"/>
@@ -7393,7 +7156,6 @@
       <c r="W234" s="2"/>
       <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
-      <c r="Z234" s="2"/>
     </row>
     <row r="235" ht="19.5" customHeight="1">
       <c r="A235" s="2"/>
@@ -7421,7 +7183,6 @@
       <c r="W235" s="2"/>
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
-      <c r="Z235" s="2"/>
     </row>
     <row r="236" ht="19.5" customHeight="1">
       <c r="A236" s="2"/>
@@ -7449,7 +7210,6 @@
       <c r="W236" s="2"/>
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
-      <c r="Z236" s="2"/>
     </row>
     <row r="237" ht="19.5" customHeight="1">
       <c r="A237" s="2"/>
@@ -7477,7 +7237,6 @@
       <c r="W237" s="2"/>
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
-      <c r="Z237" s="2"/>
     </row>
     <row r="238" ht="19.5" customHeight="1">
       <c r="A238" s="2"/>
@@ -7505,7 +7264,6 @@
       <c r="W238" s="2"/>
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
-      <c r="Z238" s="2"/>
     </row>
     <row r="239" ht="19.5" customHeight="1">
       <c r="A239" s="2"/>
@@ -7533,7 +7291,6 @@
       <c r="W239" s="2"/>
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
-      <c r="Z239" s="2"/>
     </row>
     <row r="240" ht="19.5" customHeight="1">
       <c r="A240" s="2"/>
@@ -7561,7 +7318,6 @@
       <c r="W240" s="2"/>
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
-      <c r="Z240" s="2"/>
     </row>
     <row r="241" ht="19.5" customHeight="1">
       <c r="A241" s="2"/>
@@ -7589,7 +7345,6 @@
       <c r="W241" s="2"/>
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
-      <c r="Z241" s="2"/>
     </row>
     <row r="242" ht="19.5" customHeight="1">
       <c r="A242" s="2"/>
@@ -7617,7 +7372,6 @@
       <c r="W242" s="2"/>
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
-      <c r="Z242" s="2"/>
     </row>
     <row r="243" ht="19.5" customHeight="1">
       <c r="A243" s="2"/>
@@ -7645,7 +7399,6 @@
       <c r="W243" s="2"/>
       <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
-      <c r="Z243" s="2"/>
     </row>
     <row r="244" ht="19.5" customHeight="1">
       <c r="A244" s="2"/>
@@ -7673,7 +7426,6 @@
       <c r="W244" s="2"/>
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
-      <c r="Z244" s="2"/>
     </row>
     <row r="245" ht="19.5" customHeight="1">
       <c r="A245" s="2"/>
@@ -7701,7 +7453,6 @@
       <c r="W245" s="2"/>
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
-      <c r="Z245" s="2"/>
     </row>
     <row r="246" ht="19.5" customHeight="1">
       <c r="A246" s="2"/>
@@ -7729,7 +7480,6 @@
       <c r="W246" s="2"/>
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
-      <c r="Z246" s="2"/>
     </row>
     <row r="247" ht="19.5" customHeight="1">
       <c r="A247" s="2"/>
@@ -7757,7 +7507,6 @@
       <c r="W247" s="2"/>
       <c r="X247" s="2"/>
       <c r="Y247" s="2"/>
-      <c r="Z247" s="2"/>
     </row>
     <row r="248" ht="19.5" customHeight="1">
       <c r="A248" s="2"/>
@@ -7785,7 +7534,6 @@
       <c r="W248" s="2"/>
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
-      <c r="Z248" s="2"/>
     </row>
     <row r="249" ht="19.5" customHeight="1">
       <c r="A249" s="2"/>
@@ -7813,7 +7561,6 @@
       <c r="W249" s="2"/>
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
-      <c r="Z249" s="2"/>
     </row>
     <row r="250" ht="19.5" customHeight="1">
       <c r="A250" s="2"/>
@@ -7841,7 +7588,6 @@
       <c r="W250" s="2"/>
       <c r="X250" s="2"/>
       <c r="Y250" s="2"/>
-      <c r="Z250" s="2"/>
     </row>
     <row r="251" ht="19.5" customHeight="1">
       <c r="A251" s="2"/>
@@ -7869,7 +7615,6 @@
       <c r="W251" s="2"/>
       <c r="X251" s="2"/>
       <c r="Y251" s="2"/>
-      <c r="Z251" s="2"/>
     </row>
     <row r="252" ht="19.5" customHeight="1">
       <c r="A252" s="2"/>
@@ -7897,7 +7642,6 @@
       <c r="W252" s="2"/>
       <c r="X252" s="2"/>
       <c r="Y252" s="2"/>
-      <c r="Z252" s="2"/>
     </row>
     <row r="253" ht="19.5" customHeight="1">
       <c r="A253" s="2"/>
@@ -7925,7 +7669,6 @@
       <c r="W253" s="2"/>
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
-      <c r="Z253" s="2"/>
     </row>
     <row r="254" ht="19.5" customHeight="1">
       <c r="A254" s="2"/>
@@ -7953,7 +7696,6 @@
       <c r="W254" s="2"/>
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
-      <c r="Z254" s="2"/>
     </row>
     <row r="255" ht="19.5" customHeight="1">
       <c r="A255" s="2"/>
@@ -7981,7 +7723,6 @@
       <c r="W255" s="2"/>
       <c r="X255" s="2"/>
       <c r="Y255" s="2"/>
-      <c r="Z255" s="2"/>
     </row>
     <row r="256" ht="19.5" customHeight="1">
       <c r="A256" s="2"/>
@@ -8009,7 +7750,6 @@
       <c r="W256" s="2"/>
       <c r="X256" s="2"/>
       <c r="Y256" s="2"/>
-      <c r="Z256" s="2"/>
     </row>
     <row r="257" ht="19.5" customHeight="1">
       <c r="A257" s="2"/>
@@ -8037,7 +7777,6 @@
       <c r="W257" s="2"/>
       <c r="X257" s="2"/>
       <c r="Y257" s="2"/>
-      <c r="Z257" s="2"/>
     </row>
     <row r="258" ht="19.5" customHeight="1">
       <c r="A258" s="2"/>
@@ -8065,7 +7804,6 @@
       <c r="W258" s="2"/>
       <c r="X258" s="2"/>
       <c r="Y258" s="2"/>
-      <c r="Z258" s="2"/>
     </row>
     <row r="259" ht="19.5" customHeight="1">
       <c r="A259" s="2"/>
@@ -8093,7 +7831,6 @@
       <c r="W259" s="2"/>
       <c r="X259" s="2"/>
       <c r="Y259" s="2"/>
-      <c r="Z259" s="2"/>
     </row>
     <row r="260" ht="19.5" customHeight="1">
       <c r="A260" s="2"/>
@@ -8121,7 +7858,6 @@
       <c r="W260" s="2"/>
       <c r="X260" s="2"/>
       <c r="Y260" s="2"/>
-      <c r="Z260" s="2"/>
     </row>
     <row r="261" ht="19.5" customHeight="1">
       <c r="A261" s="2"/>
@@ -8149,7 +7885,6 @@
       <c r="W261" s="2"/>
       <c r="X261" s="2"/>
       <c r="Y261" s="2"/>
-      <c r="Z261" s="2"/>
     </row>
     <row r="262" ht="19.5" customHeight="1">
       <c r="A262" s="2"/>
@@ -8177,7 +7912,6 @@
       <c r="W262" s="2"/>
       <c r="X262" s="2"/>
       <c r="Y262" s="2"/>
-      <c r="Z262" s="2"/>
     </row>
     <row r="263" ht="19.5" customHeight="1">
       <c r="A263" s="2"/>
@@ -8205,7 +7939,6 @@
       <c r="W263" s="2"/>
       <c r="X263" s="2"/>
       <c r="Y263" s="2"/>
-      <c r="Z263" s="2"/>
     </row>
     <row r="264" ht="19.5" customHeight="1">
       <c r="A264" s="2"/>
@@ -8233,7 +7966,6 @@
       <c r="W264" s="2"/>
       <c r="X264" s="2"/>
       <c r="Y264" s="2"/>
-      <c r="Z264" s="2"/>
     </row>
     <row r="265" ht="19.5" customHeight="1">
       <c r="A265" s="2"/>
@@ -8261,7 +7993,6 @@
       <c r="W265" s="2"/>
       <c r="X265" s="2"/>
       <c r="Y265" s="2"/>
-      <c r="Z265" s="2"/>
     </row>
     <row r="266" ht="19.5" customHeight="1">
       <c r="A266" s="2"/>
@@ -8289,7 +8020,6 @@
       <c r="W266" s="2"/>
       <c r="X266" s="2"/>
       <c r="Y266" s="2"/>
-      <c r="Z266" s="2"/>
     </row>
     <row r="267" ht="19.5" customHeight="1">
       <c r="A267" s="2"/>
@@ -8317,7 +8047,6 @@
       <c r="W267" s="2"/>
       <c r="X267" s="2"/>
       <c r="Y267" s="2"/>
-      <c r="Z267" s="2"/>
     </row>
     <row r="268" ht="19.5" customHeight="1">
       <c r="A268" s="2"/>
@@ -8345,7 +8074,6 @@
       <c r="W268" s="2"/>
       <c r="X268" s="2"/>
       <c r="Y268" s="2"/>
-      <c r="Z268" s="2"/>
     </row>
     <row r="269" ht="19.5" customHeight="1">
       <c r="A269" s="2"/>
@@ -8373,7 +8101,6 @@
       <c r="W269" s="2"/>
       <c r="X269" s="2"/>
       <c r="Y269" s="2"/>
-      <c r="Z269" s="2"/>
     </row>
     <row r="270" ht="19.5" customHeight="1">
       <c r="A270" s="2"/>
@@ -8401,7 +8128,6 @@
       <c r="W270" s="2"/>
       <c r="X270" s="2"/>
       <c r="Y270" s="2"/>
-      <c r="Z270" s="2"/>
     </row>
     <row r="271" ht="19.5" customHeight="1">
       <c r="A271" s="2"/>
@@ -8429,7 +8155,6 @@
       <c r="W271" s="2"/>
       <c r="X271" s="2"/>
       <c r="Y271" s="2"/>
-      <c r="Z271" s="2"/>
     </row>
     <row r="272" ht="19.5" customHeight="1">
       <c r="A272" s="2"/>
@@ -8457,7 +8182,6 @@
       <c r="W272" s="2"/>
       <c r="X272" s="2"/>
       <c r="Y272" s="2"/>
-      <c r="Z272" s="2"/>
     </row>
     <row r="273" ht="19.5" customHeight="1">
       <c r="A273" s="2"/>
@@ -8485,7 +8209,6 @@
       <c r="W273" s="2"/>
       <c r="X273" s="2"/>
       <c r="Y273" s="2"/>
-      <c r="Z273" s="2"/>
     </row>
     <row r="274" ht="19.5" customHeight="1">
       <c r="A274" s="2"/>
@@ -8513,7 +8236,6 @@
       <c r="W274" s="2"/>
       <c r="X274" s="2"/>
       <c r="Y274" s="2"/>
-      <c r="Z274" s="2"/>
     </row>
     <row r="275" ht="19.5" customHeight="1">
       <c r="A275" s="2"/>
@@ -8541,7 +8263,6 @@
       <c r="W275" s="2"/>
       <c r="X275" s="2"/>
       <c r="Y275" s="2"/>
-      <c r="Z275" s="2"/>
     </row>
     <row r="276" ht="19.5" customHeight="1">
       <c r="A276" s="2"/>
@@ -8569,7 +8290,6 @@
       <c r="W276" s="2"/>
       <c r="X276" s="2"/>
       <c r="Y276" s="2"/>
-      <c r="Z276" s="2"/>
     </row>
     <row r="277" ht="19.5" customHeight="1">
       <c r="A277" s="2"/>
@@ -8597,7 +8317,6 @@
       <c r="W277" s="2"/>
       <c r="X277" s="2"/>
       <c r="Y277" s="2"/>
-      <c r="Z277" s="2"/>
     </row>
     <row r="278" ht="19.5" customHeight="1">
       <c r="A278" s="2"/>
@@ -8625,7 +8344,6 @@
       <c r="W278" s="2"/>
       <c r="X278" s="2"/>
       <c r="Y278" s="2"/>
-      <c r="Z278" s="2"/>
     </row>
     <row r="279" ht="19.5" customHeight="1">
       <c r="A279" s="2"/>
@@ -8653,7 +8371,6 @@
       <c r="W279" s="2"/>
       <c r="X279" s="2"/>
       <c r="Y279" s="2"/>
-      <c r="Z279" s="2"/>
     </row>
     <row r="280" ht="19.5" customHeight="1">
       <c r="A280" s="2"/>
@@ -8681,7 +8398,6 @@
       <c r="W280" s="2"/>
       <c r="X280" s="2"/>
       <c r="Y280" s="2"/>
-      <c r="Z280" s="2"/>
     </row>
     <row r="281" ht="19.5" customHeight="1">
       <c r="A281" s="2"/>
@@ -8709,7 +8425,6 @@
       <c r="W281" s="2"/>
       <c r="X281" s="2"/>
       <c r="Y281" s="2"/>
-      <c r="Z281" s="2"/>
     </row>
     <row r="282" ht="19.5" customHeight="1">
       <c r="A282" s="2"/>
@@ -8737,7 +8452,6 @@
       <c r="W282" s="2"/>
       <c r="X282" s="2"/>
       <c r="Y282" s="2"/>
-      <c r="Z282" s="2"/>
     </row>
     <row r="283" ht="19.5" customHeight="1">
       <c r="A283" s="2"/>
@@ -8765,7 +8479,6 @@
       <c r="W283" s="2"/>
       <c r="X283" s="2"/>
       <c r="Y283" s="2"/>
-      <c r="Z283" s="2"/>
     </row>
     <row r="284" ht="19.5" customHeight="1">
       <c r="A284" s="2"/>
@@ -8793,7 +8506,6 @@
       <c r="W284" s="2"/>
       <c r="X284" s="2"/>
       <c r="Y284" s="2"/>
-      <c r="Z284" s="2"/>
     </row>
     <row r="285" ht="19.5" customHeight="1">
       <c r="A285" s="2"/>
@@ -8821,7 +8533,6 @@
       <c r="W285" s="2"/>
       <c r="X285" s="2"/>
       <c r="Y285" s="2"/>
-      <c r="Z285" s="2"/>
     </row>
     <row r="286" ht="19.5" customHeight="1">
       <c r="A286" s="2"/>
@@ -8849,7 +8560,6 @@
       <c r="W286" s="2"/>
       <c r="X286" s="2"/>
       <c r="Y286" s="2"/>
-      <c r="Z286" s="2"/>
     </row>
     <row r="287" ht="19.5" customHeight="1">
       <c r="A287" s="2"/>
@@ -8877,7 +8587,6 @@
       <c r="W287" s="2"/>
       <c r="X287" s="2"/>
       <c r="Y287" s="2"/>
-      <c r="Z287" s="2"/>
     </row>
     <row r="288" ht="19.5" customHeight="1">
       <c r="A288" s="2"/>
@@ -8905,7 +8614,6 @@
       <c r="W288" s="2"/>
       <c r="X288" s="2"/>
       <c r="Y288" s="2"/>
-      <c r="Z288" s="2"/>
     </row>
     <row r="289" ht="19.5" customHeight="1">
       <c r="A289" s="2"/>
@@ -8933,7 +8641,6 @@
       <c r="W289" s="2"/>
       <c r="X289" s="2"/>
       <c r="Y289" s="2"/>
-      <c r="Z289" s="2"/>
     </row>
     <row r="290" ht="19.5" customHeight="1">
       <c r="A290" s="2"/>
@@ -8961,7 +8668,6 @@
       <c r="W290" s="2"/>
       <c r="X290" s="2"/>
       <c r="Y290" s="2"/>
-      <c r="Z290" s="2"/>
     </row>
     <row r="291" ht="19.5" customHeight="1">
       <c r="A291" s="2"/>
@@ -8989,7 +8695,6 @@
       <c r="W291" s="2"/>
       <c r="X291" s="2"/>
       <c r="Y291" s="2"/>
-      <c r="Z291" s="2"/>
     </row>
     <row r="292" ht="19.5" customHeight="1">
       <c r="A292" s="2"/>
@@ -9017,7 +8722,6 @@
       <c r="W292" s="2"/>
       <c r="X292" s="2"/>
       <c r="Y292" s="2"/>
-      <c r="Z292" s="2"/>
     </row>
     <row r="293" ht="19.5" customHeight="1">
       <c r="A293" s="2"/>
@@ -9045,7 +8749,6 @@
       <c r="W293" s="2"/>
       <c r="X293" s="2"/>
       <c r="Y293" s="2"/>
-      <c r="Z293" s="2"/>
     </row>
     <row r="294" ht="19.5" customHeight="1">
       <c r="A294" s="2"/>
@@ -9073,7 +8776,6 @@
       <c r="W294" s="2"/>
       <c r="X294" s="2"/>
       <c r="Y294" s="2"/>
-      <c r="Z294" s="2"/>
     </row>
     <row r="295" ht="19.5" customHeight="1">
       <c r="A295" s="2"/>
@@ -9101,7 +8803,6 @@
       <c r="W295" s="2"/>
       <c r="X295" s="2"/>
       <c r="Y295" s="2"/>
-      <c r="Z295" s="2"/>
     </row>
     <row r="296" ht="19.5" customHeight="1">
       <c r="A296" s="2"/>
@@ -9129,7 +8830,6 @@
       <c r="W296" s="2"/>
       <c r="X296" s="2"/>
       <c r="Y296" s="2"/>
-      <c r="Z296" s="2"/>
     </row>
     <row r="297" ht="19.5" customHeight="1">
       <c r="A297" s="2"/>
@@ -9157,7 +8857,6 @@
       <c r="W297" s="2"/>
       <c r="X297" s="2"/>
       <c r="Y297" s="2"/>
-      <c r="Z297" s="2"/>
     </row>
     <row r="298" ht="19.5" customHeight="1">
       <c r="A298" s="2"/>
@@ -9185,7 +8884,6 @@
       <c r="W298" s="2"/>
       <c r="X298" s="2"/>
       <c r="Y298" s="2"/>
-      <c r="Z298" s="2"/>
     </row>
     <row r="299" ht="19.5" customHeight="1">
       <c r="A299" s="2"/>
@@ -9213,7 +8911,6 @@
       <c r="W299" s="2"/>
       <c r="X299" s="2"/>
       <c r="Y299" s="2"/>
-      <c r="Z299" s="2"/>
     </row>
     <row r="300" ht="19.5" customHeight="1">
       <c r="A300" s="2"/>
@@ -9241,7 +8938,6 @@
       <c r="W300" s="2"/>
       <c r="X300" s="2"/>
       <c r="Y300" s="2"/>
-      <c r="Z300" s="2"/>
     </row>
     <row r="301" ht="19.5" customHeight="1">
       <c r="A301" s="2"/>
@@ -9269,7 +8965,6 @@
       <c r="W301" s="2"/>
       <c r="X301" s="2"/>
       <c r="Y301" s="2"/>
-      <c r="Z301" s="2"/>
     </row>
     <row r="302" ht="19.5" customHeight="1">
       <c r="A302" s="2"/>
@@ -9297,7 +8992,6 @@
       <c r="W302" s="2"/>
       <c r="X302" s="2"/>
       <c r="Y302" s="2"/>
-      <c r="Z302" s="2"/>
     </row>
     <row r="303" ht="19.5" customHeight="1">
       <c r="A303" s="2"/>
@@ -9325,7 +9019,6 @@
       <c r="W303" s="2"/>
       <c r="X303" s="2"/>
       <c r="Y303" s="2"/>
-      <c r="Z303" s="2"/>
     </row>
     <row r="304" ht="19.5" customHeight="1">
       <c r="A304" s="2"/>
@@ -9353,7 +9046,6 @@
       <c r="W304" s="2"/>
       <c r="X304" s="2"/>
       <c r="Y304" s="2"/>
-      <c r="Z304" s="2"/>
     </row>
     <row r="305" ht="19.5" customHeight="1">
       <c r="A305" s="2"/>
@@ -9381,7 +9073,6 @@
       <c r="W305" s="2"/>
       <c r="X305" s="2"/>
       <c r="Y305" s="2"/>
-      <c r="Z305" s="2"/>
     </row>
     <row r="306" ht="19.5" customHeight="1">
       <c r="A306" s="2"/>
@@ -9409,7 +9100,6 @@
       <c r="W306" s="2"/>
       <c r="X306" s="2"/>
       <c r="Y306" s="2"/>
-      <c r="Z306" s="2"/>
     </row>
     <row r="307" ht="19.5" customHeight="1">
       <c r="A307" s="2"/>
@@ -9437,7 +9127,6 @@
       <c r="W307" s="2"/>
       <c r="X307" s="2"/>
       <c r="Y307" s="2"/>
-      <c r="Z307" s="2"/>
     </row>
     <row r="308" ht="19.5" customHeight="1">
       <c r="A308" s="2"/>
@@ -9465,7 +9154,6 @@
       <c r="W308" s="2"/>
       <c r="X308" s="2"/>
       <c r="Y308" s="2"/>
-      <c r="Z308" s="2"/>
     </row>
     <row r="309" ht="19.5" customHeight="1">
       <c r="A309" s="2"/>
@@ -9493,7 +9181,6 @@
       <c r="W309" s="2"/>
       <c r="X309" s="2"/>
       <c r="Y309" s="2"/>
-      <c r="Z309" s="2"/>
     </row>
     <row r="310" ht="19.5" customHeight="1">
       <c r="A310" s="2"/>
@@ -9521,7 +9208,6 @@
       <c r="W310" s="2"/>
       <c r="X310" s="2"/>
       <c r="Y310" s="2"/>
-      <c r="Z310" s="2"/>
     </row>
     <row r="311" ht="19.5" customHeight="1">
       <c r="A311" s="2"/>
@@ -9549,7 +9235,6 @@
       <c r="W311" s="2"/>
       <c r="X311" s="2"/>
       <c r="Y311" s="2"/>
-      <c r="Z311" s="2"/>
     </row>
     <row r="312" ht="19.5" customHeight="1">
       <c r="A312" s="2"/>
@@ -9577,7 +9262,6 @@
       <c r="W312" s="2"/>
       <c r="X312" s="2"/>
       <c r="Y312" s="2"/>
-      <c r="Z312" s="2"/>
     </row>
     <row r="313" ht="19.5" customHeight="1">
       <c r="A313" s="2"/>
@@ -9605,7 +9289,6 @@
       <c r="W313" s="2"/>
       <c r="X313" s="2"/>
       <c r="Y313" s="2"/>
-      <c r="Z313" s="2"/>
     </row>
     <row r="314" ht="19.5" customHeight="1">
       <c r="A314" s="2"/>
@@ -9633,7 +9316,6 @@
       <c r="W314" s="2"/>
       <c r="X314" s="2"/>
       <c r="Y314" s="2"/>
-      <c r="Z314" s="2"/>
     </row>
     <row r="315" ht="19.5" customHeight="1">
       <c r="A315" s="2"/>
@@ -9661,7 +9343,6 @@
       <c r="W315" s="2"/>
       <c r="X315" s="2"/>
       <c r="Y315" s="2"/>
-      <c r="Z315" s="2"/>
     </row>
     <row r="316" ht="19.5" customHeight="1">
       <c r="A316" s="2"/>
@@ -9689,7 +9370,6 @@
       <c r="W316" s="2"/>
       <c r="X316" s="2"/>
       <c r="Y316" s="2"/>
-      <c r="Z316" s="2"/>
     </row>
     <row r="317" ht="19.5" customHeight="1">
       <c r="A317" s="2"/>
@@ -9717,7 +9397,6 @@
       <c r="W317" s="2"/>
       <c r="X317" s="2"/>
       <c r="Y317" s="2"/>
-      <c r="Z317" s="2"/>
     </row>
     <row r="318" ht="19.5" customHeight="1">
       <c r="A318" s="2"/>
@@ -9745,7 +9424,6 @@
       <c r="W318" s="2"/>
       <c r="X318" s="2"/>
       <c r="Y318" s="2"/>
-      <c r="Z318" s="2"/>
     </row>
     <row r="319" ht="19.5" customHeight="1">
       <c r="A319" s="2"/>
@@ -9773,7 +9451,6 @@
       <c r="W319" s="2"/>
       <c r="X319" s="2"/>
       <c r="Y319" s="2"/>
-      <c r="Z319" s="2"/>
     </row>
     <row r="320" ht="19.5" customHeight="1">
       <c r="A320" s="2"/>
@@ -9801,7 +9478,6 @@
       <c r="W320" s="2"/>
       <c r="X320" s="2"/>
       <c r="Y320" s="2"/>
-      <c r="Z320" s="2"/>
     </row>
     <row r="321" ht="19.5" customHeight="1">
       <c r="A321" s="2"/>
@@ -9829,7 +9505,6 @@
       <c r="W321" s="2"/>
       <c r="X321" s="2"/>
       <c r="Y321" s="2"/>
-      <c r="Z321" s="2"/>
     </row>
     <row r="322" ht="19.5" customHeight="1">
       <c r="A322" s="2"/>
@@ -9857,7 +9532,6 @@
       <c r="W322" s="2"/>
       <c r="X322" s="2"/>
       <c r="Y322" s="2"/>
-      <c r="Z322" s="2"/>
     </row>
     <row r="323" ht="19.5" customHeight="1">
       <c r="A323" s="2"/>
@@ -9885,7 +9559,6 @@
       <c r="W323" s="2"/>
       <c r="X323" s="2"/>
       <c r="Y323" s="2"/>
-      <c r="Z323" s="2"/>
     </row>
     <row r="324" ht="19.5" customHeight="1">
       <c r="A324" s="2"/>
@@ -9913,7 +9586,6 @@
       <c r="W324" s="2"/>
       <c r="X324" s="2"/>
       <c r="Y324" s="2"/>
-      <c r="Z324" s="2"/>
     </row>
     <row r="325" ht="19.5" customHeight="1">
       <c r="A325" s="2"/>
@@ -9941,7 +9613,6 @@
       <c r="W325" s="2"/>
       <c r="X325" s="2"/>
       <c r="Y325" s="2"/>
-      <c r="Z325" s="2"/>
     </row>
     <row r="326" ht="19.5" customHeight="1">
       <c r="A326" s="2"/>
@@ -9969,7 +9640,6 @@
       <c r="W326" s="2"/>
       <c r="X326" s="2"/>
       <c r="Y326" s="2"/>
-      <c r="Z326" s="2"/>
     </row>
     <row r="327" ht="19.5" customHeight="1">
       <c r="A327" s="2"/>
@@ -9997,7 +9667,6 @@
       <c r="W327" s="2"/>
       <c r="X327" s="2"/>
       <c r="Y327" s="2"/>
-      <c r="Z327" s="2"/>
     </row>
     <row r="328" ht="19.5" customHeight="1">
       <c r="A328" s="2"/>
@@ -10025,7 +9694,6 @@
       <c r="W328" s="2"/>
       <c r="X328" s="2"/>
       <c r="Y328" s="2"/>
-      <c r="Z328" s="2"/>
     </row>
     <row r="329" ht="19.5" customHeight="1">
       <c r="A329" s="2"/>
@@ -10053,7 +9721,6 @@
       <c r="W329" s="2"/>
       <c r="X329" s="2"/>
       <c r="Y329" s="2"/>
-      <c r="Z329" s="2"/>
     </row>
     <row r="330" ht="19.5" customHeight="1">
       <c r="A330" s="2"/>
@@ -10081,7 +9748,6 @@
       <c r="W330" s="2"/>
       <c r="X330" s="2"/>
       <c r="Y330" s="2"/>
-      <c r="Z330" s="2"/>
     </row>
     <row r="331" ht="19.5" customHeight="1">
       <c r="A331" s="2"/>
@@ -10109,7 +9775,6 @@
       <c r="W331" s="2"/>
       <c r="X331" s="2"/>
       <c r="Y331" s="2"/>
-      <c r="Z331" s="2"/>
     </row>
     <row r="332" ht="19.5" customHeight="1">
       <c r="A332" s="2"/>
@@ -10137,7 +9802,6 @@
       <c r="W332" s="2"/>
       <c r="X332" s="2"/>
       <c r="Y332" s="2"/>
-      <c r="Z332" s="2"/>
     </row>
     <row r="333" ht="19.5" customHeight="1">
       <c r="A333" s="2"/>
@@ -10165,7 +9829,6 @@
       <c r="W333" s="2"/>
       <c r="X333" s="2"/>
       <c r="Y333" s="2"/>
-      <c r="Z333" s="2"/>
     </row>
     <row r="334" ht="19.5" customHeight="1">
       <c r="A334" s="2"/>
@@ -10193,7 +9856,6 @@
       <c r="W334" s="2"/>
       <c r="X334" s="2"/>
       <c r="Y334" s="2"/>
-      <c r="Z334" s="2"/>
     </row>
     <row r="335" ht="19.5" customHeight="1">
       <c r="A335" s="2"/>
@@ -10221,7 +9883,6 @@
       <c r="W335" s="2"/>
       <c r="X335" s="2"/>
       <c r="Y335" s="2"/>
-      <c r="Z335" s="2"/>
     </row>
     <row r="336" ht="19.5" customHeight="1">
       <c r="A336" s="2"/>
@@ -10249,7 +9910,6 @@
       <c r="W336" s="2"/>
       <c r="X336" s="2"/>
       <c r="Y336" s="2"/>
-      <c r="Z336" s="2"/>
     </row>
     <row r="337" ht="19.5" customHeight="1">
       <c r="A337" s="2"/>
@@ -10277,7 +9937,6 @@
       <c r="W337" s="2"/>
       <c r="X337" s="2"/>
       <c r="Y337" s="2"/>
-      <c r="Z337" s="2"/>
     </row>
     <row r="338" ht="19.5" customHeight="1">
       <c r="A338" s="2"/>
@@ -10305,7 +9964,6 @@
       <c r="W338" s="2"/>
       <c r="X338" s="2"/>
       <c r="Y338" s="2"/>
-      <c r="Z338" s="2"/>
     </row>
     <row r="339" ht="19.5" customHeight="1">
       <c r="A339" s="2"/>
@@ -10333,7 +9991,6 @@
       <c r="W339" s="2"/>
       <c r="X339" s="2"/>
       <c r="Y339" s="2"/>
-      <c r="Z339" s="2"/>
     </row>
     <row r="340" ht="19.5" customHeight="1">
       <c r="A340" s="2"/>
@@ -10361,7 +10018,6 @@
       <c r="W340" s="2"/>
       <c r="X340" s="2"/>
       <c r="Y340" s="2"/>
-      <c r="Z340" s="2"/>
     </row>
     <row r="341" ht="19.5" customHeight="1">
       <c r="A341" s="2"/>
@@ -10389,7 +10045,6 @@
       <c r="W341" s="2"/>
       <c r="X341" s="2"/>
       <c r="Y341" s="2"/>
-      <c r="Z341" s="2"/>
     </row>
     <row r="342" ht="19.5" customHeight="1">
       <c r="A342" s="2"/>
@@ -10417,7 +10072,6 @@
       <c r="W342" s="2"/>
       <c r="X342" s="2"/>
       <c r="Y342" s="2"/>
-      <c r="Z342" s="2"/>
     </row>
     <row r="343" ht="19.5" customHeight="1">
       <c r="A343" s="2"/>
@@ -10445,7 +10099,6 @@
       <c r="W343" s="2"/>
       <c r="X343" s="2"/>
       <c r="Y343" s="2"/>
-      <c r="Z343" s="2"/>
     </row>
     <row r="344" ht="19.5" customHeight="1">
       <c r="A344" s="2"/>
@@ -10473,7 +10126,6 @@
       <c r="W344" s="2"/>
       <c r="X344" s="2"/>
       <c r="Y344" s="2"/>
-      <c r="Z344" s="2"/>
     </row>
     <row r="345" ht="19.5" customHeight="1">
       <c r="A345" s="2"/>
@@ -10501,7 +10153,6 @@
       <c r="W345" s="2"/>
       <c r="X345" s="2"/>
       <c r="Y345" s="2"/>
-      <c r="Z345" s="2"/>
     </row>
     <row r="346" ht="19.5" customHeight="1">
       <c r="A346" s="2"/>
@@ -10529,7 +10180,6 @@
       <c r="W346" s="2"/>
       <c r="X346" s="2"/>
       <c r="Y346" s="2"/>
-      <c r="Z346" s="2"/>
     </row>
     <row r="347" ht="19.5" customHeight="1">
       <c r="A347" s="2"/>
@@ -10557,7 +10207,6 @@
       <c r="W347" s="2"/>
       <c r="X347" s="2"/>
       <c r="Y347" s="2"/>
-      <c r="Z347" s="2"/>
     </row>
     <row r="348" ht="19.5" customHeight="1">
       <c r="A348" s="2"/>
@@ -10585,7 +10234,6 @@
       <c r="W348" s="2"/>
       <c r="X348" s="2"/>
       <c r="Y348" s="2"/>
-      <c r="Z348" s="2"/>
     </row>
     <row r="349" ht="19.5" customHeight="1">
       <c r="A349" s="2"/>
@@ -10613,7 +10261,6 @@
       <c r="W349" s="2"/>
       <c r="X349" s="2"/>
       <c r="Y349" s="2"/>
-      <c r="Z349" s="2"/>
     </row>
     <row r="350" ht="19.5" customHeight="1">
       <c r="A350" s="2"/>
@@ -10641,7 +10288,6 @@
       <c r="W350" s="2"/>
       <c r="X350" s="2"/>
       <c r="Y350" s="2"/>
-      <c r="Z350" s="2"/>
     </row>
     <row r="351" ht="19.5" customHeight="1">
       <c r="A351" s="2"/>
@@ -10669,7 +10315,6 @@
       <c r="W351" s="2"/>
       <c r="X351" s="2"/>
       <c r="Y351" s="2"/>
-      <c r="Z351" s="2"/>
     </row>
     <row r="352" ht="19.5" customHeight="1">
       <c r="A352" s="2"/>
@@ -10697,7 +10342,6 @@
       <c r="W352" s="2"/>
       <c r="X352" s="2"/>
       <c r="Y352" s="2"/>
-      <c r="Z352" s="2"/>
     </row>
     <row r="353" ht="19.5" customHeight="1">
       <c r="A353" s="2"/>
@@ -10725,7 +10369,6 @@
       <c r="W353" s="2"/>
       <c r="X353" s="2"/>
       <c r="Y353" s="2"/>
-      <c r="Z353" s="2"/>
     </row>
     <row r="354" ht="19.5" customHeight="1">
       <c r="A354" s="2"/>
@@ -10753,7 +10396,6 @@
       <c r="W354" s="2"/>
       <c r="X354" s="2"/>
       <c r="Y354" s="2"/>
-      <c r="Z354" s="2"/>
     </row>
     <row r="355" ht="19.5" customHeight="1">
       <c r="A355" s="2"/>
@@ -10781,7 +10423,6 @@
       <c r="W355" s="2"/>
       <c r="X355" s="2"/>
       <c r="Y355" s="2"/>
-      <c r="Z355" s="2"/>
     </row>
     <row r="356" ht="19.5" customHeight="1">
       <c r="A356" s="2"/>
@@ -10809,7 +10450,6 @@
       <c r="W356" s="2"/>
       <c r="X356" s="2"/>
       <c r="Y356" s="2"/>
-      <c r="Z356" s="2"/>
     </row>
     <row r="357" ht="19.5" customHeight="1">
       <c r="A357" s="2"/>
@@ -10837,7 +10477,6 @@
       <c r="W357" s="2"/>
       <c r="X357" s="2"/>
       <c r="Y357" s="2"/>
-      <c r="Z357" s="2"/>
     </row>
     <row r="358" ht="19.5" customHeight="1">
       <c r="A358" s="2"/>
@@ -10865,7 +10504,6 @@
       <c r="W358" s="2"/>
       <c r="X358" s="2"/>
       <c r="Y358" s="2"/>
-      <c r="Z358" s="2"/>
     </row>
     <row r="359" ht="19.5" customHeight="1">
       <c r="A359" s="2"/>
@@ -10893,7 +10531,6 @@
       <c r="W359" s="2"/>
       <c r="X359" s="2"/>
       <c r="Y359" s="2"/>
-      <c r="Z359" s="2"/>
     </row>
     <row r="360" ht="19.5" customHeight="1">
       <c r="A360" s="2"/>
@@ -10921,7 +10558,6 @@
       <c r="W360" s="2"/>
       <c r="X360" s="2"/>
       <c r="Y360" s="2"/>
-      <c r="Z360" s="2"/>
     </row>
     <row r="361" ht="19.5" customHeight="1">
       <c r="A361" s="2"/>
@@ -10949,7 +10585,6 @@
       <c r="W361" s="2"/>
       <c r="X361" s="2"/>
       <c r="Y361" s="2"/>
-      <c r="Z361" s="2"/>
     </row>
     <row r="362" ht="19.5" customHeight="1">
       <c r="A362" s="2"/>
@@ -10977,7 +10612,6 @@
       <c r="W362" s="2"/>
       <c r="X362" s="2"/>
       <c r="Y362" s="2"/>
-      <c r="Z362" s="2"/>
     </row>
     <row r="363" ht="19.5" customHeight="1">
       <c r="A363" s="2"/>
@@ -11005,7 +10639,6 @@
       <c r="W363" s="2"/>
       <c r="X363" s="2"/>
       <c r="Y363" s="2"/>
-      <c r="Z363" s="2"/>
     </row>
     <row r="364" ht="19.5" customHeight="1">
       <c r="A364" s="2"/>
@@ -11033,7 +10666,6 @@
       <c r="W364" s="2"/>
       <c r="X364" s="2"/>
       <c r="Y364" s="2"/>
-      <c r="Z364" s="2"/>
     </row>
     <row r="365" ht="19.5" customHeight="1">
       <c r="A365" s="2"/>
@@ -11061,7 +10693,6 @@
       <c r="W365" s="2"/>
       <c r="X365" s="2"/>
       <c r="Y365" s="2"/>
-      <c r="Z365" s="2"/>
     </row>
     <row r="366" ht="19.5" customHeight="1">
       <c r="A366" s="2"/>
@@ -11089,7 +10720,6 @@
       <c r="W366" s="2"/>
       <c r="X366" s="2"/>
       <c r="Y366" s="2"/>
-      <c r="Z366" s="2"/>
     </row>
     <row r="367" ht="19.5" customHeight="1">
       <c r="A367" s="2"/>
@@ -11117,7 +10747,6 @@
       <c r="W367" s="2"/>
       <c r="X367" s="2"/>
       <c r="Y367" s="2"/>
-      <c r="Z367" s="2"/>
     </row>
     <row r="368" ht="19.5" customHeight="1">
       <c r="A368" s="2"/>
@@ -11145,7 +10774,6 @@
       <c r="W368" s="2"/>
       <c r="X368" s="2"/>
       <c r="Y368" s="2"/>
-      <c r="Z368" s="2"/>
     </row>
     <row r="369" ht="19.5" customHeight="1">
       <c r="A369" s="2"/>
@@ -11173,7 +10801,6 @@
       <c r="W369" s="2"/>
       <c r="X369" s="2"/>
       <c r="Y369" s="2"/>
-      <c r="Z369" s="2"/>
     </row>
     <row r="370" ht="19.5" customHeight="1">
       <c r="A370" s="2"/>
@@ -11201,7 +10828,6 @@
       <c r="W370" s="2"/>
       <c r="X370" s="2"/>
       <c r="Y370" s="2"/>
-      <c r="Z370" s="2"/>
     </row>
     <row r="371" ht="19.5" customHeight="1">
       <c r="A371" s="2"/>
@@ -11229,7 +10855,6 @@
       <c r="W371" s="2"/>
       <c r="X371" s="2"/>
       <c r="Y371" s="2"/>
-      <c r="Z371" s="2"/>
     </row>
     <row r="372" ht="19.5" customHeight="1">
       <c r="A372" s="2"/>
@@ -11257,7 +10882,6 @@
       <c r="W372" s="2"/>
       <c r="X372" s="2"/>
       <c r="Y372" s="2"/>
-      <c r="Z372" s="2"/>
     </row>
     <row r="373" ht="19.5" customHeight="1">
       <c r="A373" s="2"/>
@@ -11285,7 +10909,6 @@
       <c r="W373" s="2"/>
       <c r="X373" s="2"/>
       <c r="Y373" s="2"/>
-      <c r="Z373" s="2"/>
     </row>
     <row r="374" ht="19.5" customHeight="1">
       <c r="A374" s="2"/>
@@ -11313,7 +10936,6 @@
       <c r="W374" s="2"/>
       <c r="X374" s="2"/>
       <c r="Y374" s="2"/>
-      <c r="Z374" s="2"/>
     </row>
     <row r="375" ht="19.5" customHeight="1">
       <c r="A375" s="2"/>
@@ -11341,7 +10963,6 @@
       <c r="W375" s="2"/>
       <c r="X375" s="2"/>
       <c r="Y375" s="2"/>
-      <c r="Z375" s="2"/>
     </row>
     <row r="376" ht="19.5" customHeight="1">
       <c r="A376" s="2"/>
@@ -11369,7 +10990,6 @@
       <c r="W376" s="2"/>
       <c r="X376" s="2"/>
       <c r="Y376" s="2"/>
-      <c r="Z376" s="2"/>
     </row>
     <row r="377" ht="19.5" customHeight="1">
       <c r="A377" s="2"/>
@@ -11397,7 +11017,6 @@
       <c r="W377" s="2"/>
       <c r="X377" s="2"/>
       <c r="Y377" s="2"/>
-      <c r="Z377" s="2"/>
     </row>
     <row r="378" ht="19.5" customHeight="1">
       <c r="A378" s="2"/>
@@ -11425,7 +11044,6 @@
       <c r="W378" s="2"/>
       <c r="X378" s="2"/>
       <c r="Y378" s="2"/>
-      <c r="Z378" s="2"/>
     </row>
     <row r="379" ht="19.5" customHeight="1">
       <c r="A379" s="2"/>
@@ -11453,7 +11071,6 @@
       <c r="W379" s="2"/>
       <c r="X379" s="2"/>
       <c r="Y379" s="2"/>
-      <c r="Z379" s="2"/>
     </row>
     <row r="380" ht="19.5" customHeight="1">
       <c r="A380" s="2"/>
@@ -11481,7 +11098,6 @@
       <c r="W380" s="2"/>
       <c r="X380" s="2"/>
       <c r="Y380" s="2"/>
-      <c r="Z380" s="2"/>
     </row>
     <row r="381" ht="19.5" customHeight="1">
       <c r="A381" s="2"/>
@@ -11509,7 +11125,6 @@
       <c r="W381" s="2"/>
       <c r="X381" s="2"/>
       <c r="Y381" s="2"/>
-      <c r="Z381" s="2"/>
     </row>
     <row r="382" ht="19.5" customHeight="1">
       <c r="A382" s="2"/>
@@ -11537,7 +11152,6 @@
       <c r="W382" s="2"/>
       <c r="X382" s="2"/>
       <c r="Y382" s="2"/>
-      <c r="Z382" s="2"/>
     </row>
     <row r="383" ht="19.5" customHeight="1">
       <c r="A383" s="2"/>
@@ -11565,7 +11179,6 @@
       <c r="W383" s="2"/>
       <c r="X383" s="2"/>
       <c r="Y383" s="2"/>
-      <c r="Z383" s="2"/>
     </row>
     <row r="384" ht="19.5" customHeight="1">
       <c r="A384" s="2"/>
@@ -11593,7 +11206,6 @@
       <c r="W384" s="2"/>
       <c r="X384" s="2"/>
       <c r="Y384" s="2"/>
-      <c r="Z384" s="2"/>
     </row>
     <row r="385" ht="19.5" customHeight="1">
       <c r="A385" s="2"/>
@@ -11621,7 +11233,6 @@
       <c r="W385" s="2"/>
       <c r="X385" s="2"/>
       <c r="Y385" s="2"/>
-      <c r="Z385" s="2"/>
     </row>
     <row r="386" ht="19.5" customHeight="1">
       <c r="A386" s="2"/>
@@ -11649,7 +11260,6 @@
       <c r="W386" s="2"/>
       <c r="X386" s="2"/>
       <c r="Y386" s="2"/>
-      <c r="Z386" s="2"/>
     </row>
     <row r="387" ht="19.5" customHeight="1">
       <c r="A387" s="2"/>
@@ -11677,7 +11287,6 @@
       <c r="W387" s="2"/>
       <c r="X387" s="2"/>
       <c r="Y387" s="2"/>
-      <c r="Z387" s="2"/>
     </row>
     <row r="388" ht="19.5" customHeight="1">
       <c r="A388" s="2"/>
@@ -11705,7 +11314,6 @@
       <c r="W388" s="2"/>
       <c r="X388" s="2"/>
       <c r="Y388" s="2"/>
-      <c r="Z388" s="2"/>
     </row>
     <row r="389" ht="19.5" customHeight="1">
       <c r="A389" s="2"/>
@@ -11733,7 +11341,6 @@
       <c r="W389" s="2"/>
       <c r="X389" s="2"/>
       <c r="Y389" s="2"/>
-      <c r="Z389" s="2"/>
     </row>
     <row r="390" ht="19.5" customHeight="1">
       <c r="A390" s="2"/>
@@ -11761,7 +11368,6 @@
       <c r="W390" s="2"/>
       <c r="X390" s="2"/>
       <c r="Y390" s="2"/>
-      <c r="Z390" s="2"/>
     </row>
     <row r="391" ht="19.5" customHeight="1">
       <c r="A391" s="2"/>
@@ -11789,7 +11395,6 @@
       <c r="W391" s="2"/>
       <c r="X391" s="2"/>
       <c r="Y391" s="2"/>
-      <c r="Z391" s="2"/>
     </row>
     <row r="392" ht="19.5" customHeight="1">
       <c r="A392" s="2"/>
@@ -11817,7 +11422,6 @@
       <c r="W392" s="2"/>
       <c r="X392" s="2"/>
       <c r="Y392" s="2"/>
-      <c r="Z392" s="2"/>
     </row>
     <row r="393" ht="19.5" customHeight="1">
       <c r="A393" s="2"/>
@@ -11845,7 +11449,6 @@
       <c r="W393" s="2"/>
       <c r="X393" s="2"/>
       <c r="Y393" s="2"/>
-      <c r="Z393" s="2"/>
     </row>
     <row r="394" ht="19.5" customHeight="1">
       <c r="A394" s="2"/>
@@ -11873,7 +11476,6 @@
       <c r="W394" s="2"/>
       <c r="X394" s="2"/>
       <c r="Y394" s="2"/>
-      <c r="Z394" s="2"/>
     </row>
     <row r="395" ht="19.5" customHeight="1">
       <c r="A395" s="2"/>
@@ -11901,7 +11503,6 @@
       <c r="W395" s="2"/>
       <c r="X395" s="2"/>
       <c r="Y395" s="2"/>
-      <c r="Z395" s="2"/>
     </row>
     <row r="396" ht="19.5" customHeight="1">
       <c r="A396" s="2"/>
@@ -11929,7 +11530,6 @@
       <c r="W396" s="2"/>
       <c r="X396" s="2"/>
       <c r="Y396" s="2"/>
-      <c r="Z396" s="2"/>
     </row>
     <row r="397" ht="19.5" customHeight="1">
       <c r="A397" s="2"/>
@@ -11957,7 +11557,6 @@
       <c r="W397" s="2"/>
       <c r="X397" s="2"/>
       <c r="Y397" s="2"/>
-      <c r="Z397" s="2"/>
     </row>
     <row r="398" ht="19.5" customHeight="1">
       <c r="A398" s="2"/>
@@ -11985,7 +11584,6 @@
       <c r="W398" s="2"/>
       <c r="X398" s="2"/>
       <c r="Y398" s="2"/>
-      <c r="Z398" s="2"/>
     </row>
     <row r="399" ht="19.5" customHeight="1">
       <c r="A399" s="2"/>
@@ -12013,7 +11611,6 @@
       <c r="W399" s="2"/>
       <c r="X399" s="2"/>
       <c r="Y399" s="2"/>
-      <c r="Z399" s="2"/>
     </row>
     <row r="400" ht="19.5" customHeight="1">
       <c r="A400" s="2"/>
@@ -12041,7 +11638,6 @@
       <c r="W400" s="2"/>
       <c r="X400" s="2"/>
       <c r="Y400" s="2"/>
-      <c r="Z400" s="2"/>
     </row>
     <row r="401" ht="19.5" customHeight="1">
       <c r="A401" s="2"/>
@@ -12069,7 +11665,6 @@
       <c r="W401" s="2"/>
       <c r="X401" s="2"/>
       <c r="Y401" s="2"/>
-      <c r="Z401" s="2"/>
     </row>
     <row r="402" ht="19.5" customHeight="1">
       <c r="A402" s="2"/>
@@ -12097,7 +11692,6 @@
       <c r="W402" s="2"/>
       <c r="X402" s="2"/>
       <c r="Y402" s="2"/>
-      <c r="Z402" s="2"/>
     </row>
     <row r="403" ht="19.5" customHeight="1">
       <c r="A403" s="2"/>
@@ -12125,7 +11719,6 @@
       <c r="W403" s="2"/>
       <c r="X403" s="2"/>
       <c r="Y403" s="2"/>
-      <c r="Z403" s="2"/>
     </row>
     <row r="404" ht="19.5" customHeight="1">
       <c r="A404" s="2"/>
@@ -12153,7 +11746,6 @@
       <c r="W404" s="2"/>
       <c r="X404" s="2"/>
       <c r="Y404" s="2"/>
-      <c r="Z404" s="2"/>
     </row>
     <row r="405" ht="19.5" customHeight="1">
       <c r="A405" s="2"/>
@@ -12181,7 +11773,6 @@
       <c r="W405" s="2"/>
       <c r="X405" s="2"/>
       <c r="Y405" s="2"/>
-      <c r="Z405" s="2"/>
     </row>
     <row r="406" ht="19.5" customHeight="1">
       <c r="A406" s="2"/>
@@ -12209,7 +11800,6 @@
       <c r="W406" s="2"/>
       <c r="X406" s="2"/>
       <c r="Y406" s="2"/>
-      <c r="Z406" s="2"/>
     </row>
     <row r="407" ht="19.5" customHeight="1">
       <c r="A407" s="2"/>
@@ -12237,7 +11827,6 @@
       <c r="W407" s="2"/>
       <c r="X407" s="2"/>
       <c r="Y407" s="2"/>
-      <c r="Z407" s="2"/>
     </row>
     <row r="408" ht="19.5" customHeight="1">
       <c r="A408" s="2"/>
@@ -12265,7 +11854,6 @@
       <c r="W408" s="2"/>
       <c r="X408" s="2"/>
       <c r="Y408" s="2"/>
-      <c r="Z408" s="2"/>
     </row>
     <row r="409" ht="19.5" customHeight="1">
       <c r="A409" s="2"/>
@@ -12293,7 +11881,6 @@
       <c r="W409" s="2"/>
       <c r="X409" s="2"/>
       <c r="Y409" s="2"/>
-      <c r="Z409" s="2"/>
     </row>
     <row r="410" ht="19.5" customHeight="1">
       <c r="A410" s="2"/>
@@ -12321,7 +11908,6 @@
       <c r="W410" s="2"/>
       <c r="X410" s="2"/>
       <c r="Y410" s="2"/>
-      <c r="Z410" s="2"/>
     </row>
     <row r="411" ht="19.5" customHeight="1">
       <c r="A411" s="2"/>
@@ -12349,7 +11935,6 @@
       <c r="W411" s="2"/>
       <c r="X411" s="2"/>
       <c r="Y411" s="2"/>
-      <c r="Z411" s="2"/>
     </row>
     <row r="412" ht="19.5" customHeight="1">
       <c r="A412" s="2"/>
@@ -12377,7 +11962,6 @@
       <c r="W412" s="2"/>
       <c r="X412" s="2"/>
       <c r="Y412" s="2"/>
-      <c r="Z412" s="2"/>
     </row>
     <row r="413" ht="19.5" customHeight="1">
       <c r="A413" s="2"/>
@@ -12405,7 +11989,6 @@
       <c r="W413" s="2"/>
       <c r="X413" s="2"/>
       <c r="Y413" s="2"/>
-      <c r="Z413" s="2"/>
     </row>
     <row r="414" ht="19.5" customHeight="1">
       <c r="A414" s="2"/>
@@ -12433,7 +12016,6 @@
       <c r="W414" s="2"/>
       <c r="X414" s="2"/>
       <c r="Y414" s="2"/>
-      <c r="Z414" s="2"/>
     </row>
     <row r="415" ht="19.5" customHeight="1">
       <c r="A415" s="2"/>
@@ -12461,7 +12043,6 @@
       <c r="W415" s="2"/>
       <c r="X415" s="2"/>
       <c r="Y415" s="2"/>
-      <c r="Z415" s="2"/>
     </row>
     <row r="416" ht="19.5" customHeight="1">
       <c r="A416" s="2"/>
@@ -12489,7 +12070,6 @@
       <c r="W416" s="2"/>
       <c r="X416" s="2"/>
       <c r="Y416" s="2"/>
-      <c r="Z416" s="2"/>
     </row>
     <row r="417" ht="19.5" customHeight="1">
       <c r="A417" s="2"/>
@@ -12517,7 +12097,6 @@
       <c r="W417" s="2"/>
       <c r="X417" s="2"/>
       <c r="Y417" s="2"/>
-      <c r="Z417" s="2"/>
     </row>
     <row r="418" ht="19.5" customHeight="1">
       <c r="A418" s="2"/>
@@ -12545,7 +12124,6 @@
       <c r="W418" s="2"/>
       <c r="X418" s="2"/>
       <c r="Y418" s="2"/>
-      <c r="Z418" s="2"/>
     </row>
     <row r="419" ht="19.5" customHeight="1">
       <c r="A419" s="2"/>
@@ -12573,7 +12151,6 @@
       <c r="W419" s="2"/>
       <c r="X419" s="2"/>
       <c r="Y419" s="2"/>
-      <c r="Z419" s="2"/>
     </row>
     <row r="420" ht="19.5" customHeight="1">
       <c r="A420" s="2"/>
@@ -12601,7 +12178,6 @@
       <c r="W420" s="2"/>
       <c r="X420" s="2"/>
       <c r="Y420" s="2"/>
-      <c r="Z420" s="2"/>
     </row>
     <row r="421" ht="19.5" customHeight="1">
       <c r="A421" s="2"/>
@@ -12629,7 +12205,6 @@
       <c r="W421" s="2"/>
       <c r="X421" s="2"/>
       <c r="Y421" s="2"/>
-      <c r="Z421" s="2"/>
     </row>
     <row r="422" ht="19.5" customHeight="1">
       <c r="A422" s="2"/>
@@ -12657,7 +12232,6 @@
       <c r="W422" s="2"/>
       <c r="X422" s="2"/>
       <c r="Y422" s="2"/>
-      <c r="Z422" s="2"/>
     </row>
     <row r="423" ht="19.5" customHeight="1">
       <c r="A423" s="2"/>
@@ -12685,7 +12259,6 @@
       <c r="W423" s="2"/>
       <c r="X423" s="2"/>
       <c r="Y423" s="2"/>
-      <c r="Z423" s="2"/>
     </row>
     <row r="424" ht="19.5" customHeight="1">
       <c r="A424" s="2"/>
@@ -12713,7 +12286,6 @@
       <c r="W424" s="2"/>
       <c r="X424" s="2"/>
       <c r="Y424" s="2"/>
-      <c r="Z424" s="2"/>
     </row>
     <row r="425" ht="19.5" customHeight="1">
       <c r="A425" s="2"/>
@@ -12741,7 +12313,6 @@
       <c r="W425" s="2"/>
       <c r="X425" s="2"/>
       <c r="Y425" s="2"/>
-      <c r="Z425" s="2"/>
     </row>
     <row r="426" ht="19.5" customHeight="1">
       <c r="A426" s="2"/>
@@ -12769,7 +12340,6 @@
       <c r="W426" s="2"/>
       <c r="X426" s="2"/>
       <c r="Y426" s="2"/>
-      <c r="Z426" s="2"/>
     </row>
     <row r="427" ht="19.5" customHeight="1">
       <c r="A427" s="2"/>
@@ -12797,7 +12367,6 @@
       <c r="W427" s="2"/>
       <c r="X427" s="2"/>
       <c r="Y427" s="2"/>
-      <c r="Z427" s="2"/>
     </row>
     <row r="428" ht="19.5" customHeight="1">
       <c r="A428" s="2"/>
@@ -12825,7 +12394,6 @@
       <c r="W428" s="2"/>
       <c r="X428" s="2"/>
       <c r="Y428" s="2"/>
-      <c r="Z428" s="2"/>
     </row>
     <row r="429" ht="19.5" customHeight="1">
       <c r="A429" s="2"/>
@@ -12853,7 +12421,6 @@
       <c r="W429" s="2"/>
       <c r="X429" s="2"/>
       <c r="Y429" s="2"/>
-      <c r="Z429" s="2"/>
     </row>
     <row r="430" ht="19.5" customHeight="1">
       <c r="A430" s="2"/>
@@ -12881,7 +12448,6 @@
       <c r="W430" s="2"/>
       <c r="X430" s="2"/>
       <c r="Y430" s="2"/>
-      <c r="Z430" s="2"/>
     </row>
     <row r="431" ht="19.5" customHeight="1">
       <c r="A431" s="2"/>
@@ -12909,7 +12475,6 @@
       <c r="W431" s="2"/>
       <c r="X431" s="2"/>
       <c r="Y431" s="2"/>
-      <c r="Z431" s="2"/>
     </row>
     <row r="432" ht="19.5" customHeight="1">
       <c r="A432" s="2"/>
@@ -12937,7 +12502,6 @@
       <c r="W432" s="2"/>
       <c r="X432" s="2"/>
       <c r="Y432" s="2"/>
-      <c r="Z432" s="2"/>
     </row>
     <row r="433" ht="19.5" customHeight="1">
       <c r="A433" s="2"/>
@@ -12965,7 +12529,6 @@
       <c r="W433" s="2"/>
       <c r="X433" s="2"/>
       <c r="Y433" s="2"/>
-      <c r="Z433" s="2"/>
     </row>
     <row r="434" ht="19.5" customHeight="1">
       <c r="A434" s="2"/>
@@ -12993,7 +12556,6 @@
       <c r="W434" s="2"/>
       <c r="X434" s="2"/>
       <c r="Y434" s="2"/>
-      <c r="Z434" s="2"/>
     </row>
     <row r="435" ht="19.5" customHeight="1">
       <c r="A435" s="2"/>
@@ -13021,7 +12583,6 @@
       <c r="W435" s="2"/>
       <c r="X435" s="2"/>
       <c r="Y435" s="2"/>
-      <c r="Z435" s="2"/>
     </row>
     <row r="436" ht="19.5" customHeight="1">
       <c r="A436" s="2"/>
@@ -13049,7 +12610,6 @@
       <c r="W436" s="2"/>
       <c r="X436" s="2"/>
       <c r="Y436" s="2"/>
-      <c r="Z436" s="2"/>
     </row>
     <row r="437" ht="19.5" customHeight="1">
       <c r="A437" s="2"/>
@@ -13077,7 +12637,6 @@
       <c r="W437" s="2"/>
       <c r="X437" s="2"/>
       <c r="Y437" s="2"/>
-      <c r="Z437" s="2"/>
     </row>
     <row r="438" ht="19.5" customHeight="1">
       <c r="A438" s="2"/>
@@ -13105,7 +12664,6 @@
       <c r="W438" s="2"/>
       <c r="X438" s="2"/>
       <c r="Y438" s="2"/>
-      <c r="Z438" s="2"/>
     </row>
     <row r="439" ht="19.5" customHeight="1">
       <c r="A439" s="2"/>
@@ -13133,7 +12691,6 @@
       <c r="W439" s="2"/>
       <c r="X439" s="2"/>
       <c r="Y439" s="2"/>
-      <c r="Z439" s="2"/>
     </row>
     <row r="440" ht="19.5" customHeight="1">
       <c r="A440" s="2"/>
@@ -13161,7 +12718,6 @@
       <c r="W440" s="2"/>
       <c r="X440" s="2"/>
       <c r="Y440" s="2"/>
-      <c r="Z440" s="2"/>
     </row>
     <row r="441" ht="19.5" customHeight="1">
       <c r="A441" s="2"/>
@@ -13189,7 +12745,6 @@
       <c r="W441" s="2"/>
       <c r="X441" s="2"/>
       <c r="Y441" s="2"/>
-      <c r="Z441" s="2"/>
     </row>
     <row r="442" ht="19.5" customHeight="1">
       <c r="A442" s="2"/>
@@ -13217,7 +12772,6 @@
       <c r="W442" s="2"/>
       <c r="X442" s="2"/>
       <c r="Y442" s="2"/>
-      <c r="Z442" s="2"/>
     </row>
     <row r="443" ht="19.5" customHeight="1">
       <c r="A443" s="2"/>
@@ -13245,7 +12799,6 @@
       <c r="W443" s="2"/>
       <c r="X443" s="2"/>
       <c r="Y443" s="2"/>
-      <c r="Z443" s="2"/>
     </row>
     <row r="444" ht="19.5" customHeight="1">
       <c r="A444" s="2"/>
@@ -13273,7 +12826,6 @@
       <c r="W444" s="2"/>
       <c r="X444" s="2"/>
       <c r="Y444" s="2"/>
-      <c r="Z444" s="2"/>
     </row>
     <row r="445" ht="19.5" customHeight="1">
       <c r="A445" s="2"/>
@@ -13301,7 +12853,6 @@
       <c r="W445" s="2"/>
       <c r="X445" s="2"/>
       <c r="Y445" s="2"/>
-      <c r="Z445" s="2"/>
     </row>
     <row r="446" ht="19.5" customHeight="1">
       <c r="A446" s="2"/>
@@ -13329,7 +12880,6 @@
       <c r="W446" s="2"/>
       <c r="X446" s="2"/>
       <c r="Y446" s="2"/>
-      <c r="Z446" s="2"/>
     </row>
     <row r="447" ht="19.5" customHeight="1">
       <c r="A447" s="2"/>
@@ -13357,7 +12907,6 @@
       <c r="W447" s="2"/>
       <c r="X447" s="2"/>
       <c r="Y447" s="2"/>
-      <c r="Z447" s="2"/>
     </row>
     <row r="448" ht="19.5" customHeight="1">
       <c r="A448" s="2"/>
@@ -13385,7 +12934,6 @@
       <c r="W448" s="2"/>
       <c r="X448" s="2"/>
       <c r="Y448" s="2"/>
-      <c r="Z448" s="2"/>
     </row>
     <row r="449" ht="19.5" customHeight="1">
       <c r="A449" s="2"/>
@@ -13413,7 +12961,6 @@
       <c r="W449" s="2"/>
       <c r="X449" s="2"/>
       <c r="Y449" s="2"/>
-      <c r="Z449" s="2"/>
     </row>
     <row r="450" ht="19.5" customHeight="1">
       <c r="A450" s="2"/>
@@ -13441,7 +12988,6 @@
       <c r="W450" s="2"/>
       <c r="X450" s="2"/>
       <c r="Y450" s="2"/>
-      <c r="Z450" s="2"/>
     </row>
     <row r="451" ht="19.5" customHeight="1">
       <c r="A451" s="2"/>
@@ -13469,7 +13015,6 @@
       <c r="W451" s="2"/>
       <c r="X451" s="2"/>
       <c r="Y451" s="2"/>
-      <c r="Z451" s="2"/>
     </row>
     <row r="452" ht="19.5" customHeight="1">
       <c r="A452" s="2"/>
@@ -13497,7 +13042,6 @@
       <c r="W452" s="2"/>
       <c r="X452" s="2"/>
       <c r="Y452" s="2"/>
-      <c r="Z452" s="2"/>
     </row>
     <row r="453" ht="19.5" customHeight="1">
       <c r="A453" s="2"/>
@@ -13525,7 +13069,6 @@
       <c r="W453" s="2"/>
       <c r="X453" s="2"/>
       <c r="Y453" s="2"/>
-      <c r="Z453" s="2"/>
     </row>
     <row r="454" ht="19.5" customHeight="1">
       <c r="A454" s="2"/>
@@ -13553,7 +13096,6 @@
       <c r="W454" s="2"/>
       <c r="X454" s="2"/>
       <c r="Y454" s="2"/>
-      <c r="Z454" s="2"/>
     </row>
     <row r="455" ht="19.5" customHeight="1">
       <c r="A455" s="2"/>
@@ -13581,7 +13123,6 @@
       <c r="W455" s="2"/>
       <c r="X455" s="2"/>
       <c r="Y455" s="2"/>
-      <c r="Z455" s="2"/>
     </row>
     <row r="456" ht="19.5" customHeight="1">
       <c r="A456" s="2"/>
@@ -13609,7 +13150,6 @@
       <c r="W456" s="2"/>
       <c r="X456" s="2"/>
       <c r="Y456" s="2"/>
-      <c r="Z456" s="2"/>
     </row>
     <row r="457" ht="19.5" customHeight="1">
       <c r="A457" s="2"/>
@@ -13637,7 +13177,6 @@
       <c r="W457" s="2"/>
       <c r="X457" s="2"/>
       <c r="Y457" s="2"/>
-      <c r="Z457" s="2"/>
     </row>
     <row r="458" ht="19.5" customHeight="1">
       <c r="A458" s="2"/>
@@ -13665,7 +13204,6 @@
       <c r="W458" s="2"/>
       <c r="X458" s="2"/>
       <c r="Y458" s="2"/>
-      <c r="Z458" s="2"/>
     </row>
     <row r="459" ht="19.5" customHeight="1">
       <c r="A459" s="2"/>
@@ -13693,7 +13231,6 @@
       <c r="W459" s="2"/>
       <c r="X459" s="2"/>
       <c r="Y459" s="2"/>
-      <c r="Z459" s="2"/>
     </row>
     <row r="460" ht="19.5" customHeight="1">
       <c r="A460" s="2"/>
@@ -13721,7 +13258,6 @@
       <c r="W460" s="2"/>
       <c r="X460" s="2"/>
       <c r="Y460" s="2"/>
-      <c r="Z460" s="2"/>
     </row>
     <row r="461" ht="19.5" customHeight="1">
       <c r="A461" s="2"/>
@@ -13749,7 +13285,6 @@
       <c r="W461" s="2"/>
       <c r="X461" s="2"/>
       <c r="Y461" s="2"/>
-      <c r="Z461" s="2"/>
     </row>
     <row r="462" ht="19.5" customHeight="1">
       <c r="A462" s="2"/>
@@ -13777,7 +13312,6 @@
       <c r="W462" s="2"/>
       <c r="X462" s="2"/>
       <c r="Y462" s="2"/>
-      <c r="Z462" s="2"/>
     </row>
     <row r="463" ht="19.5" customHeight="1">
       <c r="A463" s="2"/>
@@ -13805,7 +13339,6 @@
       <c r="W463" s="2"/>
       <c r="X463" s="2"/>
       <c r="Y463" s="2"/>
-      <c r="Z463" s="2"/>
     </row>
     <row r="464" ht="19.5" customHeight="1">
       <c r="A464" s="2"/>
@@ -13833,7 +13366,6 @@
       <c r="W464" s="2"/>
       <c r="X464" s="2"/>
       <c r="Y464" s="2"/>
-      <c r="Z464" s="2"/>
     </row>
     <row r="465" ht="19.5" customHeight="1">
       <c r="A465" s="2"/>
@@ -13861,7 +13393,6 @@
       <c r="W465" s="2"/>
       <c r="X465" s="2"/>
       <c r="Y465" s="2"/>
-      <c r="Z465" s="2"/>
     </row>
     <row r="466" ht="19.5" customHeight="1">
       <c r="A466" s="2"/>
@@ -13889,7 +13420,6 @@
       <c r="W466" s="2"/>
       <c r="X466" s="2"/>
       <c r="Y466" s="2"/>
-      <c r="Z466" s="2"/>
     </row>
     <row r="467" ht="19.5" customHeight="1">
       <c r="A467" s="2"/>
@@ -13917,7 +13447,6 @@
       <c r="W467" s="2"/>
       <c r="X467" s="2"/>
       <c r="Y467" s="2"/>
-      <c r="Z467" s="2"/>
     </row>
     <row r="468" ht="19.5" customHeight="1">
       <c r="A468" s="2"/>
@@ -13945,7 +13474,6 @@
       <c r="W468" s="2"/>
       <c r="X468" s="2"/>
       <c r="Y468" s="2"/>
-      <c r="Z468" s="2"/>
     </row>
     <row r="469" ht="19.5" customHeight="1">
       <c r="A469" s="2"/>
@@ -13973,7 +13501,6 @@
       <c r="W469" s="2"/>
       <c r="X469" s="2"/>
       <c r="Y469" s="2"/>
-      <c r="Z469" s="2"/>
     </row>
     <row r="470" ht="19.5" customHeight="1">
       <c r="A470" s="2"/>
@@ -14001,7 +13528,6 @@
       <c r="W470" s="2"/>
       <c r="X470" s="2"/>
       <c r="Y470" s="2"/>
-      <c r="Z470" s="2"/>
     </row>
     <row r="471" ht="19.5" customHeight="1">
       <c r="A471" s="2"/>
@@ -14029,7 +13555,6 @@
       <c r="W471" s="2"/>
       <c r="X471" s="2"/>
       <c r="Y471" s="2"/>
-      <c r="Z471" s="2"/>
     </row>
     <row r="472" ht="19.5" customHeight="1">
       <c r="A472" s="2"/>
@@ -14057,7 +13582,6 @@
       <c r="W472" s="2"/>
       <c r="X472" s="2"/>
       <c r="Y472" s="2"/>
-      <c r="Z472" s="2"/>
     </row>
     <row r="473" ht="19.5" customHeight="1">
       <c r="A473" s="2"/>
@@ -14085,7 +13609,6 @@
       <c r="W473" s="2"/>
       <c r="X473" s="2"/>
       <c r="Y473" s="2"/>
-      <c r="Z473" s="2"/>
     </row>
     <row r="474" ht="19.5" customHeight="1">
       <c r="A474" s="2"/>
@@ -14113,7 +13636,6 @@
       <c r="W474" s="2"/>
       <c r="X474" s="2"/>
       <c r="Y474" s="2"/>
-      <c r="Z474" s="2"/>
     </row>
     <row r="475" ht="19.5" customHeight="1">
       <c r="A475" s="2"/>
@@ -14141,7 +13663,6 @@
       <c r="W475" s="2"/>
       <c r="X475" s="2"/>
       <c r="Y475" s="2"/>
-      <c r="Z475" s="2"/>
     </row>
     <row r="476" ht="19.5" customHeight="1">
       <c r="A476" s="2"/>
@@ -14169,7 +13690,6 @@
       <c r="W476" s="2"/>
       <c r="X476" s="2"/>
       <c r="Y476" s="2"/>
-      <c r="Z476" s="2"/>
     </row>
     <row r="477" ht="19.5" customHeight="1">
       <c r="A477" s="2"/>
@@ -14197,7 +13717,6 @@
       <c r="W477" s="2"/>
       <c r="X477" s="2"/>
       <c r="Y477" s="2"/>
-      <c r="Z477" s="2"/>
     </row>
     <row r="478" ht="19.5" customHeight="1">
       <c r="A478" s="2"/>
@@ -14225,7 +13744,6 @@
       <c r="W478" s="2"/>
       <c r="X478" s="2"/>
       <c r="Y478" s="2"/>
-      <c r="Z478" s="2"/>
     </row>
     <row r="479" ht="19.5" customHeight="1">
       <c r="A479" s="2"/>
@@ -14253,7 +13771,6 @@
       <c r="W479" s="2"/>
       <c r="X479" s="2"/>
       <c r="Y479" s="2"/>
-      <c r="Z479" s="2"/>
     </row>
     <row r="480" ht="19.5" customHeight="1">
       <c r="A480" s="2"/>
@@ -14281,7 +13798,6 @@
       <c r="W480" s="2"/>
       <c r="X480" s="2"/>
       <c r="Y480" s="2"/>
-      <c r="Z480" s="2"/>
     </row>
     <row r="481" ht="19.5" customHeight="1">
       <c r="A481" s="2"/>
@@ -14309,7 +13825,6 @@
       <c r="W481" s="2"/>
       <c r="X481" s="2"/>
       <c r="Y481" s="2"/>
-      <c r="Z481" s="2"/>
     </row>
     <row r="482" ht="19.5" customHeight="1">
       <c r="A482" s="2"/>
@@ -14337,7 +13852,6 @@
       <c r="W482" s="2"/>
       <c r="X482" s="2"/>
       <c r="Y482" s="2"/>
-      <c r="Z482" s="2"/>
     </row>
     <row r="483" ht="19.5" customHeight="1">
       <c r="A483" s="2"/>
@@ -14365,7 +13879,6 @@
       <c r="W483" s="2"/>
       <c r="X483" s="2"/>
       <c r="Y483" s="2"/>
-      <c r="Z483" s="2"/>
     </row>
     <row r="484" ht="19.5" customHeight="1">
       <c r="A484" s="2"/>
@@ -14393,7 +13906,6 @@
       <c r="W484" s="2"/>
       <c r="X484" s="2"/>
       <c r="Y484" s="2"/>
-      <c r="Z484" s="2"/>
     </row>
     <row r="485" ht="19.5" customHeight="1">
       <c r="A485" s="2"/>
@@ -14421,7 +13933,6 @@
       <c r="W485" s="2"/>
       <c r="X485" s="2"/>
       <c r="Y485" s="2"/>
-      <c r="Z485" s="2"/>
     </row>
     <row r="486" ht="19.5" customHeight="1">
       <c r="A486" s="2"/>
@@ -14449,7 +13960,6 @@
       <c r="W486" s="2"/>
       <c r="X486" s="2"/>
       <c r="Y486" s="2"/>
-      <c r="Z486" s="2"/>
     </row>
     <row r="487" ht="19.5" customHeight="1">
       <c r="A487" s="2"/>
@@ -14477,7 +13987,6 @@
       <c r="W487" s="2"/>
       <c r="X487" s="2"/>
       <c r="Y487" s="2"/>
-      <c r="Z487" s="2"/>
     </row>
     <row r="488" ht="19.5" customHeight="1">
       <c r="A488" s="2"/>
@@ -14505,7 +14014,6 @@
       <c r="W488" s="2"/>
       <c r="X488" s="2"/>
       <c r="Y488" s="2"/>
-      <c r="Z488" s="2"/>
     </row>
     <row r="489" ht="19.5" customHeight="1">
       <c r="A489" s="2"/>
@@ -14533,7 +14041,6 @@
       <c r="W489" s="2"/>
       <c r="X489" s="2"/>
       <c r="Y489" s="2"/>
-      <c r="Z489" s="2"/>
     </row>
     <row r="490" ht="19.5" customHeight="1">
       <c r="A490" s="2"/>
@@ -14561,7 +14068,6 @@
       <c r="W490" s="2"/>
       <c r="X490" s="2"/>
       <c r="Y490" s="2"/>
-      <c r="Z490" s="2"/>
     </row>
     <row r="491" ht="19.5" customHeight="1">
       <c r="A491" s="2"/>
@@ -14589,7 +14095,6 @@
       <c r="W491" s="2"/>
       <c r="X491" s="2"/>
       <c r="Y491" s="2"/>
-      <c r="Z491" s="2"/>
     </row>
     <row r="492" ht="19.5" customHeight="1">
       <c r="A492" s="2"/>
@@ -14617,7 +14122,6 @@
       <c r="W492" s="2"/>
       <c r="X492" s="2"/>
       <c r="Y492" s="2"/>
-      <c r="Z492" s="2"/>
     </row>
     <row r="493" ht="19.5" customHeight="1">
       <c r="A493" s="2"/>
@@ -14645,7 +14149,6 @@
       <c r="W493" s="2"/>
       <c r="X493" s="2"/>
       <c r="Y493" s="2"/>
-      <c r="Z493" s="2"/>
     </row>
     <row r="494" ht="19.5" customHeight="1">
       <c r="A494" s="2"/>
@@ -14673,7 +14176,6 @@
       <c r="W494" s="2"/>
       <c r="X494" s="2"/>
       <c r="Y494" s="2"/>
-      <c r="Z494" s="2"/>
     </row>
     <row r="495" ht="19.5" customHeight="1">
       <c r="A495" s="2"/>
@@ -14701,7 +14203,6 @@
       <c r="W495" s="2"/>
       <c r="X495" s="2"/>
       <c r="Y495" s="2"/>
-      <c r="Z495" s="2"/>
     </row>
     <row r="496" ht="19.5" customHeight="1">
       <c r="A496" s="2"/>
@@ -14729,7 +14230,6 @@
       <c r="W496" s="2"/>
       <c r="X496" s="2"/>
       <c r="Y496" s="2"/>
-      <c r="Z496" s="2"/>
     </row>
     <row r="497" ht="19.5" customHeight="1">
       <c r="A497" s="2"/>
@@ -14757,7 +14257,6 @@
       <c r="W497" s="2"/>
       <c r="X497" s="2"/>
       <c r="Y497" s="2"/>
-      <c r="Z497" s="2"/>
     </row>
     <row r="498" ht="19.5" customHeight="1">
       <c r="A498" s="2"/>
@@ -14785,7 +14284,6 @@
       <c r="W498" s="2"/>
       <c r="X498" s="2"/>
       <c r="Y498" s="2"/>
-      <c r="Z498" s="2"/>
     </row>
     <row r="499" ht="19.5" customHeight="1">
       <c r="A499" s="2"/>
@@ -14813,7 +14311,6 @@
       <c r="W499" s="2"/>
       <c r="X499" s="2"/>
       <c r="Y499" s="2"/>
-      <c r="Z499" s="2"/>
     </row>
     <row r="500" ht="19.5" customHeight="1">
       <c r="A500" s="2"/>
@@ -14841,7 +14338,6 @@
       <c r="W500" s="2"/>
       <c r="X500" s="2"/>
       <c r="Y500" s="2"/>
-      <c r="Z500" s="2"/>
     </row>
     <row r="501" ht="19.5" customHeight="1">
       <c r="A501" s="2"/>
@@ -14869,7 +14365,6 @@
       <c r="W501" s="2"/>
       <c r="X501" s="2"/>
       <c r="Y501" s="2"/>
-      <c r="Z501" s="2"/>
     </row>
     <row r="502" ht="19.5" customHeight="1">
       <c r="A502" s="2"/>
@@ -14897,7 +14392,6 @@
       <c r="W502" s="2"/>
       <c r="X502" s="2"/>
       <c r="Y502" s="2"/>
-      <c r="Z502" s="2"/>
     </row>
     <row r="503" ht="19.5" customHeight="1">
       <c r="A503" s="2"/>
@@ -14925,7 +14419,6 @@
       <c r="W503" s="2"/>
       <c r="X503" s="2"/>
       <c r="Y503" s="2"/>
-      <c r="Z503" s="2"/>
     </row>
     <row r="504" ht="19.5" customHeight="1">
       <c r="A504" s="2"/>
@@ -14953,7 +14446,6 @@
       <c r="W504" s="2"/>
       <c r="X504" s="2"/>
       <c r="Y504" s="2"/>
-      <c r="Z504" s="2"/>
     </row>
     <row r="505" ht="19.5" customHeight="1">
       <c r="A505" s="2"/>
@@ -14981,7 +14473,6 @@
       <c r="W505" s="2"/>
       <c r="X505" s="2"/>
       <c r="Y505" s="2"/>
-      <c r="Z505" s="2"/>
     </row>
     <row r="506" ht="19.5" customHeight="1">
       <c r="A506" s="2"/>
@@ -15009,7 +14500,6 @@
       <c r="W506" s="2"/>
       <c r="X506" s="2"/>
       <c r="Y506" s="2"/>
-      <c r="Z506" s="2"/>
     </row>
     <row r="507" ht="19.5" customHeight="1">
       <c r="A507" s="2"/>
@@ -15037,7 +14527,6 @@
       <c r="W507" s="2"/>
       <c r="X507" s="2"/>
       <c r="Y507" s="2"/>
-      <c r="Z507" s="2"/>
     </row>
     <row r="508" ht="19.5" customHeight="1">
       <c r="A508" s="2"/>
@@ -15065,7 +14554,6 @@
       <c r="W508" s="2"/>
       <c r="X508" s="2"/>
       <c r="Y508" s="2"/>
-      <c r="Z508" s="2"/>
     </row>
     <row r="509" ht="19.5" customHeight="1">
       <c r="A509" s="2"/>
@@ -15093,7 +14581,6 @@
       <c r="W509" s="2"/>
       <c r="X509" s="2"/>
       <c r="Y509" s="2"/>
-      <c r="Z509" s="2"/>
     </row>
     <row r="510" ht="19.5" customHeight="1">
       <c r="A510" s="2"/>
@@ -15121,7 +14608,6 @@
       <c r="W510" s="2"/>
       <c r="X510" s="2"/>
       <c r="Y510" s="2"/>
-      <c r="Z510" s="2"/>
     </row>
     <row r="511" ht="19.5" customHeight="1">
       <c r="A511" s="2"/>
@@ -15149,7 +14635,6 @@
       <c r="W511" s="2"/>
       <c r="X511" s="2"/>
       <c r="Y511" s="2"/>
-      <c r="Z511" s="2"/>
     </row>
     <row r="512" ht="19.5" customHeight="1">
       <c r="A512" s="2"/>
@@ -15177,7 +14662,6 @@
       <c r="W512" s="2"/>
       <c r="X512" s="2"/>
       <c r="Y512" s="2"/>
-      <c r="Z512" s="2"/>
     </row>
     <row r="513" ht="19.5" customHeight="1">
       <c r="A513" s="2"/>
@@ -15205,7 +14689,6 @@
       <c r="W513" s="2"/>
       <c r="X513" s="2"/>
       <c r="Y513" s="2"/>
-      <c r="Z513" s="2"/>
     </row>
     <row r="514" ht="19.5" customHeight="1">
       <c r="A514" s="2"/>
@@ -15233,7 +14716,6 @@
       <c r="W514" s="2"/>
       <c r="X514" s="2"/>
       <c r="Y514" s="2"/>
-      <c r="Z514" s="2"/>
     </row>
     <row r="515" ht="19.5" customHeight="1">
       <c r="A515" s="2"/>
@@ -15261,7 +14743,6 @@
       <c r="W515" s="2"/>
       <c r="X515" s="2"/>
       <c r="Y515" s="2"/>
-      <c r="Z515" s="2"/>
     </row>
     <row r="516" ht="19.5" customHeight="1">
       <c r="A516" s="2"/>
@@ -15289,7 +14770,6 @@
       <c r="W516" s="2"/>
       <c r="X516" s="2"/>
       <c r="Y516" s="2"/>
-      <c r="Z516" s="2"/>
     </row>
     <row r="517" ht="19.5" customHeight="1">
       <c r="A517" s="2"/>
@@ -15317,7 +14797,6 @@
       <c r="W517" s="2"/>
       <c r="X517" s="2"/>
       <c r="Y517" s="2"/>
-      <c r="Z517" s="2"/>
     </row>
     <row r="518" ht="19.5" customHeight="1">
       <c r="A518" s="2"/>
@@ -15345,7 +14824,6 @@
       <c r="W518" s="2"/>
       <c r="X518" s="2"/>
       <c r="Y518" s="2"/>
-      <c r="Z518" s="2"/>
     </row>
     <row r="519" ht="19.5" customHeight="1">
       <c r="A519" s="2"/>
@@ -15373,7 +14851,6 @@
       <c r="W519" s="2"/>
       <c r="X519" s="2"/>
       <c r="Y519" s="2"/>
-      <c r="Z519" s="2"/>
     </row>
     <row r="520" ht="19.5" customHeight="1">
       <c r="A520" s="2"/>
@@ -15401,7 +14878,6 @@
       <c r="W520" s="2"/>
       <c r="X520" s="2"/>
       <c r="Y520" s="2"/>
-      <c r="Z520" s="2"/>
     </row>
     <row r="521" ht="19.5" customHeight="1">
       <c r="A521" s="2"/>
@@ -15429,7 +14905,6 @@
       <c r="W521" s="2"/>
       <c r="X521" s="2"/>
       <c r="Y521" s="2"/>
-      <c r="Z521" s="2"/>
     </row>
     <row r="522" ht="19.5" customHeight="1">
       <c r="A522" s="2"/>
@@ -15457,7 +14932,6 @@
       <c r="W522" s="2"/>
       <c r="X522" s="2"/>
       <c r="Y522" s="2"/>
-      <c r="Z522" s="2"/>
     </row>
     <row r="523" ht="19.5" customHeight="1">
       <c r="A523" s="2"/>
@@ -15485,7 +14959,6 @@
       <c r="W523" s="2"/>
       <c r="X523" s="2"/>
       <c r="Y523" s="2"/>
-      <c r="Z523" s="2"/>
     </row>
     <row r="524" ht="19.5" customHeight="1">
       <c r="A524" s="2"/>
@@ -15513,7 +14986,6 @@
       <c r="W524" s="2"/>
       <c r="X524" s="2"/>
       <c r="Y524" s="2"/>
-      <c r="Z524" s="2"/>
     </row>
     <row r="525" ht="19.5" customHeight="1">
       <c r="A525" s="2"/>
@@ -15541,7 +15013,6 @@
       <c r="W525" s="2"/>
       <c r="X525" s="2"/>
       <c r="Y525" s="2"/>
-      <c r="Z525" s="2"/>
     </row>
     <row r="526" ht="19.5" customHeight="1">
       <c r="A526" s="2"/>
@@ -15569,7 +15040,6 @@
       <c r="W526" s="2"/>
       <c r="X526" s="2"/>
       <c r="Y526" s="2"/>
-      <c r="Z526" s="2"/>
     </row>
     <row r="527" ht="19.5" customHeight="1">
       <c r="A527" s="2"/>
@@ -15597,7 +15067,6 @@
       <c r="W527" s="2"/>
       <c r="X527" s="2"/>
       <c r="Y527" s="2"/>
-      <c r="Z527" s="2"/>
     </row>
     <row r="528" ht="19.5" customHeight="1">
       <c r="A528" s="2"/>
@@ -15625,7 +15094,6 @@
       <c r="W528" s="2"/>
       <c r="X528" s="2"/>
       <c r="Y528" s="2"/>
-      <c r="Z528" s="2"/>
     </row>
     <row r="529" ht="19.5" customHeight="1">
       <c r="A529" s="2"/>
@@ -15653,7 +15121,6 @@
       <c r="W529" s="2"/>
       <c r="X529" s="2"/>
       <c r="Y529" s="2"/>
-      <c r="Z529" s="2"/>
     </row>
     <row r="530" ht="19.5" customHeight="1">
       <c r="A530" s="2"/>
@@ -15681,7 +15148,6 @@
       <c r="W530" s="2"/>
       <c r="X530" s="2"/>
       <c r="Y530" s="2"/>
-      <c r="Z530" s="2"/>
     </row>
     <row r="531" ht="19.5" customHeight="1">
       <c r="A531" s="2"/>
@@ -15709,7 +15175,6 @@
       <c r="W531" s="2"/>
       <c r="X531" s="2"/>
       <c r="Y531" s="2"/>
-      <c r="Z531" s="2"/>
     </row>
     <row r="532" ht="19.5" customHeight="1">
       <c r="A532" s="2"/>
@@ -15737,7 +15202,6 @@
       <c r="W532" s="2"/>
       <c r="X532" s="2"/>
       <c r="Y532" s="2"/>
-      <c r="Z532" s="2"/>
     </row>
     <row r="533" ht="19.5" customHeight="1">
       <c r="A533" s="2"/>
@@ -15765,7 +15229,6 @@
       <c r="W533" s="2"/>
       <c r="X533" s="2"/>
       <c r="Y533" s="2"/>
-      <c r="Z533" s="2"/>
     </row>
     <row r="534" ht="19.5" customHeight="1">
       <c r="A534" s="2"/>
@@ -15793,7 +15256,6 @@
       <c r="W534" s="2"/>
       <c r="X534" s="2"/>
       <c r="Y534" s="2"/>
-      <c r="Z534" s="2"/>
     </row>
     <row r="535" ht="19.5" customHeight="1">
       <c r="A535" s="2"/>
@@ -15821,7 +15283,6 @@
       <c r="W535" s="2"/>
       <c r="X535" s="2"/>
       <c r="Y535" s="2"/>
-      <c r="Z535" s="2"/>
     </row>
     <row r="536" ht="19.5" customHeight="1">
       <c r="A536" s="2"/>
@@ -15849,7 +15310,6 @@
       <c r="W536" s="2"/>
       <c r="X536" s="2"/>
       <c r="Y536" s="2"/>
-      <c r="Z536" s="2"/>
     </row>
     <row r="537" ht="19.5" customHeight="1">
       <c r="A537" s="2"/>
@@ -15877,7 +15337,6 @@
       <c r="W537" s="2"/>
       <c r="X537" s="2"/>
       <c r="Y537" s="2"/>
-      <c r="Z537" s="2"/>
     </row>
     <row r="538" ht="19.5" customHeight="1">
       <c r="A538" s="2"/>
@@ -15905,7 +15364,6 @@
       <c r="W538" s="2"/>
       <c r="X538" s="2"/>
       <c r="Y538" s="2"/>
-      <c r="Z538" s="2"/>
     </row>
     <row r="539" ht="19.5" customHeight="1">
       <c r="A539" s="2"/>
@@ -15933,7 +15391,6 @@
       <c r="W539" s="2"/>
       <c r="X539" s="2"/>
       <c r="Y539" s="2"/>
-      <c r="Z539" s="2"/>
     </row>
     <row r="540" ht="19.5" customHeight="1">
       <c r="A540" s="2"/>
@@ -15961,7 +15418,6 @@
       <c r="W540" s="2"/>
       <c r="X540" s="2"/>
       <c r="Y540" s="2"/>
-      <c r="Z540" s="2"/>
     </row>
     <row r="541" ht="19.5" customHeight="1">
       <c r="A541" s="2"/>
@@ -15989,7 +15445,6 @@
       <c r="W541" s="2"/>
       <c r="X541" s="2"/>
       <c r="Y541" s="2"/>
-      <c r="Z541" s="2"/>
     </row>
     <row r="542" ht="19.5" customHeight="1">
       <c r="A542" s="2"/>
@@ -16017,7 +15472,6 @@
       <c r="W542" s="2"/>
       <c r="X542" s="2"/>
       <c r="Y542" s="2"/>
-      <c r="Z542" s="2"/>
     </row>
     <row r="543" ht="19.5" customHeight="1">
       <c r="A543" s="2"/>
@@ -16045,7 +15499,6 @@
       <c r="W543" s="2"/>
       <c r="X543" s="2"/>
       <c r="Y543" s="2"/>
-      <c r="Z543" s="2"/>
     </row>
     <row r="544" ht="19.5" customHeight="1">
       <c r="A544" s="2"/>
@@ -16073,7 +15526,6 @@
       <c r="W544" s="2"/>
       <c r="X544" s="2"/>
       <c r="Y544" s="2"/>
-      <c r="Z544" s="2"/>
     </row>
     <row r="545" ht="19.5" customHeight="1">
       <c r="A545" s="2"/>
@@ -16101,7 +15553,6 @@
       <c r="W545" s="2"/>
       <c r="X545" s="2"/>
       <c r="Y545" s="2"/>
-      <c r="Z545" s="2"/>
     </row>
     <row r="546" ht="19.5" customHeight="1">
       <c r="A546" s="2"/>
@@ -16129,7 +15580,6 @@
       <c r="W546" s="2"/>
       <c r="X546" s="2"/>
       <c r="Y546" s="2"/>
-      <c r="Z546" s="2"/>
     </row>
     <row r="547" ht="19.5" customHeight="1">
       <c r="A547" s="2"/>
@@ -16157,7 +15607,6 @@
       <c r="W547" s="2"/>
       <c r="X547" s="2"/>
       <c r="Y547" s="2"/>
-      <c r="Z547" s="2"/>
     </row>
     <row r="548" ht="19.5" customHeight="1">
       <c r="A548" s="2"/>
@@ -16185,7 +15634,6 @@
       <c r="W548" s="2"/>
       <c r="X548" s="2"/>
       <c r="Y548" s="2"/>
-      <c r="Z548" s="2"/>
     </row>
     <row r="549" ht="19.5" customHeight="1">
       <c r="A549" s="2"/>
@@ -16213,7 +15661,6 @@
       <c r="W549" s="2"/>
       <c r="X549" s="2"/>
       <c r="Y549" s="2"/>
-      <c r="Z549" s="2"/>
     </row>
     <row r="550" ht="19.5" customHeight="1">
       <c r="A550" s="2"/>
@@ -16241,7 +15688,6 @@
       <c r="W550" s="2"/>
       <c r="X550" s="2"/>
       <c r="Y550" s="2"/>
-      <c r="Z550" s="2"/>
     </row>
     <row r="551" ht="19.5" customHeight="1">
       <c r="A551" s="2"/>
@@ -16269,7 +15715,6 @@
       <c r="W551" s="2"/>
       <c r="X551" s="2"/>
       <c r="Y551" s="2"/>
-      <c r="Z551" s="2"/>
     </row>
     <row r="552" ht="19.5" customHeight="1">
       <c r="A552" s="2"/>
@@ -16297,7 +15742,6 @@
       <c r="W552" s="2"/>
       <c r="X552" s="2"/>
       <c r="Y552" s="2"/>
-      <c r="Z552" s="2"/>
     </row>
     <row r="553" ht="19.5" customHeight="1">
       <c r="A553" s="2"/>
@@ -16325,7 +15769,6 @@
       <c r="W553" s="2"/>
       <c r="X553" s="2"/>
       <c r="Y553" s="2"/>
-      <c r="Z553" s="2"/>
     </row>
     <row r="554" ht="19.5" customHeight="1">
       <c r="A554" s="2"/>
@@ -16353,7 +15796,6 @@
       <c r="W554" s="2"/>
       <c r="X554" s="2"/>
       <c r="Y554" s="2"/>
-      <c r="Z554" s="2"/>
     </row>
     <row r="555" ht="19.5" customHeight="1">
       <c r="A555" s="2"/>
@@ -16381,7 +15823,6 @@
       <c r="W555" s="2"/>
       <c r="X555" s="2"/>
       <c r="Y555" s="2"/>
-      <c r="Z555" s="2"/>
     </row>
     <row r="556" ht="19.5" customHeight="1">
       <c r="A556" s="2"/>
@@ -16409,7 +15850,6 @@
       <c r="W556" s="2"/>
       <c r="X556" s="2"/>
       <c r="Y556" s="2"/>
-      <c r="Z556" s="2"/>
     </row>
     <row r="557" ht="19.5" customHeight="1">
       <c r="A557" s="2"/>
@@ -16437,7 +15877,6 @@
       <c r="W557" s="2"/>
       <c r="X557" s="2"/>
       <c r="Y557" s="2"/>
-      <c r="Z557" s="2"/>
     </row>
     <row r="558" ht="19.5" customHeight="1">
       <c r="A558" s="2"/>
@@ -16465,7 +15904,6 @@
       <c r="W558" s="2"/>
       <c r="X558" s="2"/>
       <c r="Y558" s="2"/>
-      <c r="Z558" s="2"/>
     </row>
     <row r="559" ht="19.5" customHeight="1">
       <c r="A559" s="2"/>
@@ -16493,7 +15931,6 @@
       <c r="W559" s="2"/>
       <c r="X559" s="2"/>
       <c r="Y559" s="2"/>
-      <c r="Z559" s="2"/>
     </row>
     <row r="560" ht="19.5" customHeight="1">
       <c r="A560" s="2"/>
@@ -16521,7 +15958,6 @@
       <c r="W560" s="2"/>
       <c r="X560" s="2"/>
       <c r="Y560" s="2"/>
-      <c r="Z560" s="2"/>
     </row>
     <row r="561" ht="19.5" customHeight="1">
       <c r="A561" s="2"/>
@@ -16549,7 +15985,6 @@
       <c r="W561" s="2"/>
       <c r="X561" s="2"/>
       <c r="Y561" s="2"/>
-      <c r="Z561" s="2"/>
     </row>
     <row r="562" ht="19.5" customHeight="1">
       <c r="A562" s="2"/>
@@ -16577,7 +16012,6 @@
       <c r="W562" s="2"/>
       <c r="X562" s="2"/>
       <c r="Y562" s="2"/>
-      <c r="Z562" s="2"/>
     </row>
     <row r="563" ht="19.5" customHeight="1">
       <c r="A563" s="2"/>
@@ -16605,7 +16039,6 @@
       <c r="W563" s="2"/>
       <c r="X563" s="2"/>
       <c r="Y563" s="2"/>
-      <c r="Z563" s="2"/>
     </row>
     <row r="564" ht="19.5" customHeight="1">
       <c r="A564" s="2"/>
@@ -16633,7 +16066,6 @@
       <c r="W564" s="2"/>
       <c r="X564" s="2"/>
       <c r="Y564" s="2"/>
-      <c r="Z564" s="2"/>
     </row>
     <row r="565" ht="19.5" customHeight="1">
       <c r="A565" s="2"/>
@@ -16661,7 +16093,6 @@
       <c r="W565" s="2"/>
       <c r="X565" s="2"/>
       <c r="Y565" s="2"/>
-      <c r="Z565" s="2"/>
     </row>
     <row r="566" ht="19.5" customHeight="1">
       <c r="A566" s="2"/>
@@ -16689,7 +16120,6 @@
       <c r="W566" s="2"/>
       <c r="X566" s="2"/>
       <c r="Y566" s="2"/>
-      <c r="Z566" s="2"/>
     </row>
     <row r="567" ht="19.5" customHeight="1">
       <c r="A567" s="2"/>
@@ -16717,7 +16147,6 @@
       <c r="W567" s="2"/>
       <c r="X567" s="2"/>
       <c r="Y567" s="2"/>
-      <c r="Z567" s="2"/>
     </row>
     <row r="568" ht="19.5" customHeight="1">
       <c r="A568" s="2"/>
@@ -16745,7 +16174,6 @@
       <c r="W568" s="2"/>
       <c r="X568" s="2"/>
       <c r="Y568" s="2"/>
-      <c r="Z568" s="2"/>
     </row>
     <row r="569" ht="19.5" customHeight="1">
       <c r="A569" s="2"/>
@@ -16773,7 +16201,6 @@
       <c r="W569" s="2"/>
       <c r="X569" s="2"/>
       <c r="Y569" s="2"/>
-      <c r="Z569" s="2"/>
     </row>
     <row r="570" ht="19.5" customHeight="1">
       <c r="A570" s="2"/>
@@ -16801,7 +16228,6 @@
       <c r="W570" s="2"/>
       <c r="X570" s="2"/>
       <c r="Y570" s="2"/>
-      <c r="Z570" s="2"/>
     </row>
     <row r="571" ht="19.5" customHeight="1">
       <c r="A571" s="2"/>
@@ -16829,7 +16255,6 @@
       <c r="W571" s="2"/>
       <c r="X571" s="2"/>
       <c r="Y571" s="2"/>
-      <c r="Z571" s="2"/>
     </row>
     <row r="572" ht="19.5" customHeight="1">
       <c r="A572" s="2"/>
@@ -16857,7 +16282,6 @@
       <c r="W572" s="2"/>
       <c r="X572" s="2"/>
       <c r="Y572" s="2"/>
-      <c r="Z572" s="2"/>
     </row>
     <row r="573" ht="19.5" customHeight="1">
       <c r="A573" s="2"/>
@@ -16885,7 +16309,6 @@
       <c r="W573" s="2"/>
       <c r="X573" s="2"/>
       <c r="Y573" s="2"/>
-      <c r="Z573" s="2"/>
     </row>
     <row r="574" ht="19.5" customHeight="1">
       <c r="A574" s="2"/>
@@ -16913,7 +16336,6 @@
       <c r="W574" s="2"/>
       <c r="X574" s="2"/>
       <c r="Y574" s="2"/>
-      <c r="Z574" s="2"/>
     </row>
     <row r="575" ht="19.5" customHeight="1">
       <c r="A575" s="2"/>
@@ -16941,7 +16363,6 @@
       <c r="W575" s="2"/>
       <c r="X575" s="2"/>
       <c r="Y575" s="2"/>
-      <c r="Z575" s="2"/>
     </row>
     <row r="576" ht="19.5" customHeight="1">
       <c r="A576" s="2"/>
@@ -16969,7 +16390,6 @@
       <c r="W576" s="2"/>
       <c r="X576" s="2"/>
       <c r="Y576" s="2"/>
-      <c r="Z576" s="2"/>
     </row>
     <row r="577" ht="19.5" customHeight="1">
       <c r="A577" s="2"/>
@@ -16997,7 +16417,6 @@
       <c r="W577" s="2"/>
       <c r="X577" s="2"/>
       <c r="Y577" s="2"/>
-      <c r="Z577" s="2"/>
     </row>
     <row r="578" ht="19.5" customHeight="1">
       <c r="A578" s="2"/>
@@ -17025,7 +16444,6 @@
       <c r="W578" s="2"/>
       <c r="X578" s="2"/>
       <c r="Y578" s="2"/>
-      <c r="Z578" s="2"/>
     </row>
     <row r="579" ht="19.5" customHeight="1">
       <c r="A579" s="2"/>
@@ -17053,7 +16471,6 @@
       <c r="W579" s="2"/>
       <c r="X579" s="2"/>
       <c r="Y579" s="2"/>
-      <c r="Z579" s="2"/>
     </row>
     <row r="580" ht="19.5" customHeight="1">
       <c r="A580" s="2"/>
@@ -17081,7 +16498,6 @@
       <c r="W580" s="2"/>
       <c r="X580" s="2"/>
       <c r="Y580" s="2"/>
-      <c r="Z580" s="2"/>
     </row>
     <row r="581" ht="19.5" customHeight="1">
       <c r="A581" s="2"/>
@@ -17109,7 +16525,6 @@
       <c r="W581" s="2"/>
       <c r="X581" s="2"/>
       <c r="Y581" s="2"/>
-      <c r="Z581" s="2"/>
     </row>
     <row r="582" ht="19.5" customHeight="1">
       <c r="A582" s="2"/>
@@ -17137,7 +16552,6 @@
       <c r="W582" s="2"/>
       <c r="X582" s="2"/>
       <c r="Y582" s="2"/>
-      <c r="Z582" s="2"/>
     </row>
     <row r="583" ht="19.5" customHeight="1">
       <c r="A583" s="2"/>
@@ -17165,7 +16579,6 @@
       <c r="W583" s="2"/>
       <c r="X583" s="2"/>
       <c r="Y583" s="2"/>
-      <c r="Z583" s="2"/>
     </row>
     <row r="584" ht="19.5" customHeight="1">
       <c r="A584" s="2"/>
@@ -17193,7 +16606,6 @@
       <c r="W584" s="2"/>
       <c r="X584" s="2"/>
       <c r="Y584" s="2"/>
-      <c r="Z584" s="2"/>
     </row>
     <row r="585" ht="19.5" customHeight="1">
       <c r="A585" s="2"/>
@@ -17221,7 +16633,6 @@
       <c r="W585" s="2"/>
       <c r="X585" s="2"/>
       <c r="Y585" s="2"/>
-      <c r="Z585" s="2"/>
     </row>
     <row r="586" ht="19.5" customHeight="1">
       <c r="A586" s="2"/>
@@ -17249,7 +16660,6 @@
       <c r="W586" s="2"/>
       <c r="X586" s="2"/>
       <c r="Y586" s="2"/>
-      <c r="Z586" s="2"/>
     </row>
     <row r="587" ht="19.5" customHeight="1">
       <c r="A587" s="2"/>
@@ -17277,7 +16687,6 @@
       <c r="W587" s="2"/>
       <c r="X587" s="2"/>
       <c r="Y587" s="2"/>
-      <c r="Z587" s="2"/>
     </row>
     <row r="588" ht="19.5" customHeight="1">
       <c r="A588" s="2"/>
@@ -17305,7 +16714,6 @@
       <c r="W588" s="2"/>
       <c r="X588" s="2"/>
       <c r="Y588" s="2"/>
-      <c r="Z588" s="2"/>
     </row>
     <row r="589" ht="19.5" customHeight="1">
       <c r="A589" s="2"/>
@@ -17333,7 +16741,6 @@
       <c r="W589" s="2"/>
       <c r="X589" s="2"/>
       <c r="Y589" s="2"/>
-      <c r="Z589" s="2"/>
     </row>
     <row r="590" ht="19.5" customHeight="1">
       <c r="A590" s="2"/>
@@ -17361,7 +16768,6 @@
       <c r="W590" s="2"/>
       <c r="X590" s="2"/>
       <c r="Y590" s="2"/>
-      <c r="Z590" s="2"/>
     </row>
     <row r="591" ht="19.5" customHeight="1">
       <c r="A591" s="2"/>
@@ -17389,7 +16795,6 @@
       <c r="W591" s="2"/>
       <c r="X591" s="2"/>
       <c r="Y591" s="2"/>
-      <c r="Z591" s="2"/>
     </row>
     <row r="592" ht="19.5" customHeight="1">
       <c r="A592" s="2"/>
@@ -17417,7 +16822,6 @@
       <c r="W592" s="2"/>
       <c r="X592" s="2"/>
       <c r="Y592" s="2"/>
-      <c r="Z592" s="2"/>
     </row>
     <row r="593" ht="19.5" customHeight="1">
       <c r="A593" s="2"/>
@@ -17445,7 +16849,6 @@
       <c r="W593" s="2"/>
       <c r="X593" s="2"/>
       <c r="Y593" s="2"/>
-      <c r="Z593" s="2"/>
     </row>
     <row r="594" ht="19.5" customHeight="1">
       <c r="A594" s="2"/>
@@ -17473,7 +16876,6 @@
       <c r="W594" s="2"/>
       <c r="X594" s="2"/>
       <c r="Y594" s="2"/>
-      <c r="Z594" s="2"/>
     </row>
     <row r="595" ht="19.5" customHeight="1">
       <c r="A595" s="2"/>
@@ -17501,7 +16903,6 @@
       <c r="W595" s="2"/>
       <c r="X595" s="2"/>
       <c r="Y595" s="2"/>
-      <c r="Z595" s="2"/>
     </row>
     <row r="596" ht="19.5" customHeight="1">
       <c r="A596" s="2"/>
@@ -17529,7 +16930,6 @@
       <c r="W596" s="2"/>
       <c r="X596" s="2"/>
       <c r="Y596" s="2"/>
-      <c r="Z596" s="2"/>
     </row>
     <row r="597" ht="19.5" customHeight="1">
       <c r="A597" s="2"/>
@@ -17557,7 +16957,6 @@
       <c r="W597" s="2"/>
       <c r="X597" s="2"/>
       <c r="Y597" s="2"/>
-      <c r="Z597" s="2"/>
     </row>
     <row r="598" ht="19.5" customHeight="1">
       <c r="A598" s="2"/>
@@ -17585,7 +16984,6 @@
       <c r="W598" s="2"/>
       <c r="X598" s="2"/>
       <c r="Y598" s="2"/>
-      <c r="Z598" s="2"/>
     </row>
     <row r="599" ht="19.5" customHeight="1">
       <c r="A599" s="2"/>
@@ -17613,7 +17011,6 @@
       <c r="W599" s="2"/>
       <c r="X599" s="2"/>
       <c r="Y599" s="2"/>
-      <c r="Z599" s="2"/>
     </row>
     <row r="600" ht="19.5" customHeight="1">
       <c r="A600" s="2"/>
@@ -17641,7 +17038,6 @@
       <c r="W600" s="2"/>
       <c r="X600" s="2"/>
       <c r="Y600" s="2"/>
-      <c r="Z600" s="2"/>
     </row>
     <row r="601" ht="19.5" customHeight="1">
       <c r="A601" s="2"/>
@@ -17669,7 +17065,6 @@
       <c r="W601" s="2"/>
       <c r="X601" s="2"/>
       <c r="Y601" s="2"/>
-      <c r="Z601" s="2"/>
     </row>
     <row r="602" ht="19.5" customHeight="1">
       <c r="A602" s="2"/>
@@ -17697,7 +17092,6 @@
       <c r="W602" s="2"/>
       <c r="X602" s="2"/>
       <c r="Y602" s="2"/>
-      <c r="Z602" s="2"/>
     </row>
     <row r="603" ht="19.5" customHeight="1">
       <c r="A603" s="2"/>
@@ -17725,7 +17119,6 @@
       <c r="W603" s="2"/>
       <c r="X603" s="2"/>
       <c r="Y603" s="2"/>
-      <c r="Z603" s="2"/>
     </row>
     <row r="604" ht="19.5" customHeight="1">
       <c r="A604" s="2"/>
@@ -17753,7 +17146,6 @@
       <c r="W604" s="2"/>
       <c r="X604" s="2"/>
       <c r="Y604" s="2"/>
-      <c r="Z604" s="2"/>
     </row>
     <row r="605" ht="19.5" customHeight="1">
       <c r="A605" s="2"/>
@@ -17781,7 +17173,6 @@
       <c r="W605" s="2"/>
       <c r="X605" s="2"/>
       <c r="Y605" s="2"/>
-      <c r="Z605" s="2"/>
     </row>
     <row r="606" ht="19.5" customHeight="1">
       <c r="A606" s="2"/>
@@ -17809,7 +17200,6 @@
       <c r="W606" s="2"/>
       <c r="X606" s="2"/>
       <c r="Y606" s="2"/>
-      <c r="Z606" s="2"/>
     </row>
     <row r="607" ht="19.5" customHeight="1">
       <c r="A607" s="2"/>
@@ -17837,7 +17227,6 @@
       <c r="W607" s="2"/>
       <c r="X607" s="2"/>
       <c r="Y607" s="2"/>
-      <c r="Z607" s="2"/>
     </row>
     <row r="608" ht="19.5" customHeight="1">
       <c r="A608" s="2"/>
@@ -17865,7 +17254,6 @@
       <c r="W608" s="2"/>
       <c r="X608" s="2"/>
       <c r="Y608" s="2"/>
-      <c r="Z608" s="2"/>
     </row>
     <row r="609" ht="19.5" customHeight="1">
       <c r="A609" s="2"/>
@@ -17893,7 +17281,6 @@
       <c r="W609" s="2"/>
       <c r="X609" s="2"/>
       <c r="Y609" s="2"/>
-      <c r="Z609" s="2"/>
     </row>
     <row r="610" ht="19.5" customHeight="1">
       <c r="A610" s="2"/>
@@ -17921,7 +17308,6 @@
       <c r="W610" s="2"/>
       <c r="X610" s="2"/>
       <c r="Y610" s="2"/>
-      <c r="Z610" s="2"/>
     </row>
     <row r="611" ht="19.5" customHeight="1">
       <c r="A611" s="2"/>
@@ -17949,7 +17335,6 @@
       <c r="W611" s="2"/>
       <c r="X611" s="2"/>
       <c r="Y611" s="2"/>
-      <c r="Z611" s="2"/>
     </row>
     <row r="612" ht="19.5" customHeight="1">
       <c r="A612" s="2"/>
@@ -17977,7 +17362,6 @@
       <c r="W612" s="2"/>
       <c r="X612" s="2"/>
       <c r="Y612" s="2"/>
-      <c r="Z612" s="2"/>
     </row>
     <row r="613" ht="19.5" customHeight="1">
       <c r="A613" s="2"/>
@@ -18005,7 +17389,6 @@
       <c r="W613" s="2"/>
       <c r="X613" s="2"/>
       <c r="Y613" s="2"/>
-      <c r="Z613" s="2"/>
     </row>
     <row r="614" ht="19.5" customHeight="1">
       <c r="A614" s="2"/>
@@ -18033,7 +17416,6 @@
       <c r="W614" s="2"/>
       <c r="X614" s="2"/>
       <c r="Y614" s="2"/>
-      <c r="Z614" s="2"/>
     </row>
     <row r="615" ht="19.5" customHeight="1">
       <c r="A615" s="2"/>
@@ -18061,7 +17443,6 @@
       <c r="W615" s="2"/>
       <c r="X615" s="2"/>
       <c r="Y615" s="2"/>
-      <c r="Z615" s="2"/>
     </row>
     <row r="616" ht="19.5" customHeight="1">
       <c r="A616" s="2"/>
@@ -18089,7 +17470,6 @@
       <c r="W616" s="2"/>
       <c r="X616" s="2"/>
       <c r="Y616" s="2"/>
-      <c r="Z616" s="2"/>
     </row>
     <row r="617" ht="19.5" customHeight="1">
       <c r="A617" s="2"/>
@@ -18117,7 +17497,6 @@
       <c r="W617" s="2"/>
       <c r="X617" s="2"/>
       <c r="Y617" s="2"/>
-      <c r="Z617" s="2"/>
     </row>
     <row r="618" ht="19.5" customHeight="1">
       <c r="A618" s="2"/>
@@ -18145,7 +17524,6 @@
       <c r="W618" s="2"/>
       <c r="X618" s="2"/>
       <c r="Y618" s="2"/>
-      <c r="Z618" s="2"/>
     </row>
     <row r="619" ht="19.5" customHeight="1">
       <c r="A619" s="2"/>
@@ -18173,7 +17551,6 @@
       <c r="W619" s="2"/>
       <c r="X619" s="2"/>
       <c r="Y619" s="2"/>
-      <c r="Z619" s="2"/>
     </row>
     <row r="620" ht="19.5" customHeight="1">
       <c r="A620" s="2"/>
@@ -18201,7 +17578,6 @@
       <c r="W620" s="2"/>
       <c r="X620" s="2"/>
       <c r="Y620" s="2"/>
-      <c r="Z620" s="2"/>
     </row>
     <row r="621" ht="19.5" customHeight="1">
       <c r="A621" s="2"/>
@@ -18229,7 +17605,6 @@
       <c r="W621" s="2"/>
       <c r="X621" s="2"/>
       <c r="Y621" s="2"/>
-      <c r="Z621" s="2"/>
     </row>
     <row r="622" ht="19.5" customHeight="1">
       <c r="A622" s="2"/>
@@ -18257,7 +17632,6 @@
       <c r="W622" s="2"/>
       <c r="X622" s="2"/>
       <c r="Y622" s="2"/>
-      <c r="Z622" s="2"/>
     </row>
     <row r="623" ht="19.5" customHeight="1">
       <c r="A623" s="2"/>
@@ -18285,7 +17659,6 @@
       <c r="W623" s="2"/>
       <c r="X623" s="2"/>
       <c r="Y623" s="2"/>
-      <c r="Z623" s="2"/>
     </row>
     <row r="624" ht="19.5" customHeight="1">
       <c r="A624" s="2"/>
@@ -18313,7 +17686,6 @@
       <c r="W624" s="2"/>
       <c r="X624" s="2"/>
       <c r="Y624" s="2"/>
-      <c r="Z624" s="2"/>
     </row>
     <row r="625" ht="19.5" customHeight="1">
       <c r="A625" s="2"/>
@@ -18341,7 +17713,6 @@
       <c r="W625" s="2"/>
       <c r="X625" s="2"/>
       <c r="Y625" s="2"/>
-      <c r="Z625" s="2"/>
     </row>
     <row r="626" ht="19.5" customHeight="1">
       <c r="A626" s="2"/>
@@ -18369,7 +17740,6 @@
       <c r="W626" s="2"/>
       <c r="X626" s="2"/>
       <c r="Y626" s="2"/>
-      <c r="Z626" s="2"/>
     </row>
     <row r="627" ht="19.5" customHeight="1">
       <c r="A627" s="2"/>
@@ -18397,7 +17767,6 @@
       <c r="W627" s="2"/>
       <c r="X627" s="2"/>
       <c r="Y627" s="2"/>
-      <c r="Z627" s="2"/>
     </row>
     <row r="628" ht="19.5" customHeight="1">
       <c r="A628" s="2"/>
@@ -18425,7 +17794,6 @@
       <c r="W628" s="2"/>
       <c r="X628" s="2"/>
       <c r="Y628" s="2"/>
-      <c r="Z628" s="2"/>
     </row>
     <row r="629" ht="19.5" customHeight="1">
       <c r="A629" s="2"/>
@@ -18453,7 +17821,6 @@
       <c r="W629" s="2"/>
       <c r="X629" s="2"/>
       <c r="Y629" s="2"/>
-      <c r="Z629" s="2"/>
     </row>
     <row r="630" ht="19.5" customHeight="1">
       <c r="A630" s="2"/>
@@ -18481,7 +17848,6 @@
       <c r="W630" s="2"/>
       <c r="X630" s="2"/>
       <c r="Y630" s="2"/>
-      <c r="Z630" s="2"/>
     </row>
     <row r="631" ht="19.5" customHeight="1">
       <c r="A631" s="2"/>
@@ -18509,7 +17875,6 @@
       <c r="W631" s="2"/>
       <c r="X631" s="2"/>
       <c r="Y631" s="2"/>
-      <c r="Z631" s="2"/>
     </row>
     <row r="632" ht="19.5" customHeight="1">
       <c r="A632" s="2"/>
@@ -18537,7 +17902,6 @@
       <c r="W632" s="2"/>
       <c r="X632" s="2"/>
       <c r="Y632" s="2"/>
-      <c r="Z632" s="2"/>
     </row>
     <row r="633" ht="19.5" customHeight="1">
       <c r="A633" s="2"/>
@@ -18565,7 +17929,6 @@
       <c r="W633" s="2"/>
       <c r="X633" s="2"/>
       <c r="Y633" s="2"/>
-      <c r="Z633" s="2"/>
     </row>
     <row r="634" ht="19.5" customHeight="1">
       <c r="A634" s="2"/>
@@ -18593,7 +17956,6 @@
       <c r="W634" s="2"/>
       <c r="X634" s="2"/>
       <c r="Y634" s="2"/>
-      <c r="Z634" s="2"/>
     </row>
     <row r="635" ht="19.5" customHeight="1">
       <c r="A635" s="2"/>
@@ -18621,7 +17983,6 @@
       <c r="W635" s="2"/>
       <c r="X635" s="2"/>
       <c r="Y635" s="2"/>
-      <c r="Z635" s="2"/>
     </row>
     <row r="636" ht="19.5" customHeight="1">
       <c r="A636" s="2"/>
@@ -18649,7 +18010,6 @@
       <c r="W636" s="2"/>
       <c r="X636" s="2"/>
       <c r="Y636" s="2"/>
-      <c r="Z636" s="2"/>
     </row>
     <row r="637" ht="19.5" customHeight="1">
       <c r="A637" s="2"/>
@@ -18677,7 +18037,6 @@
       <c r="W637" s="2"/>
       <c r="X637" s="2"/>
       <c r="Y637" s="2"/>
-      <c r="Z637" s="2"/>
     </row>
     <row r="638" ht="19.5" customHeight="1">
       <c r="A638" s="2"/>
@@ -18705,7 +18064,6 @@
       <c r="W638" s="2"/>
       <c r="X638" s="2"/>
       <c r="Y638" s="2"/>
-      <c r="Z638" s="2"/>
     </row>
     <row r="639" ht="19.5" customHeight="1">
       <c r="A639" s="2"/>
@@ -18733,7 +18091,6 @@
       <c r="W639" s="2"/>
       <c r="X639" s="2"/>
       <c r="Y639" s="2"/>
-      <c r="Z639" s="2"/>
     </row>
     <row r="640" ht="19.5" customHeight="1">
       <c r="A640" s="2"/>
@@ -18761,7 +18118,6 @@
       <c r="W640" s="2"/>
       <c r="X640" s="2"/>
       <c r="Y640" s="2"/>
-      <c r="Z640" s="2"/>
     </row>
     <row r="641" ht="19.5" customHeight="1">
       <c r="A641" s="2"/>
@@ -18789,7 +18145,6 @@
       <c r="W641" s="2"/>
       <c r="X641" s="2"/>
       <c r="Y641" s="2"/>
-      <c r="Z641" s="2"/>
     </row>
     <row r="642" ht="19.5" customHeight="1">
       <c r="A642" s="2"/>
@@ -18817,7 +18172,6 @@
       <c r="W642" s="2"/>
       <c r="X642" s="2"/>
       <c r="Y642" s="2"/>
-      <c r="Z642" s="2"/>
     </row>
     <row r="643" ht="19.5" customHeight="1">
       <c r="A643" s="2"/>
@@ -18845,7 +18199,6 @@
       <c r="W643" s="2"/>
       <c r="X643" s="2"/>
       <c r="Y643" s="2"/>
-      <c r="Z643" s="2"/>
     </row>
     <row r="644" ht="19.5" customHeight="1">
       <c r="A644" s="2"/>
@@ -18873,7 +18226,6 @@
       <c r="W644" s="2"/>
       <c r="X644" s="2"/>
       <c r="Y644" s="2"/>
-      <c r="Z644" s="2"/>
     </row>
     <row r="645" ht="19.5" customHeight="1">
       <c r="A645" s="2"/>
@@ -18901,7 +18253,6 @@
       <c r="W645" s="2"/>
       <c r="X645" s="2"/>
       <c r="Y645" s="2"/>
-      <c r="Z645" s="2"/>
     </row>
     <row r="646" ht="19.5" customHeight="1">
       <c r="A646" s="2"/>
@@ -18929,7 +18280,6 @@
       <c r="W646" s="2"/>
       <c r="X646" s="2"/>
       <c r="Y646" s="2"/>
-      <c r="Z646" s="2"/>
     </row>
     <row r="647" ht="19.5" customHeight="1">
       <c r="A647" s="2"/>
@@ -18957,7 +18307,6 @@
       <c r="W647" s="2"/>
       <c r="X647" s="2"/>
       <c r="Y647" s="2"/>
-      <c r="Z647" s="2"/>
     </row>
     <row r="648" ht="19.5" customHeight="1">
       <c r="A648" s="2"/>
@@ -18985,7 +18334,6 @@
       <c r="W648" s="2"/>
       <c r="X648" s="2"/>
       <c r="Y648" s="2"/>
-      <c r="Z648" s="2"/>
     </row>
     <row r="649" ht="19.5" customHeight="1">
       <c r="A649" s="2"/>
@@ -19013,7 +18361,6 @@
       <c r="W649" s="2"/>
       <c r="X649" s="2"/>
       <c r="Y649" s="2"/>
-      <c r="Z649" s="2"/>
     </row>
     <row r="650" ht="19.5" customHeight="1">
       <c r="A650" s="2"/>
@@ -19041,7 +18388,6 @@
       <c r="W650" s="2"/>
       <c r="X650" s="2"/>
       <c r="Y650" s="2"/>
-      <c r="Z650" s="2"/>
     </row>
     <row r="651" ht="19.5" customHeight="1">
       <c r="A651" s="2"/>
@@ -19069,7 +18415,6 @@
       <c r="W651" s="2"/>
       <c r="X651" s="2"/>
       <c r="Y651" s="2"/>
-      <c r="Z651" s="2"/>
     </row>
     <row r="652" ht="19.5" customHeight="1">
       <c r="A652" s="2"/>
@@ -19097,7 +18442,6 @@
       <c r="W652" s="2"/>
       <c r="X652" s="2"/>
       <c r="Y652" s="2"/>
-      <c r="Z652" s="2"/>
     </row>
     <row r="653" ht="19.5" customHeight="1">
       <c r="A653" s="2"/>
@@ -19125,7 +18469,6 @@
       <c r="W653" s="2"/>
       <c r="X653" s="2"/>
       <c r="Y653" s="2"/>
-      <c r="Z653" s="2"/>
     </row>
     <row r="654" ht="19.5" customHeight="1">
       <c r="A654" s="2"/>
@@ -19153,7 +18496,6 @@
       <c r="W654" s="2"/>
       <c r="X654" s="2"/>
       <c r="Y654" s="2"/>
-      <c r="Z654" s="2"/>
     </row>
     <row r="655" ht="19.5" customHeight="1">
       <c r="A655" s="2"/>
@@ -19181,7 +18523,6 @@
       <c r="W655" s="2"/>
       <c r="X655" s="2"/>
       <c r="Y655" s="2"/>
-      <c r="Z655" s="2"/>
     </row>
     <row r="656" ht="19.5" customHeight="1">
       <c r="A656" s="2"/>
@@ -19209,7 +18550,6 @@
       <c r="W656" s="2"/>
       <c r="X656" s="2"/>
       <c r="Y656" s="2"/>
-      <c r="Z656" s="2"/>
     </row>
     <row r="657" ht="19.5" customHeight="1">
       <c r="A657" s="2"/>
@@ -19237,7 +18577,6 @@
       <c r="W657" s="2"/>
       <c r="X657" s="2"/>
       <c r="Y657" s="2"/>
-      <c r="Z657" s="2"/>
     </row>
     <row r="658" ht="19.5" customHeight="1">
       <c r="A658" s="2"/>
@@ -19265,7 +18604,6 @@
       <c r="W658" s="2"/>
       <c r="X658" s="2"/>
       <c r="Y658" s="2"/>
-      <c r="Z658" s="2"/>
     </row>
     <row r="659" ht="19.5" customHeight="1">
       <c r="A659" s="2"/>
@@ -19293,7 +18631,6 @@
       <c r="W659" s="2"/>
       <c r="X659" s="2"/>
       <c r="Y659" s="2"/>
-      <c r="Z659" s="2"/>
     </row>
     <row r="660" ht="19.5" customHeight="1">
       <c r="A660" s="2"/>
@@ -19321,7 +18658,6 @@
       <c r="W660" s="2"/>
       <c r="X660" s="2"/>
       <c r="Y660" s="2"/>
-      <c r="Z660" s="2"/>
     </row>
     <row r="661" ht="19.5" customHeight="1">
       <c r="A661" s="2"/>
@@ -19349,7 +18685,6 @@
       <c r="W661" s="2"/>
       <c r="X661" s="2"/>
       <c r="Y661" s="2"/>
-      <c r="Z661" s="2"/>
     </row>
     <row r="662" ht="19.5" customHeight="1">
       <c r="A662" s="2"/>
@@ -19377,7 +18712,6 @@
       <c r="W662" s="2"/>
       <c r="X662" s="2"/>
       <c r="Y662" s="2"/>
-      <c r="Z662" s="2"/>
     </row>
     <row r="663" ht="19.5" customHeight="1">
       <c r="A663" s="2"/>
@@ -19405,7 +18739,6 @@
       <c r="W663" s="2"/>
       <c r="X663" s="2"/>
       <c r="Y663" s="2"/>
-      <c r="Z663" s="2"/>
     </row>
     <row r="664" ht="19.5" customHeight="1">
       <c r="A664" s="2"/>
@@ -19433,7 +18766,6 @@
       <c r="W664" s="2"/>
       <c r="X664" s="2"/>
       <c r="Y664" s="2"/>
-      <c r="Z664" s="2"/>
     </row>
     <row r="665" ht="19.5" customHeight="1">
       <c r="A665" s="2"/>
@@ -19461,7 +18793,6 @@
       <c r="W665" s="2"/>
       <c r="X665" s="2"/>
       <c r="Y665" s="2"/>
-      <c r="Z665" s="2"/>
     </row>
     <row r="666" ht="19.5" customHeight="1">
       <c r="A666" s="2"/>
@@ -19489,7 +18820,6 @@
       <c r="W666" s="2"/>
       <c r="X666" s="2"/>
       <c r="Y666" s="2"/>
-      <c r="Z666" s="2"/>
     </row>
     <row r="667" ht="19.5" customHeight="1">
       <c r="A667" s="2"/>
@@ -19517,7 +18847,6 @@
       <c r="W667" s="2"/>
       <c r="X667" s="2"/>
       <c r="Y667" s="2"/>
-      <c r="Z667" s="2"/>
     </row>
     <row r="668" ht="19.5" customHeight="1">
       <c r="A668" s="2"/>
@@ -19545,7 +18874,6 @@
       <c r="W668" s="2"/>
       <c r="X668" s="2"/>
       <c r="Y668" s="2"/>
-      <c r="Z668" s="2"/>
     </row>
     <row r="669" ht="19.5" customHeight="1">
       <c r="A669" s="2"/>
@@ -19573,7 +18901,6 @@
       <c r="W669" s="2"/>
       <c r="X669" s="2"/>
       <c r="Y669" s="2"/>
-      <c r="Z669" s="2"/>
     </row>
     <row r="670" ht="19.5" customHeight="1">
       <c r="A670" s="2"/>
@@ -19601,7 +18928,6 @@
       <c r="W670" s="2"/>
       <c r="X670" s="2"/>
       <c r="Y670" s="2"/>
-      <c r="Z670" s="2"/>
     </row>
     <row r="671" ht="19.5" customHeight="1">
       <c r="A671" s="2"/>
@@ -19629,7 +18955,6 @@
       <c r="W671" s="2"/>
       <c r="X671" s="2"/>
       <c r="Y671" s="2"/>
-      <c r="Z671" s="2"/>
     </row>
     <row r="672" ht="19.5" customHeight="1">
       <c r="A672" s="2"/>
@@ -19657,7 +18982,6 @@
       <c r="W672" s="2"/>
       <c r="X672" s="2"/>
       <c r="Y672" s="2"/>
-      <c r="Z672" s="2"/>
     </row>
     <row r="673" ht="19.5" customHeight="1">
       <c r="A673" s="2"/>
@@ -19685,7 +19009,6 @@
       <c r="W673" s="2"/>
       <c r="X673" s="2"/>
       <c r="Y673" s="2"/>
-      <c r="Z673" s="2"/>
     </row>
     <row r="674" ht="19.5" customHeight="1">
       <c r="A674" s="2"/>
@@ -19713,7 +19036,6 @@
       <c r="W674" s="2"/>
       <c r="X674" s="2"/>
       <c r="Y674" s="2"/>
-      <c r="Z674" s="2"/>
     </row>
     <row r="675" ht="19.5" customHeight="1">
       <c r="A675" s="2"/>
@@ -19741,7 +19063,6 @@
       <c r="W675" s="2"/>
       <c r="X675" s="2"/>
       <c r="Y675" s="2"/>
-      <c r="Z675" s="2"/>
     </row>
     <row r="676" ht="19.5" customHeight="1">
       <c r="A676" s="2"/>
@@ -19769,7 +19090,6 @@
       <c r="W676" s="2"/>
       <c r="X676" s="2"/>
       <c r="Y676" s="2"/>
-      <c r="Z676" s="2"/>
     </row>
     <row r="677" ht="19.5" customHeight="1">
       <c r="A677" s="2"/>
@@ -19797,7 +19117,6 @@
       <c r="W677" s="2"/>
       <c r="X677" s="2"/>
       <c r="Y677" s="2"/>
-      <c r="Z677" s="2"/>
     </row>
     <row r="678" ht="19.5" customHeight="1">
       <c r="A678" s="2"/>
@@ -19825,7 +19144,6 @@
       <c r="W678" s="2"/>
       <c r="X678" s="2"/>
       <c r="Y678" s="2"/>
-      <c r="Z678" s="2"/>
     </row>
     <row r="679" ht="19.5" customHeight="1">
       <c r="A679" s="2"/>
@@ -19853,7 +19171,6 @@
       <c r="W679" s="2"/>
       <c r="X679" s="2"/>
       <c r="Y679" s="2"/>
-      <c r="Z679" s="2"/>
     </row>
     <row r="680" ht="19.5" customHeight="1">
       <c r="A680" s="2"/>
@@ -19881,7 +19198,6 @@
       <c r="W680" s="2"/>
       <c r="X680" s="2"/>
       <c r="Y680" s="2"/>
-      <c r="Z680" s="2"/>
     </row>
     <row r="681" ht="19.5" customHeight="1">
       <c r="A681" s="2"/>
@@ -19909,7 +19225,6 @@
       <c r="W681" s="2"/>
       <c r="X681" s="2"/>
       <c r="Y681" s="2"/>
-      <c r="Z681" s="2"/>
     </row>
     <row r="682" ht="19.5" customHeight="1">
       <c r="A682" s="2"/>
@@ -19937,7 +19252,6 @@
       <c r="W682" s="2"/>
       <c r="X682" s="2"/>
       <c r="Y682" s="2"/>
-      <c r="Z682" s="2"/>
     </row>
     <row r="683" ht="19.5" customHeight="1">
       <c r="A683" s="2"/>
@@ -19965,7 +19279,6 @@
       <c r="W683" s="2"/>
       <c r="X683" s="2"/>
       <c r="Y683" s="2"/>
-      <c r="Z683" s="2"/>
     </row>
     <row r="684" ht="19.5" customHeight="1">
       <c r="A684" s="2"/>
@@ -19993,7 +19306,6 @@
       <c r="W684" s="2"/>
       <c r="X684" s="2"/>
       <c r="Y684" s="2"/>
-      <c r="Z684" s="2"/>
     </row>
     <row r="685" ht="19.5" customHeight="1">
       <c r="A685" s="2"/>
@@ -20021,7 +19333,6 @@
       <c r="W685" s="2"/>
       <c r="X685" s="2"/>
       <c r="Y685" s="2"/>
-      <c r="Z685" s="2"/>
     </row>
     <row r="686" ht="19.5" customHeight="1">
       <c r="A686" s="2"/>
@@ -20049,7 +19360,6 @@
       <c r="W686" s="2"/>
       <c r="X686" s="2"/>
       <c r="Y686" s="2"/>
-      <c r="Z686" s="2"/>
     </row>
     <row r="687" ht="19.5" customHeight="1">
       <c r="A687" s="2"/>
@@ -20077,7 +19387,6 @@
       <c r="W687" s="2"/>
       <c r="X687" s="2"/>
       <c r="Y687" s="2"/>
-      <c r="Z687" s="2"/>
     </row>
     <row r="688" ht="19.5" customHeight="1">
       <c r="A688" s="2"/>
@@ -20105,7 +19414,6 @@
       <c r="W688" s="2"/>
       <c r="X688" s="2"/>
       <c r="Y688" s="2"/>
-      <c r="Z688" s="2"/>
     </row>
     <row r="689" ht="19.5" customHeight="1">
       <c r="A689" s="2"/>
@@ -20133,7 +19441,6 @@
       <c r="W689" s="2"/>
       <c r="X689" s="2"/>
       <c r="Y689" s="2"/>
-      <c r="Z689" s="2"/>
     </row>
     <row r="690" ht="19.5" customHeight="1">
       <c r="A690" s="2"/>
@@ -20161,7 +19468,6 @@
       <c r="W690" s="2"/>
       <c r="X690" s="2"/>
       <c r="Y690" s="2"/>
-      <c r="Z690" s="2"/>
     </row>
     <row r="691" ht="19.5" customHeight="1">
       <c r="A691" s="2"/>
@@ -20189,7 +19495,6 @@
       <c r="W691" s="2"/>
       <c r="X691" s="2"/>
       <c r="Y691" s="2"/>
-      <c r="Z691" s="2"/>
     </row>
     <row r="692" ht="19.5" customHeight="1">
       <c r="A692" s="2"/>
@@ -20217,7 +19522,6 @@
       <c r="W692" s="2"/>
       <c r="X692" s="2"/>
       <c r="Y692" s="2"/>
-      <c r="Z692" s="2"/>
     </row>
     <row r="693" ht="19.5" customHeight="1">
       <c r="A693" s="2"/>
@@ -20245,7 +19549,6 @@
       <c r="W693" s="2"/>
       <c r="X693" s="2"/>
       <c r="Y693" s="2"/>
-      <c r="Z693" s="2"/>
     </row>
     <row r="694" ht="19.5" customHeight="1">
       <c r="A694" s="2"/>
@@ -20273,7 +19576,6 @@
       <c r="W694" s="2"/>
       <c r="X694" s="2"/>
       <c r="Y694" s="2"/>
-      <c r="Z694" s="2"/>
     </row>
     <row r="695" ht="19.5" customHeight="1">
       <c r="A695" s="2"/>
@@ -20301,7 +19603,6 @@
       <c r="W695" s="2"/>
       <c r="X695" s="2"/>
       <c r="Y695" s="2"/>
-      <c r="Z695" s="2"/>
     </row>
     <row r="696" ht="19.5" customHeight="1">
       <c r="A696" s="2"/>
@@ -20329,7 +19630,6 @@
       <c r="W696" s="2"/>
       <c r="X696" s="2"/>
       <c r="Y696" s="2"/>
-      <c r="Z696" s="2"/>
     </row>
     <row r="697" ht="19.5" customHeight="1">
       <c r="A697" s="2"/>
@@ -20357,7 +19657,6 @@
       <c r="W697" s="2"/>
       <c r="X697" s="2"/>
       <c r="Y697" s="2"/>
-      <c r="Z697" s="2"/>
     </row>
     <row r="698" ht="19.5" customHeight="1">
       <c r="A698" s="2"/>
@@ -20385,7 +19684,6 @@
       <c r="W698" s="2"/>
       <c r="X698" s="2"/>
       <c r="Y698" s="2"/>
-      <c r="Z698" s="2"/>
     </row>
     <row r="699" ht="19.5" customHeight="1">
       <c r="A699" s="2"/>
@@ -20413,7 +19711,6 @@
       <c r="W699" s="2"/>
       <c r="X699" s="2"/>
       <c r="Y699" s="2"/>
-      <c r="Z699" s="2"/>
     </row>
     <row r="700" ht="19.5" customHeight="1">
       <c r="A700" s="2"/>
@@ -20441,7 +19738,6 @@
       <c r="W700" s="2"/>
       <c r="X700" s="2"/>
       <c r="Y700" s="2"/>
-      <c r="Z700" s="2"/>
     </row>
     <row r="701" ht="19.5" customHeight="1">
       <c r="A701" s="2"/>
@@ -20469,7 +19765,6 @@
       <c r="W701" s="2"/>
       <c r="X701" s="2"/>
       <c r="Y701" s="2"/>
-      <c r="Z701" s="2"/>
     </row>
     <row r="702" ht="19.5" customHeight="1">
       <c r="A702" s="2"/>
@@ -20497,7 +19792,6 @@
       <c r="W702" s="2"/>
       <c r="X702" s="2"/>
       <c r="Y702" s="2"/>
-      <c r="Z702" s="2"/>
     </row>
     <row r="703" ht="19.5" customHeight="1">
       <c r="A703" s="2"/>
@@ -20525,7 +19819,6 @@
       <c r="W703" s="2"/>
       <c r="X703" s="2"/>
       <c r="Y703" s="2"/>
-      <c r="Z703" s="2"/>
     </row>
     <row r="704" ht="19.5" customHeight="1">
       <c r="A704" s="2"/>
@@ -20553,7 +19846,6 @@
       <c r="W704" s="2"/>
       <c r="X704" s="2"/>
       <c r="Y704" s="2"/>
-      <c r="Z704" s="2"/>
     </row>
     <row r="705" ht="19.5" customHeight="1">
       <c r="A705" s="2"/>
@@ -20581,7 +19873,6 @@
       <c r="W705" s="2"/>
       <c r="X705" s="2"/>
       <c r="Y705" s="2"/>
-      <c r="Z705" s="2"/>
     </row>
     <row r="706" ht="19.5" customHeight="1">
       <c r="A706" s="2"/>
@@ -20609,7 +19900,6 @@
       <c r="W706" s="2"/>
       <c r="X706" s="2"/>
       <c r="Y706" s="2"/>
-      <c r="Z706" s="2"/>
     </row>
     <row r="707" ht="19.5" customHeight="1">
       <c r="A707" s="2"/>
@@ -20637,7 +19927,6 @@
       <c r="W707" s="2"/>
       <c r="X707" s="2"/>
       <c r="Y707" s="2"/>
-      <c r="Z707" s="2"/>
     </row>
     <row r="708" ht="19.5" customHeight="1">
       <c r="A708" s="2"/>
@@ -20665,7 +19954,6 @@
       <c r="W708" s="2"/>
       <c r="X708" s="2"/>
       <c r="Y708" s="2"/>
-      <c r="Z708" s="2"/>
     </row>
     <row r="709" ht="19.5" customHeight="1">
       <c r="A709" s="2"/>
@@ -20693,7 +19981,6 @@
       <c r="W709" s="2"/>
       <c r="X709" s="2"/>
       <c r="Y709" s="2"/>
-      <c r="Z709" s="2"/>
     </row>
     <row r="710" ht="19.5" customHeight="1">
       <c r="A710" s="2"/>
@@ -20721,7 +20008,6 @@
       <c r="W710" s="2"/>
       <c r="X710" s="2"/>
       <c r="Y710" s="2"/>
-      <c r="Z710" s="2"/>
     </row>
     <row r="711" ht="19.5" customHeight="1">
       <c r="A711" s="2"/>
@@ -20749,7 +20035,6 @@
       <c r="W711" s="2"/>
       <c r="X711" s="2"/>
       <c r="Y711" s="2"/>
-      <c r="Z711" s="2"/>
     </row>
     <row r="712" ht="19.5" customHeight="1">
       <c r="A712" s="2"/>
@@ -20777,7 +20062,6 @@
       <c r="W712" s="2"/>
       <c r="X712" s="2"/>
       <c r="Y712" s="2"/>
-      <c r="Z712" s="2"/>
     </row>
     <row r="713" ht="19.5" customHeight="1">
       <c r="A713" s="2"/>
@@ -20805,7 +20089,6 @@
       <c r="W713" s="2"/>
       <c r="X713" s="2"/>
       <c r="Y713" s="2"/>
-      <c r="Z713" s="2"/>
     </row>
     <row r="714" ht="19.5" customHeight="1">
       <c r="A714" s="2"/>
@@ -20833,7 +20116,6 @@
       <c r="W714" s="2"/>
       <c r="X714" s="2"/>
       <c r="Y714" s="2"/>
-      <c r="Z714" s="2"/>
     </row>
     <row r="715" ht="19.5" customHeight="1">
       <c r="A715" s="2"/>
@@ -20861,7 +20143,6 @@
       <c r="W715" s="2"/>
       <c r="X715" s="2"/>
       <c r="Y715" s="2"/>
-      <c r="Z715" s="2"/>
     </row>
     <row r="716" ht="19.5" customHeight="1">
       <c r="A716" s="2"/>
@@ -20889,7 +20170,6 @@
       <c r="W716" s="2"/>
       <c r="X716" s="2"/>
       <c r="Y716" s="2"/>
-      <c r="Z716" s="2"/>
     </row>
     <row r="717" ht="19.5" customHeight="1">
       <c r="A717" s="2"/>
@@ -20917,7 +20197,6 @@
       <c r="W717" s="2"/>
       <c r="X717" s="2"/>
       <c r="Y717" s="2"/>
-      <c r="Z717" s="2"/>
     </row>
     <row r="718" ht="19.5" customHeight="1">
       <c r="A718" s="2"/>
@@ -20945,7 +20224,6 @@
       <c r="W718" s="2"/>
       <c r="X718" s="2"/>
       <c r="Y718" s="2"/>
-      <c r="Z718" s="2"/>
     </row>
     <row r="719" ht="19.5" customHeight="1">
       <c r="A719" s="2"/>
@@ -20973,7 +20251,6 @@
       <c r="W719" s="2"/>
       <c r="X719" s="2"/>
       <c r="Y719" s="2"/>
-      <c r="Z719" s="2"/>
     </row>
     <row r="720" ht="19.5" customHeight="1">
       <c r="A720" s="2"/>
@@ -21001,7 +20278,6 @@
       <c r="W720" s="2"/>
       <c r="X720" s="2"/>
       <c r="Y720" s="2"/>
-      <c r="Z720" s="2"/>
     </row>
     <row r="721" ht="19.5" customHeight="1">
       <c r="A721" s="2"/>
@@ -21029,7 +20305,6 @@
       <c r="W721" s="2"/>
       <c r="X721" s="2"/>
       <c r="Y721" s="2"/>
-      <c r="Z721" s="2"/>
     </row>
     <row r="722" ht="19.5" customHeight="1">
       <c r="A722" s="2"/>
@@ -21057,7 +20332,6 @@
       <c r="W722" s="2"/>
       <c r="X722" s="2"/>
       <c r="Y722" s="2"/>
-      <c r="Z722" s="2"/>
     </row>
     <row r="723" ht="19.5" customHeight="1">
       <c r="A723" s="2"/>
@@ -21085,7 +20359,6 @@
       <c r="W723" s="2"/>
       <c r="X723" s="2"/>
       <c r="Y723" s="2"/>
-      <c r="Z723" s="2"/>
     </row>
     <row r="724" ht="19.5" customHeight="1">
       <c r="A724" s="2"/>
@@ -21113,7 +20386,6 @@
       <c r="W724" s="2"/>
       <c r="X724" s="2"/>
       <c r="Y724" s="2"/>
-      <c r="Z724" s="2"/>
     </row>
     <row r="725" ht="19.5" customHeight="1">
       <c r="A725" s="2"/>
@@ -21141,7 +20413,6 @@
       <c r="W725" s="2"/>
       <c r="X725" s="2"/>
       <c r="Y725" s="2"/>
-      <c r="Z725" s="2"/>
     </row>
     <row r="726" ht="19.5" customHeight="1">
       <c r="A726" s="2"/>
@@ -21169,7 +20440,6 @@
       <c r="W726" s="2"/>
       <c r="X726" s="2"/>
       <c r="Y726" s="2"/>
-      <c r="Z726" s="2"/>
     </row>
     <row r="727" ht="19.5" customHeight="1">
       <c r="A727" s="2"/>
@@ -21197,7 +20467,6 @@
       <c r="W727" s="2"/>
       <c r="X727" s="2"/>
       <c r="Y727" s="2"/>
-      <c r="Z727" s="2"/>
     </row>
     <row r="728" ht="19.5" customHeight="1">
       <c r="A728" s="2"/>
@@ -21225,7 +20494,6 @@
       <c r="W728" s="2"/>
       <c r="X728" s="2"/>
       <c r="Y728" s="2"/>
-      <c r="Z728" s="2"/>
     </row>
     <row r="729" ht="19.5" customHeight="1">
       <c r="A729" s="2"/>
@@ -21253,7 +20521,6 @@
       <c r="W729" s="2"/>
       <c r="X729" s="2"/>
       <c r="Y729" s="2"/>
-      <c r="Z729" s="2"/>
     </row>
     <row r="730" ht="19.5" customHeight="1">
       <c r="A730" s="2"/>
@@ -21281,7 +20548,6 @@
       <c r="W730" s="2"/>
       <c r="X730" s="2"/>
       <c r="Y730" s="2"/>
-      <c r="Z730" s="2"/>
     </row>
     <row r="731" ht="19.5" customHeight="1">
       <c r="A731" s="2"/>
@@ -21309,7 +20575,6 @@
       <c r="W731" s="2"/>
       <c r="X731" s="2"/>
       <c r="Y731" s="2"/>
-      <c r="Z731" s="2"/>
     </row>
     <row r="732" ht="19.5" customHeight="1">
       <c r="A732" s="2"/>
@@ -21337,7 +20602,6 @@
       <c r="W732" s="2"/>
       <c r="X732" s="2"/>
       <c r="Y732" s="2"/>
-      <c r="Z732" s="2"/>
     </row>
     <row r="733" ht="19.5" customHeight="1">
       <c r="A733" s="2"/>
@@ -21365,7 +20629,6 @@
       <c r="W733" s="2"/>
       <c r="X733" s="2"/>
       <c r="Y733" s="2"/>
-      <c r="Z733" s="2"/>
     </row>
     <row r="734" ht="19.5" customHeight="1">
       <c r="A734" s="2"/>
@@ -21393,7 +20656,6 @@
       <c r="W734" s="2"/>
       <c r="X734" s="2"/>
       <c r="Y734" s="2"/>
-      <c r="Z734" s="2"/>
     </row>
     <row r="735" ht="19.5" customHeight="1">
       <c r="A735" s="2"/>
@@ -21421,7 +20683,6 @@
       <c r="W735" s="2"/>
       <c r="X735" s="2"/>
       <c r="Y735" s="2"/>
-      <c r="Z735" s="2"/>
     </row>
     <row r="736" ht="19.5" customHeight="1">
       <c r="A736" s="2"/>
@@ -21449,7 +20710,6 @@
       <c r="W736" s="2"/>
       <c r="X736" s="2"/>
       <c r="Y736" s="2"/>
-      <c r="Z736" s="2"/>
     </row>
     <row r="737" ht="19.5" customHeight="1">
       <c r="A737" s="2"/>
@@ -21477,7 +20737,6 @@
       <c r="W737" s="2"/>
       <c r="X737" s="2"/>
       <c r="Y737" s="2"/>
-      <c r="Z737" s="2"/>
     </row>
     <row r="738" ht="19.5" customHeight="1">
       <c r="A738" s="2"/>
@@ -21505,7 +20764,6 @@
       <c r="W738" s="2"/>
       <c r="X738" s="2"/>
       <c r="Y738" s="2"/>
-      <c r="Z738" s="2"/>
     </row>
     <row r="739" ht="19.5" customHeight="1">
       <c r="A739" s="2"/>
@@ -21533,7 +20791,6 @@
       <c r="W739" s="2"/>
       <c r="X739" s="2"/>
       <c r="Y739" s="2"/>
-      <c r="Z739" s="2"/>
     </row>
     <row r="740" ht="19.5" customHeight="1">
       <c r="A740" s="2"/>
@@ -21561,7 +20818,6 @@
       <c r="W740" s="2"/>
       <c r="X740" s="2"/>
       <c r="Y740" s="2"/>
-      <c r="Z740" s="2"/>
     </row>
     <row r="741" ht="19.5" customHeight="1">
       <c r="A741" s="2"/>
@@ -21589,7 +20845,6 @@
       <c r="W741" s="2"/>
       <c r="X741" s="2"/>
       <c r="Y741" s="2"/>
-      <c r="Z741" s="2"/>
     </row>
     <row r="742" ht="19.5" customHeight="1">
       <c r="A742" s="2"/>
@@ -21617,7 +20872,6 @@
       <c r="W742" s="2"/>
       <c r="X742" s="2"/>
       <c r="Y742" s="2"/>
-      <c r="Z742" s="2"/>
     </row>
     <row r="743" ht="19.5" customHeight="1">
       <c r="A743" s="2"/>
@@ -21645,7 +20899,6 @@
       <c r="W743" s="2"/>
       <c r="X743" s="2"/>
       <c r="Y743" s="2"/>
-      <c r="Z743" s="2"/>
     </row>
     <row r="744" ht="19.5" customHeight="1">
       <c r="A744" s="2"/>
@@ -21673,7 +20926,6 @@
       <c r="W744" s="2"/>
       <c r="X744" s="2"/>
       <c r="Y744" s="2"/>
-      <c r="Z744" s="2"/>
     </row>
     <row r="745" ht="19.5" customHeight="1">
       <c r="A745" s="2"/>
@@ -21701,7 +20953,6 @@
       <c r="W745" s="2"/>
       <c r="X745" s="2"/>
       <c r="Y745" s="2"/>
-      <c r="Z745" s="2"/>
     </row>
     <row r="746" ht="19.5" customHeight="1">
       <c r="A746" s="2"/>
@@ -21729,7 +20980,6 @@
       <c r="W746" s="2"/>
       <c r="X746" s="2"/>
       <c r="Y746" s="2"/>
-      <c r="Z746" s="2"/>
     </row>
     <row r="747" ht="19.5" customHeight="1">
       <c r="A747" s="2"/>
@@ -21757,7 +21007,6 @@
       <c r="W747" s="2"/>
       <c r="X747" s="2"/>
       <c r="Y747" s="2"/>
-      <c r="Z747" s="2"/>
     </row>
     <row r="748" ht="19.5" customHeight="1">
       <c r="A748" s="2"/>
@@ -21785,7 +21034,6 @@
       <c r="W748" s="2"/>
       <c r="X748" s="2"/>
       <c r="Y748" s="2"/>
-      <c r="Z748" s="2"/>
     </row>
     <row r="749" ht="19.5" customHeight="1">
       <c r="A749" s="2"/>
@@ -21813,7 +21061,6 @@
       <c r="W749" s="2"/>
       <c r="X749" s="2"/>
       <c r="Y749" s="2"/>
-      <c r="Z749" s="2"/>
     </row>
     <row r="750" ht="19.5" customHeight="1">
       <c r="A750" s="2"/>
@@ -21841,7 +21088,6 @@
       <c r="W750" s="2"/>
       <c r="X750" s="2"/>
       <c r="Y750" s="2"/>
-      <c r="Z750" s="2"/>
     </row>
     <row r="751" ht="19.5" customHeight="1">
       <c r="A751" s="2"/>
@@ -21869,7 +21115,6 @@
       <c r="W751" s="2"/>
       <c r="X751" s="2"/>
       <c r="Y751" s="2"/>
-      <c r="Z751" s="2"/>
     </row>
     <row r="752" ht="19.5" customHeight="1">
       <c r="A752" s="2"/>
@@ -21897,7 +21142,6 @@
       <c r="W752" s="2"/>
       <c r="X752" s="2"/>
       <c r="Y752" s="2"/>
-      <c r="Z752" s="2"/>
     </row>
     <row r="753" ht="19.5" customHeight="1">
       <c r="A753" s="2"/>
@@ -21925,7 +21169,6 @@
       <c r="W753" s="2"/>
       <c r="X753" s="2"/>
       <c r="Y753" s="2"/>
-      <c r="Z753" s="2"/>
     </row>
     <row r="754" ht="19.5" customHeight="1">
       <c r="A754" s="2"/>
@@ -21953,7 +21196,6 @@
       <c r="W754" s="2"/>
       <c r="X754" s="2"/>
       <c r="Y754" s="2"/>
-      <c r="Z754" s="2"/>
     </row>
     <row r="755" ht="19.5" customHeight="1">
       <c r="A755" s="2"/>
@@ -21981,7 +21223,6 @@
       <c r="W755" s="2"/>
       <c r="X755" s="2"/>
       <c r="Y755" s="2"/>
-      <c r="Z755" s="2"/>
     </row>
     <row r="756" ht="19.5" customHeight="1">
       <c r="A756" s="2"/>
@@ -22009,7 +21250,6 @@
       <c r="W756" s="2"/>
       <c r="X756" s="2"/>
       <c r="Y756" s="2"/>
-      <c r="Z756" s="2"/>
     </row>
     <row r="757" ht="19.5" customHeight="1">
       <c r="A757" s="2"/>
@@ -22037,7 +21277,6 @@
       <c r="W757" s="2"/>
       <c r="X757" s="2"/>
       <c r="Y757" s="2"/>
-      <c r="Z757" s="2"/>
     </row>
     <row r="758" ht="19.5" customHeight="1">
       <c r="A758" s="2"/>
@@ -22065,7 +21304,6 @@
       <c r="W758" s="2"/>
       <c r="X758" s="2"/>
       <c r="Y758" s="2"/>
-      <c r="Z758" s="2"/>
     </row>
     <row r="759" ht="19.5" customHeight="1">
       <c r="A759" s="2"/>
@@ -22093,7 +21331,6 @@
       <c r="W759" s="2"/>
       <c r="X759" s="2"/>
       <c r="Y759" s="2"/>
-      <c r="Z759" s="2"/>
     </row>
     <row r="760" ht="19.5" customHeight="1">
       <c r="A760" s="2"/>
@@ -22121,7 +21358,6 @@
       <c r="W760" s="2"/>
       <c r="X760" s="2"/>
       <c r="Y760" s="2"/>
-      <c r="Z760" s="2"/>
     </row>
     <row r="761" ht="19.5" customHeight="1">
       <c r="A761" s="2"/>
@@ -22149,7 +21385,6 @@
       <c r="W761" s="2"/>
       <c r="X761" s="2"/>
       <c r="Y761" s="2"/>
-      <c r="Z761" s="2"/>
     </row>
     <row r="762" ht="19.5" customHeight="1">
       <c r="A762" s="2"/>
@@ -22177,7 +21412,6 @@
       <c r="W762" s="2"/>
       <c r="X762" s="2"/>
       <c r="Y762" s="2"/>
-      <c r="Z762" s="2"/>
     </row>
     <row r="763" ht="19.5" customHeight="1">
       <c r="A763" s="2"/>
@@ -22205,7 +21439,6 @@
       <c r="W763" s="2"/>
       <c r="X763" s="2"/>
       <c r="Y763" s="2"/>
-      <c r="Z763" s="2"/>
     </row>
     <row r="764" ht="19.5" customHeight="1">
       <c r="A764" s="2"/>
@@ -22233,7 +21466,6 @@
       <c r="W764" s="2"/>
       <c r="X764" s="2"/>
       <c r="Y764" s="2"/>
-      <c r="Z764" s="2"/>
     </row>
     <row r="765" ht="19.5" customHeight="1">
       <c r="A765" s="2"/>
@@ -22261,7 +21493,6 @@
       <c r="W765" s="2"/>
       <c r="X765" s="2"/>
       <c r="Y765" s="2"/>
-      <c r="Z765" s="2"/>
     </row>
     <row r="766" ht="19.5" customHeight="1">
       <c r="A766" s="2"/>
@@ -22289,7 +21520,6 @@
       <c r="W766" s="2"/>
       <c r="X766" s="2"/>
       <c r="Y766" s="2"/>
-      <c r="Z766" s="2"/>
     </row>
     <row r="767" ht="19.5" customHeight="1">
       <c r="A767" s="2"/>
@@ -22317,7 +21547,6 @@
       <c r="W767" s="2"/>
       <c r="X767" s="2"/>
       <c r="Y767" s="2"/>
-      <c r="Z767" s="2"/>
     </row>
     <row r="768" ht="19.5" customHeight="1">
       <c r="A768" s="2"/>
@@ -22345,7 +21574,6 @@
       <c r="W768" s="2"/>
       <c r="X768" s="2"/>
       <c r="Y768" s="2"/>
-      <c r="Z768" s="2"/>
     </row>
     <row r="769" ht="19.5" customHeight="1">
       <c r="A769" s="2"/>
@@ -22373,7 +21601,6 @@
       <c r="W769" s="2"/>
       <c r="X769" s="2"/>
       <c r="Y769" s="2"/>
-      <c r="Z769" s="2"/>
     </row>
     <row r="770" ht="19.5" customHeight="1">
       <c r="A770" s="2"/>
@@ -22401,7 +21628,6 @@
       <c r="W770" s="2"/>
       <c r="X770" s="2"/>
       <c r="Y770" s="2"/>
-      <c r="Z770" s="2"/>
     </row>
     <row r="771" ht="19.5" customHeight="1">
       <c r="A771" s="2"/>
@@ -22429,7 +21655,6 @@
       <c r="W771" s="2"/>
       <c r="X771" s="2"/>
       <c r="Y771" s="2"/>
-      <c r="Z771" s="2"/>
     </row>
     <row r="772" ht="19.5" customHeight="1">
       <c r="A772" s="2"/>
@@ -22457,7 +21682,6 @@
       <c r="W772" s="2"/>
       <c r="X772" s="2"/>
       <c r="Y772" s="2"/>
-      <c r="Z772" s="2"/>
     </row>
     <row r="773" ht="19.5" customHeight="1">
       <c r="A773" s="2"/>
@@ -22485,7 +21709,6 @@
       <c r="W773" s="2"/>
       <c r="X773" s="2"/>
       <c r="Y773" s="2"/>
-      <c r="Z773" s="2"/>
     </row>
     <row r="774" ht="19.5" customHeight="1">
       <c r="A774" s="2"/>
@@ -22513,7 +21736,6 @@
       <c r="W774" s="2"/>
       <c r="X774" s="2"/>
       <c r="Y774" s="2"/>
-      <c r="Z774" s="2"/>
     </row>
     <row r="775" ht="19.5" customHeight="1">
       <c r="A775" s="2"/>
@@ -22541,7 +21763,6 @@
       <c r="W775" s="2"/>
       <c r="X775" s="2"/>
       <c r="Y775" s="2"/>
-      <c r="Z775" s="2"/>
     </row>
     <row r="776" ht="19.5" customHeight="1">
       <c r="A776" s="2"/>
@@ -22569,7 +21790,6 @@
       <c r="W776" s="2"/>
       <c r="X776" s="2"/>
       <c r="Y776" s="2"/>
-      <c r="Z776" s="2"/>
     </row>
     <row r="777" ht="19.5" customHeight="1">
       <c r="A777" s="2"/>
@@ -22597,7 +21817,6 @@
       <c r="W777" s="2"/>
       <c r="X777" s="2"/>
       <c r="Y777" s="2"/>
-      <c r="Z777" s="2"/>
     </row>
     <row r="778" ht="19.5" customHeight="1">
       <c r="A778" s="2"/>
@@ -22625,7 +21844,6 @@
       <c r="W778" s="2"/>
       <c r="X778" s="2"/>
       <c r="Y778" s="2"/>
-      <c r="Z778" s="2"/>
     </row>
     <row r="779" ht="19.5" customHeight="1">
       <c r="A779" s="2"/>
@@ -22653,7 +21871,6 @@
       <c r="W779" s="2"/>
       <c r="X779" s="2"/>
       <c r="Y779" s="2"/>
-      <c r="Z779" s="2"/>
     </row>
     <row r="780" ht="19.5" customHeight="1">
       <c r="A780" s="2"/>
@@ -22681,7 +21898,6 @@
       <c r="W780" s="2"/>
       <c r="X780" s="2"/>
       <c r="Y780" s="2"/>
-      <c r="Z780" s="2"/>
     </row>
     <row r="781" ht="19.5" customHeight="1">
       <c r="A781" s="2"/>
@@ -22709,7 +21925,6 @@
       <c r="W781" s="2"/>
       <c r="X781" s="2"/>
       <c r="Y781" s="2"/>
-      <c r="Z781" s="2"/>
     </row>
     <row r="782" ht="19.5" customHeight="1">
       <c r="A782" s="2"/>
@@ -22737,7 +21952,6 @@
       <c r="W782" s="2"/>
       <c r="X782" s="2"/>
       <c r="Y782" s="2"/>
-      <c r="Z782" s="2"/>
     </row>
     <row r="783" ht="19.5" customHeight="1">
       <c r="A783" s="2"/>
@@ -22765,7 +21979,6 @@
       <c r="W783" s="2"/>
       <c r="X783" s="2"/>
       <c r="Y783" s="2"/>
-      <c r="Z783" s="2"/>
     </row>
     <row r="784" ht="19.5" customHeight="1">
       <c r="A784" s="2"/>
@@ -22793,7 +22006,6 @@
       <c r="W784" s="2"/>
       <c r="X784" s="2"/>
       <c r="Y784" s="2"/>
-      <c r="Z784" s="2"/>
     </row>
     <row r="785" ht="19.5" customHeight="1">
       <c r="A785" s="2"/>
@@ -22821,7 +22033,6 @@
       <c r="W785" s="2"/>
       <c r="X785" s="2"/>
       <c r="Y785" s="2"/>
-      <c r="Z785" s="2"/>
     </row>
     <row r="786" ht="19.5" customHeight="1">
       <c r="A786" s="2"/>
@@ -22849,7 +22060,6 @@
       <c r="W786" s="2"/>
       <c r="X786" s="2"/>
       <c r="Y786" s="2"/>
-      <c r="Z786" s="2"/>
     </row>
     <row r="787" ht="19.5" customHeight="1">
       <c r="A787" s="2"/>
@@ -22877,7 +22087,6 @@
       <c r="W787" s="2"/>
       <c r="X787" s="2"/>
       <c r="Y787" s="2"/>
-      <c r="Z787" s="2"/>
     </row>
     <row r="788" ht="19.5" customHeight="1">
       <c r="A788" s="2"/>
@@ -22905,7 +22114,6 @@
       <c r="W788" s="2"/>
       <c r="X788" s="2"/>
       <c r="Y788" s="2"/>
-      <c r="Z788" s="2"/>
     </row>
     <row r="789" ht="19.5" customHeight="1">
       <c r="A789" s="2"/>
@@ -22933,7 +22141,6 @@
       <c r="W789" s="2"/>
       <c r="X789" s="2"/>
       <c r="Y789" s="2"/>
-      <c r="Z789" s="2"/>
     </row>
     <row r="790" ht="19.5" customHeight="1">
       <c r="A790" s="2"/>
@@ -22961,7 +22168,6 @@
       <c r="W790" s="2"/>
       <c r="X790" s="2"/>
       <c r="Y790" s="2"/>
-      <c r="Z790" s="2"/>
     </row>
     <row r="791" ht="19.5" customHeight="1">
       <c r="A791" s="2"/>
@@ -22989,7 +22195,6 @@
       <c r="W791" s="2"/>
       <c r="X791" s="2"/>
       <c r="Y791" s="2"/>
-      <c r="Z791" s="2"/>
     </row>
     <row r="792" ht="19.5" customHeight="1">
       <c r="A792" s="2"/>
@@ -23017,7 +22222,6 @@
       <c r="W792" s="2"/>
       <c r="X792" s="2"/>
       <c r="Y792" s="2"/>
-      <c r="Z792" s="2"/>
     </row>
     <row r="793" ht="19.5" customHeight="1">
       <c r="A793" s="2"/>
@@ -23045,7 +22249,6 @@
       <c r="W793" s="2"/>
       <c r="X793" s="2"/>
       <c r="Y793" s="2"/>
-      <c r="Z793" s="2"/>
     </row>
     <row r="794" ht="19.5" customHeight="1">
       <c r="A794" s="2"/>
@@ -23073,7 +22276,6 @@
       <c r="W794" s="2"/>
       <c r="X794" s="2"/>
       <c r="Y794" s="2"/>
-      <c r="Z794" s="2"/>
     </row>
     <row r="795" ht="19.5" customHeight="1">
       <c r="A795" s="2"/>
@@ -23101,7 +22303,6 @@
       <c r="W795" s="2"/>
       <c r="X795" s="2"/>
       <c r="Y795" s="2"/>
-      <c r="Z795" s="2"/>
     </row>
     <row r="796" ht="19.5" customHeight="1">
       <c r="A796" s="2"/>
@@ -23129,7 +22330,6 @@
       <c r="W796" s="2"/>
       <c r="X796" s="2"/>
       <c r="Y796" s="2"/>
-      <c r="Z796" s="2"/>
     </row>
     <row r="797" ht="19.5" customHeight="1">
       <c r="A797" s="2"/>
@@ -23157,7 +22357,6 @@
       <c r="W797" s="2"/>
       <c r="X797" s="2"/>
       <c r="Y797" s="2"/>
-      <c r="Z797" s="2"/>
     </row>
     <row r="798" ht="19.5" customHeight="1">
       <c r="A798" s="2"/>
@@ -23185,7 +22384,6 @@
       <c r="W798" s="2"/>
       <c r="X798" s="2"/>
       <c r="Y798" s="2"/>
-      <c r="Z798" s="2"/>
     </row>
     <row r="799" ht="19.5" customHeight="1">
       <c r="A799" s="2"/>
@@ -23213,7 +22411,6 @@
       <c r="W799" s="2"/>
       <c r="X799" s="2"/>
       <c r="Y799" s="2"/>
-      <c r="Z799" s="2"/>
     </row>
     <row r="800" ht="19.5" customHeight="1">
       <c r="A800" s="2"/>
@@ -23241,7 +22438,6 @@
       <c r="W800" s="2"/>
       <c r="X800" s="2"/>
       <c r="Y800" s="2"/>
-      <c r="Z800" s="2"/>
     </row>
     <row r="801" ht="19.5" customHeight="1">
       <c r="A801" s="2"/>
@@ -23269,7 +22465,6 @@
       <c r="W801" s="2"/>
       <c r="X801" s="2"/>
       <c r="Y801" s="2"/>
-      <c r="Z801" s="2"/>
     </row>
     <row r="802" ht="19.5" customHeight="1">
       <c r="A802" s="2"/>
@@ -23297,7 +22492,6 @@
       <c r="W802" s="2"/>
       <c r="X802" s="2"/>
       <c r="Y802" s="2"/>
-      <c r="Z802" s="2"/>
     </row>
     <row r="803" ht="19.5" customHeight="1">
       <c r="A803" s="2"/>
@@ -23325,7 +22519,6 @@
       <c r="W803" s="2"/>
       <c r="X803" s="2"/>
       <c r="Y803" s="2"/>
-      <c r="Z803" s="2"/>
     </row>
     <row r="804" ht="19.5" customHeight="1">
       <c r="A804" s="2"/>
@@ -23353,7 +22546,6 @@
       <c r="W804" s="2"/>
       <c r="X804" s="2"/>
       <c r="Y804" s="2"/>
-      <c r="Z804" s="2"/>
     </row>
     <row r="805" ht="19.5" customHeight="1">
       <c r="A805" s="2"/>
@@ -23381,7 +22573,6 @@
       <c r="W805" s="2"/>
       <c r="X805" s="2"/>
       <c r="Y805" s="2"/>
-      <c r="Z805" s="2"/>
     </row>
     <row r="806" ht="19.5" customHeight="1">
       <c r="A806" s="2"/>
@@ -23409,7 +22600,6 @@
       <c r="W806" s="2"/>
       <c r="X806" s="2"/>
       <c r="Y806" s="2"/>
-      <c r="Z806" s="2"/>
     </row>
     <row r="807" ht="19.5" customHeight="1">
       <c r="A807" s="2"/>
@@ -23437,7 +22627,6 @@
       <c r="W807" s="2"/>
       <c r="X807" s="2"/>
       <c r="Y807" s="2"/>
-      <c r="Z807" s="2"/>
     </row>
     <row r="808" ht="19.5" customHeight="1">
       <c r="A808" s="2"/>
@@ -23465,7 +22654,6 @@
       <c r="W808" s="2"/>
       <c r="X808" s="2"/>
       <c r="Y808" s="2"/>
-      <c r="Z808" s="2"/>
     </row>
     <row r="809" ht="19.5" customHeight="1">
       <c r="A809" s="2"/>
@@ -23493,7 +22681,6 @@
       <c r="W809" s="2"/>
       <c r="X809" s="2"/>
       <c r="Y809" s="2"/>
-      <c r="Z809" s="2"/>
     </row>
     <row r="810" ht="19.5" customHeight="1">
       <c r="A810" s="2"/>
@@ -23521,7 +22708,6 @@
       <c r="W810" s="2"/>
       <c r="X810" s="2"/>
       <c r="Y810" s="2"/>
-      <c r="Z810" s="2"/>
     </row>
     <row r="811" ht="19.5" customHeight="1">
       <c r="A811" s="2"/>
@@ -23549,7 +22735,6 @@
       <c r="W811" s="2"/>
       <c r="X811" s="2"/>
       <c r="Y811" s="2"/>
-      <c r="Z811" s="2"/>
     </row>
     <row r="812" ht="19.5" customHeight="1">
       <c r="A812" s="2"/>
@@ -23577,7 +22762,6 @@
       <c r="W812" s="2"/>
       <c r="X812" s="2"/>
       <c r="Y812" s="2"/>
-      <c r="Z812" s="2"/>
     </row>
     <row r="813" ht="19.5" customHeight="1">
       <c r="A813" s="2"/>
@@ -23605,7 +22789,6 @@
       <c r="W813" s="2"/>
       <c r="X813" s="2"/>
       <c r="Y813" s="2"/>
-      <c r="Z813" s="2"/>
     </row>
     <row r="814" ht="19.5" customHeight="1">
       <c r="A814" s="2"/>
@@ -23633,7 +22816,6 @@
       <c r="W814" s="2"/>
       <c r="X814" s="2"/>
       <c r="Y814" s="2"/>
-      <c r="Z814" s="2"/>
     </row>
     <row r="815" ht="19.5" customHeight="1">
       <c r="A815" s="2"/>
@@ -23661,7 +22843,6 @@
       <c r="W815" s="2"/>
       <c r="X815" s="2"/>
       <c r="Y815" s="2"/>
-      <c r="Z815" s="2"/>
     </row>
     <row r="816" ht="19.5" customHeight="1">
       <c r="A816" s="2"/>
@@ -23689,7 +22870,6 @@
       <c r="W816" s="2"/>
       <c r="X816" s="2"/>
       <c r="Y816" s="2"/>
-      <c r="Z816" s="2"/>
     </row>
     <row r="817" ht="19.5" customHeight="1">
       <c r="A817" s="2"/>
@@ -23717,7 +22897,6 @@
       <c r="W817" s="2"/>
       <c r="X817" s="2"/>
       <c r="Y817" s="2"/>
-      <c r="Z817" s="2"/>
     </row>
     <row r="818" ht="19.5" customHeight="1">
       <c r="A818" s="2"/>
@@ -23745,7 +22924,6 @@
       <c r="W818" s="2"/>
       <c r="X818" s="2"/>
       <c r="Y818" s="2"/>
-      <c r="Z818" s="2"/>
     </row>
     <row r="819" ht="19.5" customHeight="1">
       <c r="A819" s="2"/>
@@ -23773,7 +22951,6 @@
       <c r="W819" s="2"/>
       <c r="X819" s="2"/>
       <c r="Y819" s="2"/>
-      <c r="Z819" s="2"/>
     </row>
     <row r="820" ht="19.5" customHeight="1">
       <c r="A820" s="2"/>
@@ -23801,7 +22978,6 @@
       <c r="W820" s="2"/>
       <c r="X820" s="2"/>
       <c r="Y820" s="2"/>
-      <c r="Z820" s="2"/>
     </row>
     <row r="821" ht="19.5" customHeight="1">
       <c r="A821" s="2"/>
@@ -23829,7 +23005,6 @@
       <c r="W821" s="2"/>
       <c r="X821" s="2"/>
       <c r="Y821" s="2"/>
-      <c r="Z821" s="2"/>
     </row>
     <row r="822" ht="19.5" customHeight="1">
       <c r="A822" s="2"/>
@@ -23857,7 +23032,6 @@
       <c r="W822" s="2"/>
       <c r="X822" s="2"/>
       <c r="Y822" s="2"/>
-      <c r="Z822" s="2"/>
     </row>
     <row r="823" ht="19.5" customHeight="1">
       <c r="A823" s="2"/>
@@ -23885,7 +23059,6 @@
       <c r="W823" s="2"/>
       <c r="X823" s="2"/>
       <c r="Y823" s="2"/>
-      <c r="Z823" s="2"/>
     </row>
     <row r="824" ht="19.5" customHeight="1">
       <c r="A824" s="2"/>
@@ -23913,7 +23086,6 @@
       <c r="W824" s="2"/>
       <c r="X824" s="2"/>
       <c r="Y824" s="2"/>
-      <c r="Z824" s="2"/>
     </row>
     <row r="825" ht="19.5" customHeight="1">
       <c r="A825" s="2"/>
@@ -23941,7 +23113,6 @@
       <c r="W825" s="2"/>
       <c r="X825" s="2"/>
       <c r="Y825" s="2"/>
-      <c r="Z825" s="2"/>
     </row>
     <row r="826" ht="19.5" customHeight="1">
       <c r="A826" s="2"/>
@@ -23969,7 +23140,6 @@
       <c r="W826" s="2"/>
       <c r="X826" s="2"/>
       <c r="Y826" s="2"/>
-      <c r="Z826" s="2"/>
     </row>
     <row r="827" ht="19.5" customHeight="1">
       <c r="A827" s="2"/>
@@ -23997,7 +23167,6 @@
       <c r="W827" s="2"/>
       <c r="X827" s="2"/>
       <c r="Y827" s="2"/>
-      <c r="Z827" s="2"/>
     </row>
     <row r="828" ht="19.5" customHeight="1">
       <c r="A828" s="2"/>
@@ -24025,7 +23194,6 @@
       <c r="W828" s="2"/>
       <c r="X828" s="2"/>
       <c r="Y828" s="2"/>
-      <c r="Z828" s="2"/>
     </row>
     <row r="829" ht="19.5" customHeight="1">
       <c r="A829" s="2"/>
@@ -24053,7 +23221,6 @@
       <c r="W829" s="2"/>
       <c r="X829" s="2"/>
       <c r="Y829" s="2"/>
-      <c r="Z829" s="2"/>
     </row>
     <row r="830" ht="19.5" customHeight="1">
       <c r="A830" s="2"/>
@@ -24081,7 +23248,6 @@
       <c r="W830" s="2"/>
       <c r="X830" s="2"/>
       <c r="Y830" s="2"/>
-      <c r="Z830" s="2"/>
     </row>
     <row r="831" ht="19.5" customHeight="1">
       <c r="A831" s="2"/>
@@ -24109,7 +23275,6 @@
       <c r="W831" s="2"/>
       <c r="X831" s="2"/>
       <c r="Y831" s="2"/>
-      <c r="Z831" s="2"/>
     </row>
     <row r="832" ht="19.5" customHeight="1">
       <c r="A832" s="2"/>
@@ -24137,7 +23302,6 @@
       <c r="W832" s="2"/>
       <c r="X832" s="2"/>
       <c r="Y832" s="2"/>
-      <c r="Z832" s="2"/>
     </row>
     <row r="833" ht="19.5" customHeight="1">
       <c r="A833" s="2"/>
@@ -24165,7 +23329,6 @@
       <c r="W833" s="2"/>
       <c r="X833" s="2"/>
       <c r="Y833" s="2"/>
-      <c r="Z833" s="2"/>
     </row>
     <row r="834" ht="19.5" customHeight="1">
       <c r="A834" s="2"/>
@@ -24193,7 +23356,6 @@
       <c r="W834" s="2"/>
       <c r="X834" s="2"/>
       <c r="Y834" s="2"/>
-      <c r="Z834" s="2"/>
     </row>
     <row r="835" ht="19.5" customHeight="1">
       <c r="A835" s="2"/>
@@ -24221,7 +23383,6 @@
       <c r="W835" s="2"/>
       <c r="X835" s="2"/>
       <c r="Y835" s="2"/>
-      <c r="Z835" s="2"/>
     </row>
     <row r="836" ht="19.5" customHeight="1">
       <c r="A836" s="2"/>
@@ -24249,7 +23410,6 @@
       <c r="W836" s="2"/>
       <c r="X836" s="2"/>
       <c r="Y836" s="2"/>
-      <c r="Z836" s="2"/>
     </row>
     <row r="837" ht="19.5" customHeight="1">
       <c r="A837" s="2"/>
@@ -24277,7 +23437,6 @@
       <c r="W837" s="2"/>
       <c r="X837" s="2"/>
       <c r="Y837" s="2"/>
-      <c r="Z837" s="2"/>
     </row>
     <row r="838" ht="19.5" customHeight="1">
       <c r="A838" s="2"/>
@@ -24305,7 +23464,6 @@
       <c r="W838" s="2"/>
       <c r="X838" s="2"/>
       <c r="Y838" s="2"/>
-      <c r="Z838" s="2"/>
     </row>
     <row r="839" ht="19.5" customHeight="1">
       <c r="A839" s="2"/>
@@ -24333,7 +23491,6 @@
       <c r="W839" s="2"/>
       <c r="X839" s="2"/>
       <c r="Y839" s="2"/>
-      <c r="Z839" s="2"/>
     </row>
     <row r="840" ht="19.5" customHeight="1">
       <c r="A840" s="2"/>
@@ -24361,7 +23518,6 @@
       <c r="W840" s="2"/>
       <c r="X840" s="2"/>
       <c r="Y840" s="2"/>
-      <c r="Z840" s="2"/>
     </row>
     <row r="841" ht="19.5" customHeight="1">
       <c r="A841" s="2"/>
@@ -24389,7 +23545,6 @@
       <c r="W841" s="2"/>
       <c r="X841" s="2"/>
       <c r="Y841" s="2"/>
-      <c r="Z841" s="2"/>
     </row>
     <row r="842" ht="19.5" customHeight="1">
       <c r="A842" s="2"/>
@@ -24417,7 +23572,6 @@
       <c r="W842" s="2"/>
       <c r="X842" s="2"/>
       <c r="Y842" s="2"/>
-      <c r="Z842" s="2"/>
     </row>
     <row r="843" ht="19.5" customHeight="1">
       <c r="A843" s="2"/>
@@ -24445,7 +23599,6 @@
       <c r="W843" s="2"/>
       <c r="X843" s="2"/>
       <c r="Y843" s="2"/>
-      <c r="Z843" s="2"/>
     </row>
     <row r="844" ht="19.5" customHeight="1">
       <c r="A844" s="2"/>
@@ -24473,7 +23626,6 @@
       <c r="W844" s="2"/>
       <c r="X844" s="2"/>
       <c r="Y844" s="2"/>
-      <c r="Z844" s="2"/>
     </row>
     <row r="845" ht="19.5" customHeight="1">
       <c r="A845" s="2"/>
@@ -24501,7 +23653,6 @@
       <c r="W845" s="2"/>
       <c r="X845" s="2"/>
       <c r="Y845" s="2"/>
-      <c r="Z845" s="2"/>
     </row>
     <row r="846" ht="19.5" customHeight="1">
       <c r="A846" s="2"/>
@@ -24529,7 +23680,6 @@
       <c r="W846" s="2"/>
       <c r="X846" s="2"/>
       <c r="Y846" s="2"/>
-      <c r="Z846" s="2"/>
     </row>
     <row r="847" ht="19.5" customHeight="1">
       <c r="A847" s="2"/>
@@ -24557,7 +23707,6 @@
       <c r="W847" s="2"/>
       <c r="X847" s="2"/>
       <c r="Y847" s="2"/>
-      <c r="Z847" s="2"/>
     </row>
     <row r="848" ht="19.5" customHeight="1">
       <c r="A848" s="2"/>
@@ -24585,7 +23734,6 @@
       <c r="W848" s="2"/>
       <c r="X848" s="2"/>
       <c r="Y848" s="2"/>
-      <c r="Z848" s="2"/>
     </row>
     <row r="849" ht="19.5" customHeight="1">
       <c r="A849" s="2"/>
@@ -24613,7 +23761,6 @@
       <c r="W849" s="2"/>
       <c r="X849" s="2"/>
       <c r="Y849" s="2"/>
-      <c r="Z849" s="2"/>
     </row>
     <row r="850" ht="19.5" customHeight="1">
       <c r="A850" s="2"/>
@@ -24641,7 +23788,6 @@
       <c r="W850" s="2"/>
       <c r="X850" s="2"/>
       <c r="Y850" s="2"/>
-      <c r="Z850" s="2"/>
     </row>
     <row r="851" ht="19.5" customHeight="1">
       <c r="A851" s="2"/>
@@ -24669,7 +23815,6 @@
       <c r="W851" s="2"/>
       <c r="X851" s="2"/>
       <c r="Y851" s="2"/>
-      <c r="Z851" s="2"/>
     </row>
     <row r="852" ht="19.5" customHeight="1">
       <c r="A852" s="2"/>
@@ -24697,7 +23842,6 @@
       <c r="W852" s="2"/>
       <c r="X852" s="2"/>
       <c r="Y852" s="2"/>
-      <c r="Z852" s="2"/>
     </row>
     <row r="853" ht="19.5" customHeight="1">
       <c r="A853" s="2"/>
@@ -24725,7 +23869,6 @@
       <c r="W853" s="2"/>
       <c r="X853" s="2"/>
       <c r="Y853" s="2"/>
-      <c r="Z853" s="2"/>
     </row>
     <row r="854" ht="19.5" customHeight="1">
       <c r="A854" s="2"/>
@@ -24753,7 +23896,6 @@
       <c r="W854" s="2"/>
       <c r="X854" s="2"/>
       <c r="Y854" s="2"/>
-      <c r="Z854" s="2"/>
     </row>
     <row r="855" ht="19.5" customHeight="1">
       <c r="A855" s="2"/>
@@ -24781,7 +23923,6 @@
       <c r="W855" s="2"/>
       <c r="X855" s="2"/>
       <c r="Y855" s="2"/>
-      <c r="Z855" s="2"/>
     </row>
     <row r="856" ht="19.5" customHeight="1">
       <c r="A856" s="2"/>
@@ -24809,7 +23950,6 @@
       <c r="W856" s="2"/>
       <c r="X856" s="2"/>
       <c r="Y856" s="2"/>
-      <c r="Z856" s="2"/>
     </row>
     <row r="857" ht="19.5" customHeight="1">
       <c r="A857" s="2"/>
@@ -24837,7 +23977,6 @@
       <c r="W857" s="2"/>
       <c r="X857" s="2"/>
       <c r="Y857" s="2"/>
-      <c r="Z857" s="2"/>
     </row>
     <row r="858" ht="19.5" customHeight="1">
       <c r="A858" s="2"/>
@@ -24865,7 +24004,6 @@
       <c r="W858" s="2"/>
       <c r="X858" s="2"/>
       <c r="Y858" s="2"/>
-      <c r="Z858" s="2"/>
     </row>
     <row r="859" ht="19.5" customHeight="1">
       <c r="A859" s="2"/>
@@ -24893,7 +24031,6 @@
       <c r="W859" s="2"/>
       <c r="X859" s="2"/>
       <c r="Y859" s="2"/>
-      <c r="Z859" s="2"/>
     </row>
     <row r="860" ht="19.5" customHeight="1">
       <c r="A860" s="2"/>
@@ -24921,7 +24058,6 @@
       <c r="W860" s="2"/>
       <c r="X860" s="2"/>
       <c r="Y860" s="2"/>
-      <c r="Z860" s="2"/>
     </row>
     <row r="861" ht="19.5" customHeight="1">
       <c r="A861" s="2"/>
@@ -24949,7 +24085,6 @@
       <c r="W861" s="2"/>
       <c r="X861" s="2"/>
       <c r="Y861" s="2"/>
-      <c r="Z861" s="2"/>
     </row>
     <row r="862" ht="19.5" customHeight="1">
       <c r="A862" s="2"/>
@@ -24977,7 +24112,6 @@
       <c r="W862" s="2"/>
       <c r="X862" s="2"/>
       <c r="Y862" s="2"/>
-      <c r="Z862" s="2"/>
     </row>
     <row r="863" ht="19.5" customHeight="1">
       <c r="A863" s="2"/>
@@ -25005,7 +24139,6 @@
       <c r="W863" s="2"/>
       <c r="X863" s="2"/>
       <c r="Y863" s="2"/>
-      <c r="Z863" s="2"/>
     </row>
     <row r="864" ht="19.5" customHeight="1">
       <c r="A864" s="2"/>
@@ -25033,7 +24166,6 @@
       <c r="W864" s="2"/>
       <c r="X864" s="2"/>
       <c r="Y864" s="2"/>
-      <c r="Z864" s="2"/>
     </row>
     <row r="865" ht="19.5" customHeight="1">
       <c r="A865" s="2"/>
@@ -25061,7 +24193,6 @@
       <c r="W865" s="2"/>
       <c r="X865" s="2"/>
       <c r="Y865" s="2"/>
-      <c r="Z865" s="2"/>
     </row>
     <row r="866" ht="19.5" customHeight="1">
       <c r="A866" s="2"/>
@@ -25089,7 +24220,6 @@
       <c r="W866" s="2"/>
       <c r="X866" s="2"/>
       <c r="Y866" s="2"/>
-      <c r="Z866" s="2"/>
     </row>
     <row r="867" ht="19.5" customHeight="1">
       <c r="A867" s="2"/>
@@ -25117,7 +24247,6 @@
       <c r="W867" s="2"/>
       <c r="X867" s="2"/>
       <c r="Y867" s="2"/>
-      <c r="Z867" s="2"/>
     </row>
     <row r="868" ht="19.5" customHeight="1">
       <c r="A868" s="2"/>
@@ -25145,7 +24274,6 @@
       <c r="W868" s="2"/>
       <c r="X868" s="2"/>
       <c r="Y868" s="2"/>
-      <c r="Z868" s="2"/>
     </row>
     <row r="869" ht="19.5" customHeight="1">
       <c r="A869" s="2"/>
@@ -25173,7 +24301,6 @@
       <c r="W869" s="2"/>
       <c r="X869" s="2"/>
       <c r="Y869" s="2"/>
-      <c r="Z869" s="2"/>
     </row>
     <row r="870" ht="19.5" customHeight="1">
       <c r="A870" s="2"/>
@@ -25201,7 +24328,6 @@
       <c r="W870" s="2"/>
       <c r="X870" s="2"/>
       <c r="Y870" s="2"/>
-      <c r="Z870" s="2"/>
     </row>
     <row r="871" ht="19.5" customHeight="1">
       <c r="A871" s="2"/>
@@ -25229,7 +24355,6 @@
       <c r="W871" s="2"/>
       <c r="X871" s="2"/>
       <c r="Y871" s="2"/>
-      <c r="Z871" s="2"/>
     </row>
     <row r="872" ht="19.5" customHeight="1">
       <c r="A872" s="2"/>
@@ -25257,7 +24382,6 @@
       <c r="W872" s="2"/>
       <c r="X872" s="2"/>
       <c r="Y872" s="2"/>
-      <c r="Z872" s="2"/>
     </row>
     <row r="873" ht="19.5" customHeight="1">
       <c r="A873" s="2"/>
@@ -25285,7 +24409,6 @@
       <c r="W873" s="2"/>
       <c r="X873" s="2"/>
       <c r="Y873" s="2"/>
-      <c r="Z873" s="2"/>
     </row>
     <row r="874" ht="19.5" customHeight="1">
       <c r="A874" s="2"/>
@@ -25313,7 +24436,6 @@
       <c r="W874" s="2"/>
       <c r="X874" s="2"/>
       <c r="Y874" s="2"/>
-      <c r="Z874" s="2"/>
     </row>
     <row r="875" ht="19.5" customHeight="1">
       <c r="A875" s="2"/>
@@ -25341,7 +24463,6 @@
       <c r="W875" s="2"/>
       <c r="X875" s="2"/>
       <c r="Y875" s="2"/>
-      <c r="Z875" s="2"/>
     </row>
     <row r="876" ht="19.5" customHeight="1">
       <c r="A876" s="2"/>
@@ -25369,7 +24490,6 @@
       <c r="W876" s="2"/>
       <c r="X876" s="2"/>
       <c r="Y876" s="2"/>
-      <c r="Z876" s="2"/>
     </row>
     <row r="877" ht="19.5" customHeight="1">
       <c r="A877" s="2"/>
@@ -25397,7 +24517,6 @@
       <c r="W877" s="2"/>
       <c r="X877" s="2"/>
       <c r="Y877" s="2"/>
-      <c r="Z877" s="2"/>
     </row>
     <row r="878" ht="19.5" customHeight="1">
       <c r="A878" s="2"/>
@@ -25425,7 +24544,6 @@
       <c r="W878" s="2"/>
       <c r="X878" s="2"/>
       <c r="Y878" s="2"/>
-      <c r="Z878" s="2"/>
     </row>
     <row r="879" ht="19.5" customHeight="1">
       <c r="A879" s="2"/>
@@ -25453,7 +24571,6 @@
       <c r="W879" s="2"/>
       <c r="X879" s="2"/>
       <c r="Y879" s="2"/>
-      <c r="Z879" s="2"/>
     </row>
     <row r="880" ht="19.5" customHeight="1">
       <c r="A880" s="2"/>
@@ -25481,7 +24598,6 @@
       <c r="W880" s="2"/>
       <c r="X880" s="2"/>
       <c r="Y880" s="2"/>
-      <c r="Z880" s="2"/>
     </row>
     <row r="881" ht="19.5" customHeight="1">
       <c r="A881" s="2"/>
@@ -25509,7 +24625,6 @@
       <c r="W881" s="2"/>
       <c r="X881" s="2"/>
       <c r="Y881" s="2"/>
-      <c r="Z881" s="2"/>
     </row>
     <row r="882" ht="19.5" customHeight="1">
       <c r="A882" s="2"/>
@@ -25537,7 +24652,6 @@
       <c r="W882" s="2"/>
       <c r="X882" s="2"/>
       <c r="Y882" s="2"/>
-      <c r="Z882" s="2"/>
     </row>
     <row r="883" ht="19.5" customHeight="1">
       <c r="A883" s="2"/>
@@ -25565,7 +24679,6 @@
       <c r="W883" s="2"/>
       <c r="X883" s="2"/>
       <c r="Y883" s="2"/>
-      <c r="Z883" s="2"/>
     </row>
     <row r="884" ht="19.5" customHeight="1">
       <c r="A884" s="2"/>
@@ -25593,7 +24706,6 @@
       <c r="W884" s="2"/>
       <c r="X884" s="2"/>
       <c r="Y884" s="2"/>
-      <c r="Z884" s="2"/>
     </row>
     <row r="885" ht="19.5" customHeight="1">
       <c r="A885" s="2"/>
@@ -25621,7 +24733,6 @@
       <c r="W885" s="2"/>
       <c r="X885" s="2"/>
       <c r="Y885" s="2"/>
-      <c r="Z885" s="2"/>
     </row>
     <row r="886" ht="19.5" customHeight="1">
       <c r="A886" s="2"/>
@@ -25649,7 +24760,6 @@
       <c r="W886" s="2"/>
       <c r="X886" s="2"/>
       <c r="Y886" s="2"/>
-      <c r="Z886" s="2"/>
     </row>
     <row r="887" ht="19.5" customHeight="1">
       <c r="A887" s="2"/>
@@ -25677,7 +24787,6 @@
       <c r="W887" s="2"/>
       <c r="X887" s="2"/>
       <c r="Y887" s="2"/>
-      <c r="Z887" s="2"/>
     </row>
     <row r="888" ht="19.5" customHeight="1">
       <c r="A888" s="2"/>
@@ -25705,7 +24814,6 @@
       <c r="W888" s="2"/>
       <c r="X888" s="2"/>
       <c r="Y888" s="2"/>
-      <c r="Z888" s="2"/>
     </row>
     <row r="889" ht="19.5" customHeight="1">
       <c r="A889" s="2"/>
@@ -25733,7 +24841,6 @@
       <c r="W889" s="2"/>
       <c r="X889" s="2"/>
       <c r="Y889" s="2"/>
-      <c r="Z889" s="2"/>
     </row>
     <row r="890" ht="19.5" customHeight="1">
       <c r="A890" s="2"/>
@@ -25761,7 +24868,6 @@
       <c r="W890" s="2"/>
       <c r="X890" s="2"/>
       <c r="Y890" s="2"/>
-      <c r="Z890" s="2"/>
     </row>
     <row r="891" ht="19.5" customHeight="1">
       <c r="A891" s="2"/>
@@ -25789,7 +24895,6 @@
       <c r="W891" s="2"/>
       <c r="X891" s="2"/>
       <c r="Y891" s="2"/>
-      <c r="Z891" s="2"/>
     </row>
     <row r="892" ht="19.5" customHeight="1">
       <c r="A892" s="2"/>
@@ -25817,7 +24922,6 @@
       <c r="W892" s="2"/>
       <c r="X892" s="2"/>
       <c r="Y892" s="2"/>
-      <c r="Z892" s="2"/>
     </row>
     <row r="893" ht="19.5" customHeight="1">
       <c r="A893" s="2"/>
@@ -25845,7 +24949,6 @@
       <c r="W893" s="2"/>
       <c r="X893" s="2"/>
       <c r="Y893" s="2"/>
-      <c r="Z893" s="2"/>
     </row>
     <row r="894" ht="19.5" customHeight="1">
       <c r="A894" s="2"/>
@@ -25873,7 +24976,6 @@
       <c r="W894" s="2"/>
       <c r="X894" s="2"/>
       <c r="Y894" s="2"/>
-      <c r="Z894" s="2"/>
     </row>
     <row r="895" ht="19.5" customHeight="1">
       <c r="A895" s="2"/>
@@ -25901,7 +25003,6 @@
       <c r="W895" s="2"/>
       <c r="X895" s="2"/>
       <c r="Y895" s="2"/>
-      <c r="Z895" s="2"/>
     </row>
     <row r="896" ht="19.5" customHeight="1">
       <c r="A896" s="2"/>
@@ -25929,7 +25030,6 @@
       <c r="W896" s="2"/>
       <c r="X896" s="2"/>
       <c r="Y896" s="2"/>
-      <c r="Z896" s="2"/>
     </row>
     <row r="897" ht="19.5" customHeight="1">
       <c r="A897" s="2"/>
@@ -25957,7 +25057,6 @@
       <c r="W897" s="2"/>
       <c r="X897" s="2"/>
       <c r="Y897" s="2"/>
-      <c r="Z897" s="2"/>
     </row>
     <row r="898" ht="19.5" customHeight="1">
       <c r="A898" s="2"/>
@@ -25985,7 +25084,6 @@
       <c r="W898" s="2"/>
       <c r="X898" s="2"/>
       <c r="Y898" s="2"/>
-      <c r="Z898" s="2"/>
     </row>
     <row r="899" ht="19.5" customHeight="1">
       <c r="A899" s="2"/>
@@ -26013,7 +25111,6 @@
       <c r="W899" s="2"/>
       <c r="X899" s="2"/>
       <c r="Y899" s="2"/>
-      <c r="Z899" s="2"/>
     </row>
     <row r="900" ht="19.5" customHeight="1">
       <c r="A900" s="2"/>
@@ -26041,7 +25138,6 @@
       <c r="W900" s="2"/>
       <c r="X900" s="2"/>
       <c r="Y900" s="2"/>
-      <c r="Z900" s="2"/>
     </row>
     <row r="901" ht="19.5" customHeight="1">
       <c r="A901" s="2"/>
@@ -26069,7 +25165,6 @@
       <c r="W901" s="2"/>
       <c r="X901" s="2"/>
       <c r="Y901" s="2"/>
-      <c r="Z901" s="2"/>
     </row>
     <row r="902" ht="19.5" customHeight="1">
       <c r="A902" s="2"/>
@@ -26097,7 +25192,6 @@
       <c r="W902" s="2"/>
       <c r="X902" s="2"/>
       <c r="Y902" s="2"/>
-      <c r="Z902" s="2"/>
     </row>
     <row r="903" ht="19.5" customHeight="1">
       <c r="A903" s="2"/>
@@ -26125,7 +25219,6 @@
       <c r="W903" s="2"/>
       <c r="X903" s="2"/>
       <c r="Y903" s="2"/>
-      <c r="Z903" s="2"/>
     </row>
     <row r="904" ht="19.5" customHeight="1">
       <c r="A904" s="2"/>
@@ -26153,7 +25246,6 @@
       <c r="W904" s="2"/>
       <c r="X904" s="2"/>
       <c r="Y904" s="2"/>
-      <c r="Z904" s="2"/>
     </row>
     <row r="905" ht="19.5" customHeight="1">
       <c r="A905" s="2"/>
@@ -26181,7 +25273,6 @@
       <c r="W905" s="2"/>
       <c r="X905" s="2"/>
       <c r="Y905" s="2"/>
-      <c r="Z905" s="2"/>
     </row>
     <row r="906" ht="19.5" customHeight="1">
       <c r="A906" s="2"/>
@@ -26209,7 +25300,6 @@
       <c r="W906" s="2"/>
       <c r="X906" s="2"/>
       <c r="Y906" s="2"/>
-      <c r="Z906" s="2"/>
     </row>
     <row r="907" ht="19.5" customHeight="1">
       <c r="A907" s="2"/>
@@ -26237,7 +25327,6 @@
       <c r="W907" s="2"/>
       <c r="X907" s="2"/>
       <c r="Y907" s="2"/>
-      <c r="Z907" s="2"/>
     </row>
     <row r="908" ht="19.5" customHeight="1">
       <c r="A908" s="2"/>
@@ -26265,7 +25354,6 @@
       <c r="W908" s="2"/>
       <c r="X908" s="2"/>
       <c r="Y908" s="2"/>
-      <c r="Z908" s="2"/>
     </row>
     <row r="909" ht="19.5" customHeight="1">
       <c r="A909" s="2"/>
@@ -26293,7 +25381,6 @@
       <c r="W909" s="2"/>
       <c r="X909" s="2"/>
       <c r="Y909" s="2"/>
-      <c r="Z909" s="2"/>
     </row>
     <row r="910" ht="19.5" customHeight="1">
       <c r="A910" s="2"/>
@@ -26321,7 +25408,6 @@
       <c r="W910" s="2"/>
       <c r="X910" s="2"/>
       <c r="Y910" s="2"/>
-      <c r="Z910" s="2"/>
     </row>
     <row r="911" ht="19.5" customHeight="1">
       <c r="A911" s="2"/>
@@ -26349,7 +25435,6 @@
       <c r="W911" s="2"/>
       <c r="X911" s="2"/>
       <c r="Y911" s="2"/>
-      <c r="Z911" s="2"/>
     </row>
     <row r="912" ht="19.5" customHeight="1">
       <c r="A912" s="2"/>
@@ -26377,7 +25462,6 @@
       <c r="W912" s="2"/>
       <c r="X912" s="2"/>
       <c r="Y912" s="2"/>
-      <c r="Z912" s="2"/>
     </row>
     <row r="913" ht="19.5" customHeight="1">
       <c r="A913" s="2"/>
@@ -26405,7 +25489,6 @@
       <c r="W913" s="2"/>
       <c r="X913" s="2"/>
       <c r="Y913" s="2"/>
-      <c r="Z913" s="2"/>
     </row>
     <row r="914" ht="19.5" customHeight="1">
       <c r="A914" s="2"/>
@@ -26433,7 +25516,6 @@
       <c r="W914" s="2"/>
       <c r="X914" s="2"/>
       <c r="Y914" s="2"/>
-      <c r="Z914" s="2"/>
     </row>
     <row r="915" ht="19.5" customHeight="1">
       <c r="A915" s="2"/>
@@ -26461,7 +25543,6 @@
       <c r="W915" s="2"/>
       <c r="X915" s="2"/>
       <c r="Y915" s="2"/>
-      <c r="Z915" s="2"/>
     </row>
     <row r="916" ht="19.5" customHeight="1">
       <c r="A916" s="2"/>
@@ -26489,7 +25570,6 @@
       <c r="W916" s="2"/>
       <c r="X916" s="2"/>
       <c r="Y916" s="2"/>
-      <c r="Z916" s="2"/>
     </row>
     <row r="917" ht="19.5" customHeight="1">
       <c r="A917" s="2"/>
@@ -26517,7 +25597,6 @@
       <c r="W917" s="2"/>
       <c r="X917" s="2"/>
       <c r="Y917" s="2"/>
-      <c r="Z917" s="2"/>
     </row>
     <row r="918" ht="19.5" customHeight="1">
       <c r="A918" s="2"/>
@@ -26545,7 +25624,6 @@
       <c r="W918" s="2"/>
       <c r="X918" s="2"/>
       <c r="Y918" s="2"/>
-      <c r="Z918" s="2"/>
     </row>
     <row r="919" ht="19.5" customHeight="1">
       <c r="A919" s="2"/>
@@ -26573,7 +25651,6 @@
       <c r="W919" s="2"/>
       <c r="X919" s="2"/>
       <c r="Y919" s="2"/>
-      <c r="Z919" s="2"/>
     </row>
     <row r="920" ht="19.5" customHeight="1">
       <c r="A920" s="2"/>
@@ -26601,7 +25678,6 @@
       <c r="W920" s="2"/>
       <c r="X920" s="2"/>
       <c r="Y920" s="2"/>
-      <c r="Z920" s="2"/>
     </row>
     <row r="921" ht="19.5" customHeight="1">
       <c r="A921" s="2"/>
@@ -26629,7 +25705,6 @@
       <c r="W921" s="2"/>
       <c r="X921" s="2"/>
       <c r="Y921" s="2"/>
-      <c r="Z921" s="2"/>
     </row>
     <row r="922" ht="19.5" customHeight="1">
       <c r="A922" s="2"/>
@@ -26657,7 +25732,6 @@
       <c r="W922" s="2"/>
       <c r="X922" s="2"/>
       <c r="Y922" s="2"/>
-      <c r="Z922" s="2"/>
     </row>
     <row r="923" ht="19.5" customHeight="1">
       <c r="A923" s="2"/>
@@ -26685,7 +25759,6 @@
       <c r="W923" s="2"/>
       <c r="X923" s="2"/>
       <c r="Y923" s="2"/>
-      <c r="Z923" s="2"/>
     </row>
     <row r="924" ht="19.5" customHeight="1">
       <c r="A924" s="2"/>
@@ -26713,7 +25786,6 @@
       <c r="W924" s="2"/>
       <c r="X924" s="2"/>
       <c r="Y924" s="2"/>
-      <c r="Z924" s="2"/>
     </row>
     <row r="925" ht="19.5" customHeight="1">
       <c r="A925" s="2"/>
@@ -26741,7 +25813,6 @@
       <c r="W925" s="2"/>
       <c r="X925" s="2"/>
       <c r="Y925" s="2"/>
-      <c r="Z925" s="2"/>
     </row>
     <row r="926" ht="19.5" customHeight="1">
       <c r="A926" s="2"/>
@@ -26769,7 +25840,6 @@
       <c r="W926" s="2"/>
       <c r="X926" s="2"/>
       <c r="Y926" s="2"/>
-      <c r="Z926" s="2"/>
     </row>
     <row r="927" ht="19.5" customHeight="1">
       <c r="A927" s="2"/>
@@ -26797,7 +25867,6 @@
       <c r="W927" s="2"/>
       <c r="X927" s="2"/>
       <c r="Y927" s="2"/>
-      <c r="Z927" s="2"/>
     </row>
     <row r="928" ht="19.5" customHeight="1">
       <c r="A928" s="2"/>
@@ -26825,7 +25894,6 @@
       <c r="W928" s="2"/>
       <c r="X928" s="2"/>
       <c r="Y928" s="2"/>
-      <c r="Z928" s="2"/>
     </row>
     <row r="929" ht="19.5" customHeight="1">
       <c r="A929" s="2"/>
@@ -26853,7 +25921,6 @@
       <c r="W929" s="2"/>
       <c r="X929" s="2"/>
       <c r="Y929" s="2"/>
-      <c r="Z929" s="2"/>
     </row>
     <row r="930" ht="19.5" customHeight="1">
       <c r="A930" s="2"/>
@@ -26881,7 +25948,6 @@
       <c r="W930" s="2"/>
       <c r="X930" s="2"/>
       <c r="Y930" s="2"/>
-      <c r="Z930" s="2"/>
     </row>
     <row r="931" ht="19.5" customHeight="1">
       <c r="A931" s="2"/>
@@ -26909,7 +25975,6 @@
       <c r="W931" s="2"/>
       <c r="X931" s="2"/>
       <c r="Y931" s="2"/>
-      <c r="Z931" s="2"/>
     </row>
     <row r="932" ht="19.5" customHeight="1">
       <c r="A932" s="2"/>
@@ -26937,7 +26002,6 @@
       <c r="W932" s="2"/>
       <c r="X932" s="2"/>
       <c r="Y932" s="2"/>
-      <c r="Z932" s="2"/>
     </row>
     <row r="933" ht="19.5" customHeight="1">
       <c r="A933" s="2"/>
@@ -26965,7 +26029,6 @@
       <c r="W933" s="2"/>
       <c r="X933" s="2"/>
       <c r="Y933" s="2"/>
-      <c r="Z933" s="2"/>
     </row>
     <row r="934" ht="19.5" customHeight="1">
       <c r="A934" s="2"/>
@@ -26993,7 +26056,6 @@
       <c r="W934" s="2"/>
       <c r="X934" s="2"/>
       <c r="Y934" s="2"/>
-      <c r="Z934" s="2"/>
     </row>
     <row r="935" ht="19.5" customHeight="1">
       <c r="A935" s="2"/>
@@ -27021,7 +26083,6 @@
       <c r="W935" s="2"/>
       <c r="X935" s="2"/>
       <c r="Y935" s="2"/>
-      <c r="Z935" s="2"/>
     </row>
     <row r="936" ht="19.5" customHeight="1">
       <c r="A936" s="2"/>
@@ -27049,7 +26110,6 @@
       <c r="W936" s="2"/>
       <c r="X936" s="2"/>
       <c r="Y936" s="2"/>
-      <c r="Z936" s="2"/>
     </row>
     <row r="937" ht="19.5" customHeight="1">
       <c r="A937" s="2"/>
@@ -27077,7 +26137,6 @@
       <c r="W937" s="2"/>
       <c r="X937" s="2"/>
       <c r="Y937" s="2"/>
-      <c r="Z937" s="2"/>
     </row>
     <row r="938" ht="19.5" customHeight="1">
       <c r="A938" s="2"/>
@@ -27105,7 +26164,6 @@
       <c r="W938" s="2"/>
       <c r="X938" s="2"/>
       <c r="Y938" s="2"/>
-      <c r="Z938" s="2"/>
     </row>
     <row r="939" ht="19.5" customHeight="1">
       <c r="A939" s="2"/>
@@ -27133,7 +26191,6 @@
       <c r="W939" s="2"/>
       <c r="X939" s="2"/>
       <c r="Y939" s="2"/>
-      <c r="Z939" s="2"/>
     </row>
     <row r="940" ht="19.5" customHeight="1">
       <c r="A940" s="2"/>
@@ -27161,7 +26218,6 @@
       <c r="W940" s="2"/>
       <c r="X940" s="2"/>
       <c r="Y940" s="2"/>
-      <c r="Z940" s="2"/>
     </row>
     <row r="941" ht="19.5" customHeight="1">
       <c r="A941" s="2"/>
@@ -27189,7 +26245,6 @@
       <c r="W941" s="2"/>
       <c r="X941" s="2"/>
       <c r="Y941" s="2"/>
-      <c r="Z941" s="2"/>
     </row>
     <row r="942" ht="19.5" customHeight="1">
       <c r="A942" s="2"/>
@@ -27217,7 +26272,6 @@
       <c r="W942" s="2"/>
       <c r="X942" s="2"/>
       <c r="Y942" s="2"/>
-      <c r="Z942" s="2"/>
     </row>
     <row r="943" ht="19.5" customHeight="1">
       <c r="A943" s="2"/>
@@ -27245,7 +26299,6 @@
       <c r="W943" s="2"/>
       <c r="X943" s="2"/>
       <c r="Y943" s="2"/>
-      <c r="Z943" s="2"/>
     </row>
     <row r="944" ht="19.5" customHeight="1">
       <c r="A944" s="2"/>
@@ -27273,7 +26326,6 @@
       <c r="W944" s="2"/>
       <c r="X944" s="2"/>
       <c r="Y944" s="2"/>
-      <c r="Z944" s="2"/>
     </row>
     <row r="945" ht="19.5" customHeight="1">
       <c r="A945" s="2"/>
@@ -27301,7 +26353,6 @@
       <c r="W945" s="2"/>
       <c r="X945" s="2"/>
       <c r="Y945" s="2"/>
-      <c r="Z945" s="2"/>
     </row>
     <row r="946" ht="19.5" customHeight="1">
       <c r="A946" s="2"/>
@@ -27329,7 +26380,6 @@
       <c r="W946" s="2"/>
       <c r="X946" s="2"/>
       <c r="Y946" s="2"/>
-      <c r="Z946" s="2"/>
     </row>
     <row r="947" ht="19.5" customHeight="1">
       <c r="A947" s="2"/>
@@ -27357,7 +26407,6 @@
       <c r="W947" s="2"/>
       <c r="X947" s="2"/>
       <c r="Y947" s="2"/>
-      <c r="Z947" s="2"/>
     </row>
     <row r="948" ht="19.5" customHeight="1">
       <c r="A948" s="2"/>
@@ -27385,7 +26434,6 @@
       <c r="W948" s="2"/>
       <c r="X948" s="2"/>
       <c r="Y948" s="2"/>
-      <c r="Z948" s="2"/>
     </row>
     <row r="949" ht="19.5" customHeight="1">
       <c r="A949" s="2"/>
@@ -27413,7 +26461,6 @@
       <c r="W949" s="2"/>
       <c r="X949" s="2"/>
       <c r="Y949" s="2"/>
-      <c r="Z949" s="2"/>
     </row>
     <row r="950" ht="19.5" customHeight="1">
       <c r="A950" s="2"/>
@@ -27441,7 +26488,6 @@
       <c r="W950" s="2"/>
       <c r="X950" s="2"/>
       <c r="Y950" s="2"/>
-      <c r="Z950" s="2"/>
     </row>
     <row r="951" ht="19.5" customHeight="1">
       <c r="A951" s="2"/>
@@ -27469,7 +26515,6 @@
       <c r="W951" s="2"/>
       <c r="X951" s="2"/>
       <c r="Y951" s="2"/>
-      <c r="Z951" s="2"/>
     </row>
     <row r="952" ht="19.5" customHeight="1">
       <c r="A952" s="2"/>
@@ -27497,7 +26542,6 @@
       <c r="W952" s="2"/>
       <c r="X952" s="2"/>
       <c r="Y952" s="2"/>
-      <c r="Z952" s="2"/>
     </row>
     <row r="953" ht="19.5" customHeight="1">
       <c r="A953" s="2"/>
@@ -27525,7 +26569,6 @@
       <c r="W953" s="2"/>
       <c r="X953" s="2"/>
       <c r="Y953" s="2"/>
-      <c r="Z953" s="2"/>
     </row>
     <row r="954" ht="19.5" customHeight="1">
       <c r="A954" s="2"/>
@@ -27553,7 +26596,6 @@
       <c r="W954" s="2"/>
       <c r="X954" s="2"/>
       <c r="Y954" s="2"/>
-      <c r="Z954" s="2"/>
     </row>
     <row r="955" ht="19.5" customHeight="1">
       <c r="A955" s="2"/>
@@ -27581,7 +26623,6 @@
       <c r="W955" s="2"/>
       <c r="X955" s="2"/>
       <c r="Y955" s="2"/>
-      <c r="Z955" s="2"/>
     </row>
     <row r="956" ht="19.5" customHeight="1">
       <c r="A956" s="2"/>
@@ -27609,7 +26650,6 @@
       <c r="W956" s="2"/>
       <c r="X956" s="2"/>
       <c r="Y956" s="2"/>
-      <c r="Z956" s="2"/>
     </row>
     <row r="957" ht="19.5" customHeight="1">
       <c r="A957" s="2"/>
@@ -27637,7 +26677,6 @@
       <c r="W957" s="2"/>
       <c r="X957" s="2"/>
       <c r="Y957" s="2"/>
-      <c r="Z957" s="2"/>
     </row>
     <row r="958" ht="19.5" customHeight="1">
       <c r="A958" s="2"/>
@@ -27665,7 +26704,6 @@
       <c r="W958" s="2"/>
       <c r="X958" s="2"/>
       <c r="Y958" s="2"/>
-      <c r="Z958" s="2"/>
     </row>
     <row r="959" ht="19.5" customHeight="1">
       <c r="A959" s="2"/>
@@ -27693,7 +26731,6 @@
       <c r="W959" s="2"/>
       <c r="X959" s="2"/>
       <c r="Y959" s="2"/>
-      <c r="Z959" s="2"/>
     </row>
     <row r="960" ht="19.5" customHeight="1">
       <c r="A960" s="2"/>
@@ -27721,7 +26758,6 @@
       <c r="W960" s="2"/>
       <c r="X960" s="2"/>
       <c r="Y960" s="2"/>
-      <c r="Z960" s="2"/>
     </row>
     <row r="961" ht="19.5" customHeight="1">
       <c r="A961" s="2"/>
@@ -27749,7 +26785,6 @@
       <c r="W961" s="2"/>
       <c r="X961" s="2"/>
       <c r="Y961" s="2"/>
-      <c r="Z961" s="2"/>
     </row>
     <row r="962" ht="19.5" customHeight="1">
       <c r="A962" s="2"/>
@@ -27777,7 +26812,6 @@
       <c r="W962" s="2"/>
       <c r="X962" s="2"/>
       <c r="Y962" s="2"/>
-      <c r="Z962" s="2"/>
     </row>
     <row r="963" ht="19.5" customHeight="1">
       <c r="A963" s="2"/>
@@ -27805,7 +26839,6 @@
       <c r="W963" s="2"/>
       <c r="X963" s="2"/>
       <c r="Y963" s="2"/>
-      <c r="Z963" s="2"/>
     </row>
     <row r="964" ht="19.5" customHeight="1">
       <c r="A964" s="2"/>
@@ -27833,7 +26866,6 @@
       <c r="W964" s="2"/>
       <c r="X964" s="2"/>
       <c r="Y964" s="2"/>
-      <c r="Z964" s="2"/>
     </row>
     <row r="965" ht="19.5" customHeight="1">
       <c r="A965" s="2"/>
@@ -27861,7 +26893,6 @@
       <c r="W965" s="2"/>
       <c r="X965" s="2"/>
       <c r="Y965" s="2"/>
-      <c r="Z965" s="2"/>
     </row>
     <row r="966" ht="19.5" customHeight="1">
       <c r="A966" s="2"/>
@@ -27889,7 +26920,6 @@
       <c r="W966" s="2"/>
       <c r="X966" s="2"/>
       <c r="Y966" s="2"/>
-      <c r="Z966" s="2"/>
     </row>
     <row r="967" ht="19.5" customHeight="1">
       <c r="A967" s="2"/>
@@ -27917,7 +26947,6 @@
       <c r="W967" s="2"/>
       <c r="X967" s="2"/>
       <c r="Y967" s="2"/>
-      <c r="Z967" s="2"/>
     </row>
     <row r="968" ht="19.5" customHeight="1">
       <c r="A968" s="2"/>
@@ -27945,7 +26974,6 @@
       <c r="W968" s="2"/>
       <c r="X968" s="2"/>
       <c r="Y968" s="2"/>
-      <c r="Z968" s="2"/>
     </row>
     <row r="969" ht="19.5" customHeight="1">
       <c r="A969" s="2"/>
@@ -27973,7 +27001,6 @@
       <c r="W969" s="2"/>
       <c r="X969" s="2"/>
       <c r="Y969" s="2"/>
-      <c r="Z969" s="2"/>
     </row>
     <row r="970" ht="19.5" customHeight="1">
       <c r="A970" s="2"/>
@@ -28001,7 +27028,6 @@
       <c r="W970" s="2"/>
       <c r="X970" s="2"/>
       <c r="Y970" s="2"/>
-      <c r="Z970" s="2"/>
     </row>
     <row r="971" ht="19.5" customHeight="1">
       <c r="A971" s="2"/>
@@ -28029,7 +27055,6 @@
       <c r="W971" s="2"/>
       <c r="X971" s="2"/>
       <c r="Y971" s="2"/>
-      <c r="Z971" s="2"/>
     </row>
     <row r="972" ht="19.5" customHeight="1">
       <c r="A972" s="2"/>
@@ -28057,7 +27082,6 @@
       <c r="W972" s="2"/>
       <c r="X972" s="2"/>
       <c r="Y972" s="2"/>
-      <c r="Z972" s="2"/>
     </row>
     <row r="973" ht="19.5" customHeight="1">
       <c r="A973" s="2"/>
@@ -28085,11 +27109,10 @@
       <c r="W973" s="2"/>
       <c r="X973" s="2"/>
       <c r="Y973" s="2"/>
-      <c r="Z973" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.0"/>
